--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/Projet Merveilles17/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2D2032-68DE-2246-A5A3-E9727C881702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF284E5C-8EFC-9148-97C7-0E63366021B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="723">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -1008,9 +1008,6 @@
     <t>auteur, acteur</t>
   </si>
   <si>
-    <t>henri_daillon_charles_de_foix</t>
-  </si>
-  <si>
     <t>gourdon</t>
   </si>
   <si>
@@ -1622,9 +1619,6 @@
     <t>Duc de Rendant</t>
   </si>
   <si>
-    <t>Daillon Charles de Foix (de)</t>
-  </si>
-  <si>
     <t>Aumont de Rochebaron (d'), Antoine</t>
   </si>
   <si>
@@ -2296,6 +2290,48 @@
   </si>
   <si>
     <t>louis_don</t>
+  </si>
+  <si>
+    <t>Henri-François</t>
+  </si>
+  <si>
+    <t>Foix de Candale (de)</t>
+  </si>
+  <si>
+    <t>Carrière militaire</t>
+  </si>
+  <si>
+    <t>henri_françois_candale_foix</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Jean Baptiste Gaston</t>
+  </si>
+  <si>
+    <t>Foix de Candale, Jean Baptiste Gaston de</t>
+  </si>
+  <si>
+    <t>jb_gaston_foix_candale</t>
+  </si>
+  <si>
+    <t>Louis Marie Victor</t>
+  </si>
+  <si>
+    <t>Aumont de Rochebaron (d'), Louis Marie Victor</t>
+  </si>
+  <si>
+    <t>https://data.bnf.fr/fr/15071916/louis-marie-victor_aumont/</t>
+  </si>
+  <si>
+    <t>louis_marie_aumont_rochebaron</t>
+  </si>
+  <si>
+    <t>Marquis de Villequier, Duc d'Aumont</t>
+  </si>
+  <si>
+    <t>1er gentilhomme de la chambre du Roi</t>
   </si>
 </sst>
 </file>
@@ -2825,7 +2861,23 @@
     <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="195">
+  <dxfs count="196">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5766,9 +5818,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tâches" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="194"/>
-      <tableStyleElement type="headerRow" dxfId="193"/>
-      <tableStyleElement type="firstColumn" dxfId="192"/>
+      <tableStyleElement type="wholeTable" dxfId="195"/>
+      <tableStyleElement type="headerRow" dxfId="194"/>
+      <tableStyleElement type="firstColumn" dxfId="193"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5783,22 +5835,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Pie_Ballard_2" displayName="Pie_Ballard_2" ref="A6:N134" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Pie_Ballard_2" displayName="Pie_Ballard_2" ref="A6:N134" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom de la personne (dans le texte)" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom usuel (entrée indexée)" dataDxfId="188"/>
-    <tableColumn id="14" xr3:uid="{90C0EA09-C347-5949-9760-FF06F3B8F55E}" name="Nom de famille" dataDxfId="187"/>
-    <tableColumn id="13" xr3:uid="{7B35038D-C589-B14D-86B6-B19E92236960}" name="Prénom" dataDxfId="186"/>
-    <tableColumn id="12" xr3:uid="{C8BF4684-61C8-7449-AA08-B3FD34B4F368}" name="Titre" dataDxfId="185"/>
-    <tableColumn id="15" xr3:uid="{CEF030FA-40C7-0944-83EE-6A140A3DB277}" name="Genre" dataDxfId="184"/>
-    <tableColumn id="4" xr3:uid="{F9A2952D-C595-194B-9097-629AB3F4AA6C}" name="Nom normalisé" dataDxfId="183"/>
-    <tableColumn id="16" xr3:uid="{586359E4-A2CE-CE47-8C33-1DB9945B8932}" name="Date de naissance" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date de décès" dataDxfId="181"/>
-    <tableColumn id="5" xr3:uid="{9060BF01-3977-B246-BDDD-E5673D7458B3}" name="Nationalité" dataDxfId="180"/>
-    <tableColumn id="6" xr3:uid="{DB8C0572-601F-AF42-931B-795C819355AB}" name="Fonction dans la société" dataDxfId="179"/>
-    <tableColumn id="8" xr3:uid="{82FD8E1A-921F-BD45-BCFB-801AACD1D93A}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="178"/>
-    <tableColumn id="10" xr3:uid="{415509FA-6829-2B42-992B-E683EAC35D33}" name="Rôle normalisé" dataDxfId="177"/>
-    <tableColumn id="17" xr3:uid="{0FF9BE96-E727-2B42-BF86-79051D38838C}" name="ID DataBnF" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
+    <tableColumn id="14" xr3:uid="{90C0EA09-C347-5949-9760-FF06F3B8F55E}" name="Nom de famille" dataDxfId="188"/>
+    <tableColumn id="13" xr3:uid="{7B35038D-C589-B14D-86B6-B19E92236960}" name="Prénom" dataDxfId="187"/>
+    <tableColumn id="12" xr3:uid="{C8BF4684-61C8-7449-AA08-B3FD34B4F368}" name="Titre" dataDxfId="186"/>
+    <tableColumn id="15" xr3:uid="{CEF030FA-40C7-0944-83EE-6A140A3DB277}" name="Genre" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{F9A2952D-C595-194B-9097-629AB3F4AA6C}" name="Nom normalisé" dataDxfId="184"/>
+    <tableColumn id="16" xr3:uid="{586359E4-A2CE-CE47-8C33-1DB9945B8932}" name="Date de naissance" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date de décès" dataDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{9060BF01-3977-B246-BDDD-E5673D7458B3}" name="Nationalité" dataDxfId="181"/>
+    <tableColumn id="6" xr3:uid="{DB8C0572-601F-AF42-931B-795C819355AB}" name="Fonction dans la société" dataDxfId="180"/>
+    <tableColumn id="8" xr3:uid="{82FD8E1A-921F-BD45-BCFB-801AACD1D93A}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="179"/>
+    <tableColumn id="10" xr3:uid="{415509FA-6829-2B42-992B-E683EAC35D33}" name="Rôle normalisé" dataDxfId="178"/>
+    <tableColumn id="17" xr3:uid="{0FF9BE96-E727-2B42-BF86-79051D38838C}" name="ID DataBnF" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5810,88 +5862,89 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{8DEE6EBC-5471-DD45-A9DE-9CEC1B08F81D}" name="Tableau1260708090100" displayName="Tableau1260708090100" ref="A6:N11" totalsRowShown="0" dataDxfId="46" headerRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{8DEE6EBC-5471-DD45-A9DE-9CEC1B08F81D}" name="Tableau1260708090100" displayName="Tableau1260708090100" ref="A6:N11" totalsRowShown="0" dataDxfId="47" headerRowBorderDxfId="48">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A2353750-67F8-514E-B8AB-89C60649EFDA}" name="Nom de la personne (dans le texte)" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{41D2143A-B0C6-8140-956F-E0DC3DA365EF}" name="Nom usuel (entrée indexée)" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{DE197E0E-E849-354F-9B41-D8CD0EF09E2A}" name="Nom de famille" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{6E5593C2-253D-AA4B-BF8C-7CE8E3806A51}" name="Prénom" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{42475992-3DA8-ED45-87E6-2CB67BD77E8F}" name="Titre" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{8413A9B1-EF51-0E4A-BFA4-4F2FC593DF7D}" name="Genre" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{6656B3AE-632F-4F48-A32E-152889B5CE73}" name="Nom normalisé" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{FD2BAF72-0C08-334D-A26A-896720B45587}" name="Date de naissance" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{F16E6546-28C0-5141-B4D2-5DF0AA55C3C9}" name="Date de décès" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{B73D416A-2EA7-EE4A-9B46-31FCB7683909}" name="Nationalité" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{01912C96-CD3C-AA4B-B8D7-895859D47A5A}" name="Fonction dans la société" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{05726166-76C5-884F-98B4-7A882E34F3FF}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{F1B19FBF-9C97-7242-B810-F108FA9993B0}" name="Rôle normalisé" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{F41372E5-3ADA-184C-9BFC-C2562F9A6EE8}" name="ID DataBnF" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{A2353750-67F8-514E-B8AB-89C60649EFDA}" name="Nom de la personne (dans le texte)" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{41D2143A-B0C6-8140-956F-E0DC3DA365EF}" name="Nom usuel (entrée indexée)" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{DE197E0E-E849-354F-9B41-D8CD0EF09E2A}" name="Nom de famille" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{6E5593C2-253D-AA4B-BF8C-7CE8E3806A51}" name="Prénom" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{42475992-3DA8-ED45-87E6-2CB67BD77E8F}" name="Titre" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{8413A9B1-EF51-0E4A-BFA4-4F2FC593DF7D}" name="Genre" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{6656B3AE-632F-4F48-A32E-152889B5CE73}" name="Nom normalisé" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{FD2BAF72-0C08-334D-A26A-896720B45587}" name="Date de naissance" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{F16E6546-28C0-5141-B4D2-5DF0AA55C3C9}" name="Date de décès" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{B73D416A-2EA7-EE4A-9B46-31FCB7683909}" name="Nationalité" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{01912C96-CD3C-AA4B-B8D7-895859D47A5A}" name="Fonction dans la société" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{05726166-76C5-884F-98B4-7A882E34F3FF}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{F1B19FBF-9C97-7242-B810-F108FA9993B0}" name="Rôle normalisé" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{F41372E5-3ADA-184C-9BFC-C2562F9A6EE8}" name="ID DataBnF" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58C79682-8BC5-F14E-BE4A-31EC5CE41D0D}" name="Tableau12607080901002" displayName="Tableau12607080901002" ref="A6:N7" totalsRowShown="0" dataDxfId="30" headerRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58C79682-8BC5-F14E-BE4A-31EC5CE41D0D}" name="Tableau12607080901002" displayName="Tableau12607080901002" ref="A6:N7" totalsRowShown="0" dataDxfId="31" headerRowBorderDxfId="32">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{14D8DDAB-4A4B-8247-9C36-926F85B3D148}" name="Nom de la personne (dans le texte)" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{EB42FA4D-5BC1-324F-AD16-A482726B9B85}" name="Nom usuel (entrée indexée)" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0750B586-CEBA-4C4A-ABAB-2CEFC0F02B81}" name="Nom de famille" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{84CB2B33-1AEF-1E40-9757-FF82063D07F7}" name="Prénom" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{6C53AE0C-D55D-0248-94CA-A64948303225}" name="Titre" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{CE1AD0E2-7376-A64E-9347-4BE80381B5D3}" name="Genre" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{09F80201-BEA2-4345-A5D4-728C4CEF08C7}" name="Nom normalisé" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{25452258-6CB9-D54C-8A92-1FCA0E377432}" name="Date de naissance" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{A6D4A876-49BA-8849-9F6C-68FA936FED56}" name="Date de décès" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{0F1D89FA-336C-804E-A1DA-9D8AB24003A6}" name="Nationalité" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{773B1940-5906-6D46-8351-40641B684A00}" name="Fonction dans la société" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{13CC0DF9-8A77-1A47-A9A8-E47D5E961D13}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{081DF9E0-3742-6245-98C4-B761FB3C315C}" name="Rôle normalisé" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{4EB9643E-A9D2-8F4F-B43B-AF6E16EDD53E}" name="ID DataBnF" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{14D8DDAB-4A4B-8247-9C36-926F85B3D148}" name="Nom de la personne (dans le texte)" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EB42FA4D-5BC1-324F-AD16-A482726B9B85}" name="Nom usuel (entrée indexée)" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{0750B586-CEBA-4C4A-ABAB-2CEFC0F02B81}" name="Nom de famille" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{84CB2B33-1AEF-1E40-9757-FF82063D07F7}" name="Prénom" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{6C53AE0C-D55D-0248-94CA-A64948303225}" name="Titre" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{CE1AD0E2-7376-A64E-9347-4BE80381B5D3}" name="Genre" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{09F80201-BEA2-4345-A5D4-728C4CEF08C7}" name="Nom normalisé" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{25452258-6CB9-D54C-8A92-1FCA0E377432}" name="Date de naissance" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{A6D4A876-49BA-8849-9F6C-68FA936FED56}" name="Date de décès" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{0F1D89FA-336C-804E-A1DA-9D8AB24003A6}" name="Nationalité" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{773B1940-5906-6D46-8351-40641B684A00}" name="Fonction dans la société" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{13CC0DF9-8A77-1A47-A9A8-E47D5E961D13}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{081DF9E0-3742-6245-98C4-B761FB3C315C}" name="Rôle normalisé" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{4EB9643E-A9D2-8F4F-B43B-AF6E16EDD53E}" name="ID DataBnF" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC92EE6E-6EF4-A34F-A1D1-B6096E67B13E}" name="Tableau126070809010024" displayName="Tableau126070809010024" ref="A6:N7" totalsRowShown="0" dataDxfId="14" headerRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC92EE6E-6EF4-A34F-A1D1-B6096E67B13E}" name="Tableau126070809010024" displayName="Tableau126070809010024" ref="A6:N7" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6F7095AE-B771-4F4D-9E94-F18268E04755}" name="Nom de la personne (dans le texte)" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{2EA22226-616F-184D-B764-66816E8ABB18}" name="Nom usuel (entrée indexée)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{A25DB16E-60C5-9343-8EAA-3E9070945B23}" name="Nom de famille" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{C49DB506-A94F-9446-A631-34ADFD581A7A}" name="Prénom" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AA2AC9CE-3A26-A145-B48D-89494A66FA71}" name="Titre" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{47821544-5C0C-1349-B94B-CB11CA0BB247}" name="Genre" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{9553F12A-CD9F-B646-85E6-97A1D744FF84}" name="Nom normalisé" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{A824BC49-6EF1-3E47-A9D9-C6DED8769316}" name="Date de naissance" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{206F571E-C4BA-4F4A-98AE-E28D1DA6A35E}" name="Date de décès" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{BB73F3B2-4425-6045-99E1-4BA9BA1BE4A1}" name="Nationalité" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{C0FD04FC-914C-7A42-AB11-45EBA63DC958}" name="Fonction dans la société" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{46B53BA1-8DF9-BB42-9753-7C4EBD916D06}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{1CC2369B-5FD1-B24A-A8D0-6E0C87000EC5}" name="Rôle normalisé" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{6B405CFD-A50D-0143-856B-212A780BF8E1}" name="ID DataBnF" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6F7095AE-B771-4F4D-9E94-F18268E04755}" name="Nom de la personne (dans le texte)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2EA22226-616F-184D-B764-66816E8ABB18}" name="Nom usuel (entrée indexée)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{A25DB16E-60C5-9343-8EAA-3E9070945B23}" name="Nom de famille" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C49DB506-A94F-9446-A631-34ADFD581A7A}" name="Prénom" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AA2AC9CE-3A26-A145-B48D-89494A66FA71}" name="Titre" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{47821544-5C0C-1349-B94B-CB11CA0BB247}" name="Genre" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{9553F12A-CD9F-B646-85E6-97A1D744FF84}" name="Nom normalisé" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{A824BC49-6EF1-3E47-A9D9-C6DED8769316}" name="Date de naissance" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{206F571E-C4BA-4F4A-98AE-E28D1DA6A35E}" name="Date de décès" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BB73F3B2-4425-6045-99E1-4BA9BA1BE4A1}" name="Nationalité" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{C0FD04FC-914C-7A42-AB11-45EBA63DC958}" name="Fonction dans la société" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{46B53BA1-8DF9-BB42-9753-7C4EBD916D06}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{1CC2369B-5FD1-B24A-A8D0-6E0C87000EC5}" name="Rôle normalisé" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{6B405CFD-A50D-0143-856B-212A780BF8E1}" name="ID DataBnF" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="101" xr:uid="{59A0F306-B7C8-FA44-84D4-5C1B92D371C4}" name="PieBallard1" displayName="PieBallard1" ref="A6:N58" totalsRowShown="0" dataDxfId="175">
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{93ED270F-6577-8E4B-9FAF-A4D2321EAEC1}" name="Nom de la personne (dans le texte)" dataDxfId="174"/>
-    <tableColumn id="2" xr3:uid="{9C52561F-F4D9-CE42-A9BF-5FDA846A77D9}" name="Nom usuel (entrée indexée)" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{B75E3DA7-7330-EA42-9FB4-88694C5BFC8F}" name="Nom de famille" dataDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{A435EC5E-F9B3-8441-AF8A-35B9C2FE1D34}" name="Prénom" dataDxfId="171"/>
-    <tableColumn id="5" xr3:uid="{3C5A696A-E65E-1D4D-9505-8E726C114293}" name="Titre" dataDxfId="170"/>
-    <tableColumn id="6" xr3:uid="{CF67975B-B925-3F4A-B222-C46D2BC35EEA}" name="Genre" dataDxfId="169"/>
-    <tableColumn id="8" xr3:uid="{353509B8-9C9B-9C41-BEE7-8583F15B289E}" name="Nom normalisé" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{ABFF3E23-E6B0-0F44-A581-3C1B42AC8676}" name="Date de naissance" dataDxfId="167"/>
-    <tableColumn id="10" xr3:uid="{C5470F6F-D474-6D45-B6A3-61918CAA6D5B}" name="Date de décès" dataDxfId="166"/>
-    <tableColumn id="7" xr3:uid="{6D3BFF3A-74DD-D145-ACA6-D7DF1A822FAD}" name="Nationalité" dataDxfId="165"/>
-    <tableColumn id="11" xr3:uid="{F472EBF5-480A-1C45-83B1-9E56B61B8723}" name="Fonction dans la société" dataDxfId="164"/>
-    <tableColumn id="12" xr3:uid="{C64D47C0-C1DC-2144-88AE-E7A22E4FFD31}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="163"/>
-    <tableColumn id="13" xr3:uid="{24FDC70A-BF4A-D148-A4F6-F8CBCB91D37B}" name="Rôle normalisé" dataDxfId="162"/>
-    <tableColumn id="14" xr3:uid="{94201B49-6B8F-494A-8F61-6ED38D24F600}" name="ID DataBnF" dataDxfId="161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="101" xr:uid="{59A0F306-B7C8-FA44-84D4-5C1B92D371C4}" name="PieBallard1" displayName="PieBallard1" ref="A6:O58" totalsRowShown="0" dataDxfId="176">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{93ED270F-6577-8E4B-9FAF-A4D2321EAEC1}" name="Nom de la personne (dans le texte)" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{9C52561F-F4D9-CE42-A9BF-5FDA846A77D9}" name="Nom usuel (entrée indexée)" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{B75E3DA7-7330-EA42-9FB4-88694C5BFC8F}" name="Nom de famille" dataDxfId="173"/>
+    <tableColumn id="3" xr3:uid="{A435EC5E-F9B3-8441-AF8A-35B9C2FE1D34}" name="Prénom" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{3C5A696A-E65E-1D4D-9505-8E726C114293}" name="Titre" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{CF67975B-B925-3F4A-B222-C46D2BC35EEA}" name="Genre" dataDxfId="170"/>
+    <tableColumn id="8" xr3:uid="{353509B8-9C9B-9C41-BEE7-8583F15B289E}" name="Nom normalisé" dataDxfId="169"/>
+    <tableColumn id="9" xr3:uid="{ABFF3E23-E6B0-0F44-A581-3C1B42AC8676}" name="Date de naissance" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{C5470F6F-D474-6D45-B6A3-61918CAA6D5B}" name="Date de décès" dataDxfId="167"/>
+    <tableColumn id="7" xr3:uid="{6D3BFF3A-74DD-D145-ACA6-D7DF1A822FAD}" name="Nationalité" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{F472EBF5-480A-1C45-83B1-9E56B61B8723}" name="Fonction dans la société" dataDxfId="165"/>
+    <tableColumn id="12" xr3:uid="{C64D47C0-C1DC-2144-88AE-E7A22E4FFD31}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="164"/>
+    <tableColumn id="13" xr3:uid="{24FDC70A-BF4A-D148-A4F6-F8CBCB91D37B}" name="Rôle normalisé" dataDxfId="163"/>
+    <tableColumn id="14" xr3:uid="{94201B49-6B8F-494A-8F61-6ED38D24F600}" name="ID DataBnF" dataDxfId="162"/>
+    <tableColumn id="15" xr3:uid="{A1DF468E-5049-EB4E-8FD9-2D9E94EC47E1}" name="Commentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5903,88 +5956,88 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59B7998-7504-1E4D-9D3F-D181466A47ED}" name="Tableau35" displayName="Tableau35" ref="A6:N9" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59B7998-7504-1E4D-9D3F-D181466A47ED}" name="Tableau35" displayName="Tableau35" ref="A6:N9" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158" totalsRowBorderDxfId="157">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7C7B5B07-599C-C34F-A399-EBBC323D6105}" name="Nom de la personne (dans le texte)" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{22A5E1AF-56B7-A748-B1DF-EA696E1A13B6}" name="Nom usuel (entrée indexée)" dataDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{B2E6DFB1-711F-9340-9876-F9A194AF52ED}" name="Nom de famille" dataDxfId="153"/>
-    <tableColumn id="4" xr3:uid="{1A2BEEE2-82E3-4441-9F9D-B102EA64A423}" name="Prénom" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{03A45F33-2AC2-5B4C-888B-08ED65C70B2E}" name="Titre" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{FFFB3265-211E-AE42-B540-DA3B5B26071F}" name="Genre" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{D35A94F9-C05E-5340-ACC9-65E416FEA73D}" name="Nom normalisé" dataDxfId="149"/>
-    <tableColumn id="10" xr3:uid="{031669F6-08B1-7543-A334-C52AFC765A7D}" name="Date de naissance" dataDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{4CA89AF5-B1A5-5F4D-9D15-9FB79541F401}" name="Date de décès" dataDxfId="147"/>
-    <tableColumn id="9" xr3:uid="{E799D4DA-81BD-1E42-B158-D2AC9EA09DED}" name="Nationalité" dataDxfId="146"/>
-    <tableColumn id="11" xr3:uid="{3A7A60F1-9AE6-F64A-99C3-19D215748C5D}" name="Fonction dans la société" dataDxfId="145"/>
-    <tableColumn id="12" xr3:uid="{84E90FDD-486C-9249-8831-971CC9889D42}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="144"/>
-    <tableColumn id="13" xr3:uid="{27D3ABED-CEF1-8048-9C4E-B2A37D4F88DF}" name="Rôle normalisé" dataDxfId="143"/>
-    <tableColumn id="14" xr3:uid="{9E68FABE-40FC-A843-8AC4-AEB8131ABD26}" name="ID DataBnF" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{7C7B5B07-599C-C34F-A399-EBBC323D6105}" name="Nom de la personne (dans le texte)" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{22A5E1AF-56B7-A748-B1DF-EA696E1A13B6}" name="Nom usuel (entrée indexée)" dataDxfId="155"/>
+    <tableColumn id="3" xr3:uid="{B2E6DFB1-711F-9340-9876-F9A194AF52ED}" name="Nom de famille" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{1A2BEEE2-82E3-4441-9F9D-B102EA64A423}" name="Prénom" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{03A45F33-2AC2-5B4C-888B-08ED65C70B2E}" name="Titre" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{FFFB3265-211E-AE42-B540-DA3B5B26071F}" name="Genre" dataDxfId="151"/>
+    <tableColumn id="8" xr3:uid="{D35A94F9-C05E-5340-ACC9-65E416FEA73D}" name="Nom normalisé" dataDxfId="150"/>
+    <tableColumn id="10" xr3:uid="{031669F6-08B1-7543-A334-C52AFC765A7D}" name="Date de naissance" dataDxfId="149"/>
+    <tableColumn id="7" xr3:uid="{4CA89AF5-B1A5-5F4D-9D15-9FB79541F401}" name="Date de décès" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{E799D4DA-81BD-1E42-B158-D2AC9EA09DED}" name="Nationalité" dataDxfId="147"/>
+    <tableColumn id="11" xr3:uid="{3A7A60F1-9AE6-F64A-99C3-19D215748C5D}" name="Fonction dans la société" dataDxfId="146"/>
+    <tableColumn id="12" xr3:uid="{84E90FDD-486C-9249-8831-971CC9889D42}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="145"/>
+    <tableColumn id="13" xr3:uid="{27D3ABED-CEF1-8048-9C4E-B2A37D4F88DF}" name="Rôle normalisé" dataDxfId="144"/>
+    <tableColumn id="14" xr3:uid="{9E68FABE-40FC-A843-8AC4-AEB8131ABD26}" name="ID DataBnF" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D5083699-6670-F14C-8A2C-2CAB7F6D9DF2}" name="Tableau36724" displayName="Tableau36724" ref="A6:N9" totalsRowShown="0" dataDxfId="140" headerRowBorderDxfId="141" tableBorderDxfId="139" totalsRowBorderDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D5083699-6670-F14C-8A2C-2CAB7F6D9DF2}" name="Tableau36724" displayName="Tableau36724" ref="A6:N9" totalsRowShown="0" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0550EDEE-1CF5-4840-9C70-99D1DA688098}" name="Nom de la personne (dans le texte)" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{70CB825D-3C00-3D4B-ACFE-916BF804DA4D}" name="Nom usuel (entrée indexée)" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{2E6E2E74-9880-0B4E-BA3A-0E5F4FCE8345}" name="Nom de famille" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{757F6610-81A3-C241-9DC4-1EA2A82E510F}" name="Prénom" dataDxfId="134"/>
-    <tableColumn id="5" xr3:uid="{3F35090C-2FD4-834F-93D6-C7AF1EED2543}" name="Titre" dataDxfId="133"/>
-    <tableColumn id="6" xr3:uid="{3F692029-08C0-8C47-A740-A3A54D55253C}" name="Genre" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{1082129E-AE85-1F44-9BD1-B8C171D2FD28}" name="Nom normalisé" dataDxfId="131"/>
-    <tableColumn id="10" xr3:uid="{2F1801FB-9346-A44F-BFB1-E4762FC66B96}" name="Date de naissance" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{9C8E6257-C8EB-CB4C-8840-CC38C46E8A07}" name="Date de décès" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{339A016E-334E-6C4A-8D53-3F255D3BEE96}" name="Nationalité" dataDxfId="128"/>
-    <tableColumn id="11" xr3:uid="{65E97278-B386-054B-AD7B-B3D9F18AB8EC}" name="Fonction dans la société" dataDxfId="127"/>
-    <tableColumn id="12" xr3:uid="{E63CF780-F74C-3B44-91AE-96BD53FCD370}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="126"/>
-    <tableColumn id="13" xr3:uid="{0DFA3308-EFA7-034C-A239-8AA93EAD408C}" name="Rôle normalisé" dataDxfId="125"/>
-    <tableColumn id="14" xr3:uid="{AD5D0A0D-F359-A74B-BB31-D151B2021842}" name="ID DataBnF" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{0550EDEE-1CF5-4840-9C70-99D1DA688098}" name="Nom de la personne (dans le texte)" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{70CB825D-3C00-3D4B-ACFE-916BF804DA4D}" name="Nom usuel (entrée indexée)" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{2E6E2E74-9880-0B4E-BA3A-0E5F4FCE8345}" name="Nom de famille" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{757F6610-81A3-C241-9DC4-1EA2A82E510F}" name="Prénom" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{3F35090C-2FD4-834F-93D6-C7AF1EED2543}" name="Titre" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{3F692029-08C0-8C47-A740-A3A54D55253C}" name="Genre" dataDxfId="133"/>
+    <tableColumn id="8" xr3:uid="{1082129E-AE85-1F44-9BD1-B8C171D2FD28}" name="Nom normalisé" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{2F1801FB-9346-A44F-BFB1-E4762FC66B96}" name="Date de naissance" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{9C8E6257-C8EB-CB4C-8840-CC38C46E8A07}" name="Date de décès" dataDxfId="130"/>
+    <tableColumn id="9" xr3:uid="{339A016E-334E-6C4A-8D53-3F255D3BEE96}" name="Nationalité" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{65E97278-B386-054B-AD7B-B3D9F18AB8EC}" name="Fonction dans la société" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{E63CF780-F74C-3B44-91AE-96BD53FCD370}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="127"/>
+    <tableColumn id="13" xr3:uid="{0DFA3308-EFA7-034C-A239-8AA93EAD408C}" name="Rôle normalisé" dataDxfId="126"/>
+    <tableColumn id="14" xr3:uid="{AD5D0A0D-F359-A74B-BB31-D151B2021842}" name="ID DataBnF" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E3CD0599-67F5-0342-98A8-70A3E0DA53C7}" name="Tableau7152535" displayName="Tableau7152535" ref="A6:N10" totalsRowShown="0" dataDxfId="122" headerRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E3CD0599-67F5-0342-98A8-70A3E0DA53C7}" name="Tableau7152535" displayName="Tableau7152535" ref="A6:N10" totalsRowShown="0" dataDxfId="123" headerRowBorderDxfId="124">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C8133920-AC07-3F44-A1B6-505C99CE9AE5}" name="Nom de la personne (dans le texte)" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{24956319-9C97-8D4E-B89B-38FA2D976044}" name="Nom usuel (entrée indexée)" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{4E114B50-262D-5F4B-AC64-6F624A1E56DB}" name="Nom de famille" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{4865B31C-EFDF-F747-A725-F4856CEB281E}" name="Prénom" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{E881935A-05E4-914D-BC6F-93138FF84F6D}" name="Titre" dataDxfId="117"/>
-    <tableColumn id="6" xr3:uid="{D106E50F-59AD-AB45-A940-846C1E8915BF}" name="Genre" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{4AF84459-6560-3A4A-A5FB-FBD47651B446}" name="Nom normalisé" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{5E127F00-0679-7045-9AE0-BD2E6910019B}" name="Date de naissance" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{DE1183D1-30C6-9D45-946A-BAAFC7DCF677}" name="Date de décès" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{DC3313B3-07FA-6C47-9F86-0D3F310E48F2}" name="Nationalité" dataDxfId="112"/>
-    <tableColumn id="11" xr3:uid="{344B9684-F7C7-3847-B9F9-7395F185FC3A}" name="Fonction dans la société" dataDxfId="111"/>
-    <tableColumn id="12" xr3:uid="{ABD936E0-C17F-0B4F-9EEF-4381714F0510}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="110"/>
-    <tableColumn id="13" xr3:uid="{9CE00097-2895-254F-A4B4-888B389FA52C}" name="Rôle normalisé" dataDxfId="109"/>
-    <tableColumn id="14" xr3:uid="{379DC569-D18A-3241-B05D-099CA3007E25}" name="ID DataBnF" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{C8133920-AC07-3F44-A1B6-505C99CE9AE5}" name="Nom de la personne (dans le texte)" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{24956319-9C97-8D4E-B89B-38FA2D976044}" name="Nom usuel (entrée indexée)" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{4E114B50-262D-5F4B-AC64-6F624A1E56DB}" name="Nom de famille" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{4865B31C-EFDF-F747-A725-F4856CEB281E}" name="Prénom" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{E881935A-05E4-914D-BC6F-93138FF84F6D}" name="Titre" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{D106E50F-59AD-AB45-A940-846C1E8915BF}" name="Genre" dataDxfId="117"/>
+    <tableColumn id="8" xr3:uid="{4AF84459-6560-3A4A-A5FB-FBD47651B446}" name="Nom normalisé" dataDxfId="116"/>
+    <tableColumn id="10" xr3:uid="{5E127F00-0679-7045-9AE0-BD2E6910019B}" name="Date de naissance" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{DE1183D1-30C6-9D45-946A-BAAFC7DCF677}" name="Date de décès" dataDxfId="114"/>
+    <tableColumn id="9" xr3:uid="{DC3313B3-07FA-6C47-9F86-0D3F310E48F2}" name="Nationalité" dataDxfId="113"/>
+    <tableColumn id="11" xr3:uid="{344B9684-F7C7-3847-B9F9-7395F185FC3A}" name="Fonction dans la société" dataDxfId="112"/>
+    <tableColumn id="12" xr3:uid="{ABD936E0-C17F-0B4F-9EEF-4381714F0510}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="111"/>
+    <tableColumn id="13" xr3:uid="{9CE00097-2895-254F-A4B4-888B389FA52C}" name="Rôle normalisé" dataDxfId="110"/>
+    <tableColumn id="14" xr3:uid="{379DC569-D18A-3241-B05D-099CA3007E25}" name="ID DataBnF" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{FCC55EFF-9ED1-6B46-84F7-42331D92E0D9}" name="Tâches52" displayName="Tâches52" ref="A6:N8" totalsRowShown="0" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{FCC55EFF-9ED1-6B46-84F7-42331D92E0D9}" name="Tâches52" displayName="Tâches52" ref="A6:N8" totalsRowShown="0" dataDxfId="108">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{E280C1B8-84E5-6443-AAED-7FCD168F62FE}" name="Nom de la personne (dans le texte)" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{B21AF61A-AE9C-CF43-804E-69123A8B0C1F}" name="Nom usuel (entrée indexée)" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{3F322E93-B913-8E4E-AE71-B9EB0AA0DC0C}" name="Nom de famille" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{1AEC108F-2696-7B46-8EB3-1EDA2B1B9AC8}" name="Prénom" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{B7003135-6862-DC4C-BA64-708E37063AAB}" name="Titre" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{0C229076-31BD-C14D-AFB2-B1610CB6EE9C}" name="Genre" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{2E130AB0-11A9-8B48-AE78-A0567C6C367A}" name="Nom normalisé" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{5E496734-F84E-7A47-8611-34F2439681E5}" name="Date de naissance" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{ADCDA9FD-F30F-4E47-ACEE-3AD6378C002F}" name="Date de décès" dataDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{33F2D10E-BA19-9944-AC1F-F67AE0B40FCB}" name="Nationalité" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{F165AAF1-00B4-2B43-BDBA-45F62B3D3812}" name="Fonction dans la société" dataDxfId="96"/>
-    <tableColumn id="12" xr3:uid="{4EE29412-D1B6-5940-8FBF-28E638714D5B}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="95"/>
-    <tableColumn id="13" xr3:uid="{6EE5FDD4-161C-884B-BD34-1A16FE64966C}" name="Rôle normalisé" dataDxfId="94"/>
-    <tableColumn id="14" xr3:uid="{9B16F522-E6E6-0344-B823-0EA8C6A4D094}" name="ID DataBnF" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{E280C1B8-84E5-6443-AAED-7FCD168F62FE}" name="Nom de la personne (dans le texte)" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{B21AF61A-AE9C-CF43-804E-69123A8B0C1F}" name="Nom usuel (entrée indexée)" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{3F322E93-B913-8E4E-AE71-B9EB0AA0DC0C}" name="Nom de famille" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{1AEC108F-2696-7B46-8EB3-1EDA2B1B9AC8}" name="Prénom" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{B7003135-6862-DC4C-BA64-708E37063AAB}" name="Titre" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{0C229076-31BD-C14D-AFB2-B1610CB6EE9C}" name="Genre" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{2E130AB0-11A9-8B48-AE78-A0567C6C367A}" name="Nom normalisé" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{5E496734-F84E-7A47-8611-34F2439681E5}" name="Date de naissance" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{ADCDA9FD-F30F-4E47-ACEE-3AD6378C002F}" name="Date de décès" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{33F2D10E-BA19-9944-AC1F-F67AE0B40FCB}" name="Nationalité" dataDxfId="98"/>
+    <tableColumn id="11" xr3:uid="{F165AAF1-00B4-2B43-BDBA-45F62B3D3812}" name="Fonction dans la société" dataDxfId="97"/>
+    <tableColumn id="12" xr3:uid="{4EE29412-D1B6-5940-8FBF-28E638714D5B}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="96"/>
+    <tableColumn id="13" xr3:uid="{6EE5FDD4-161C-884B-BD34-1A16FE64966C}" name="Rôle normalisé" dataDxfId="95"/>
+    <tableColumn id="14" xr3:uid="{9B16F522-E6E6-0344-B823-0EA8C6A4D094}" name="ID DataBnF" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5996,66 +6049,66 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{BC565698-A63C-7D44-8975-9CAB2D82E8C9}" name="Tableau95767" displayName="Tableau95767" ref="A6:N9" totalsRowShown="0" headerRowBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{BC565698-A63C-7D44-8975-9CAB2D82E8C9}" name="Tableau95767" displayName="Tableau95767" ref="A6:N9" totalsRowShown="0" headerRowBorderDxfId="93">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{9F29C979-12D4-2D4E-B25A-57D649183CDE}" name="Nom de la personne (dans le texte)" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{B4F290F7-8777-6A47-B9CF-3F2CE6D0E118}" name="Nom usuel (entrée indexée)" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{0D626C0F-A275-0741-8BD9-8BB64B31DC52}" name="Nom de famille" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{3CF0069E-5437-A34D-85F4-987D543D0CB2}" name="Prénom" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{CA4A0B9A-0D16-704A-BD64-22367B0E2592}" name="Titre" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{A04799DB-A77D-6545-947A-A495AD204AD8}" name="Genre" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{0D6CC52C-23E9-7048-9C73-B3E478053961}" name="Nom normalisé" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{2D7FF66E-B4E6-9141-8CBA-98107E278AA8}" name="Date de naissance" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{E8539C14-E442-DE4D-8962-8E66A82D140C}" name="Date de décès" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{C7DCFC73-CB35-B447-AA44-FD33F491A961}" name="Nationalité" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{B3E7F922-2AEB-CD4C-BA7B-21FBB3AA40E0}" name="Fonction dans la société" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{0F8F45AF-89E6-E647-83D2-F065884C8428}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{28A11D8F-FF42-BE46-BA75-6DCF6FECBF92}" name="Rôle normalisé" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{CF907310-B4A8-0548-B67F-F38E0A0902B6}" name="ID DataBnF" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{9F29C979-12D4-2D4E-B25A-57D649183CDE}" name="Nom de la personne (dans le texte)" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{B4F290F7-8777-6A47-B9CF-3F2CE6D0E118}" name="Nom usuel (entrée indexée)" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{0D626C0F-A275-0741-8BD9-8BB64B31DC52}" name="Nom de famille" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{3CF0069E-5437-A34D-85F4-987D543D0CB2}" name="Prénom" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{CA4A0B9A-0D16-704A-BD64-22367B0E2592}" name="Titre" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{A04799DB-A77D-6545-947A-A495AD204AD8}" name="Genre" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{0D6CC52C-23E9-7048-9C73-B3E478053961}" name="Nom normalisé" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{2D7FF66E-B4E6-9141-8CBA-98107E278AA8}" name="Date de naissance" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{E8539C14-E442-DE4D-8962-8E66A82D140C}" name="Date de décès" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{C7DCFC73-CB35-B447-AA44-FD33F491A961}" name="Nationalité" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{B3E7F922-2AEB-CD4C-BA7B-21FBB3AA40E0}" name="Fonction dans la société" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{0F8F45AF-89E6-E647-83D2-F065884C8428}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{28A11D8F-FF42-BE46-BA75-6DCF6FECBF92}" name="Rôle normalisé" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{CF907310-B4A8-0548-B67F-F38E0A0902B6}" name="ID DataBnF" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{77216522-F2FD-0849-A28F-056952E3984D}" name="Tableau10586878" displayName="Tableau10586878" ref="A6:N10" totalsRowShown="0" headerRowBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{77216522-F2FD-0849-A28F-056952E3984D}" name="Tableau10586878" displayName="Tableau10586878" ref="A6:N10" totalsRowShown="0" headerRowBorderDxfId="78">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{EE60C99B-4682-FB4F-9327-9B0B6FA5E178}" name="Nom de la personne (dans le texte)" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{42BA14A7-DE6F-B04D-A7DF-AC409ABC9802}" name="Nom usuel (entrée indexée)" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{FF92DE90-7D4C-274D-9BB6-257362B05523}" name="Nom de famille" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{A4AEA8F2-6A72-AB48-9EB9-382BD1FB6237}" name="Prénom" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{603491C4-0B92-2B4C-A697-73F4D3C64B6C}" name="Titre" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{58189655-6EDA-A844-BDE1-20CED2532F1C}" name="Genre" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{F7EEB9D0-E1AB-B94C-8A23-8BEC30293E0F}" name="Nom normalisé" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{6996C177-0450-CB4A-8F79-D8279E6CC0AF}" name="Date de naissance" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{B7F4663E-D318-0A41-A028-F29FA53B3D57}" name="Date de décès" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{686042DF-3251-A84E-9C2C-AFD072C9246C}" name="Nationalité" dataDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{2FF75966-8570-8941-B27E-D8D15EB22D7F}" name="Fonction dans la société" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{FA5EB6FF-5A4D-8445-B787-08A1B94E6FC2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="65"/>
-    <tableColumn id="13" xr3:uid="{38D52C48-B795-0741-83ED-C039EB97B0B0}" name="Rôle normalisé" dataDxfId="64"/>
-    <tableColumn id="14" xr3:uid="{A228EF8D-20FD-6347-A6FC-CAA4998E3CB5}" name="ID DataBnF" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{EE60C99B-4682-FB4F-9327-9B0B6FA5E178}" name="Nom de la personne (dans le texte)" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{42BA14A7-DE6F-B04D-A7DF-AC409ABC9802}" name="Nom usuel (entrée indexée)" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{FF92DE90-7D4C-274D-9BB6-257362B05523}" name="Nom de famille" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{A4AEA8F2-6A72-AB48-9EB9-382BD1FB6237}" name="Prénom" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{603491C4-0B92-2B4C-A697-73F4D3C64B6C}" name="Titre" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{58189655-6EDA-A844-BDE1-20CED2532F1C}" name="Genre" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{F7EEB9D0-E1AB-B94C-8A23-8BEC30293E0F}" name="Nom normalisé" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{6996C177-0450-CB4A-8F79-D8279E6CC0AF}" name="Date de naissance" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{B7F4663E-D318-0A41-A028-F29FA53B3D57}" name="Date de décès" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{686042DF-3251-A84E-9C2C-AFD072C9246C}" name="Nationalité" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{2FF75966-8570-8941-B27E-D8D15EB22D7F}" name="Fonction dans la société" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{FA5EB6FF-5A4D-8445-B787-08A1B94E6FC2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{38D52C48-B795-0741-83ED-C039EB97B0B0}" name="Rôle normalisé" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{A228EF8D-20FD-6347-A6FC-CAA4998E3CB5}" name="ID DataBnF" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" xr:uid="{35DA9172-0B8C-D544-880C-57B4B0E640ED}" name="Tableau1159697989" displayName="Tableau1159697989" ref="A6:N14" totalsRowShown="0" headerRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" xr:uid="{35DA9172-0B8C-D544-880C-57B4B0E640ED}" name="Tableau1159697989" displayName="Tableau1159697989" ref="A6:N14" totalsRowShown="0" headerRowBorderDxfId="63">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4062D617-8DE2-6146-BF49-0890B4A0BD49}" name="Nom de la personne (dans le texte)" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{66DCA4AB-B780-BB47-868A-F26D6125C740}" name="Nom usuel (entrée indexée)" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{2272222F-8CF9-454E-AD77-B9608CF10DC0}" name="Nom de famille" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{D6FF3702-227D-4847-8F0A-7B995E7D3F7D}" name="Prénom" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{AA243129-55FF-7844-B3E4-5B3B69735C83}" name="Titre" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{E2449E1A-593F-DC40-86C7-DB861703AC44}" name="Genre" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{3E150E83-1125-9E46-A7E7-B61A04B30A20}" name="Nom normalisé" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{7F082224-92C9-784B-AF54-FFA1E18700CB}" name="Date de naissance" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{A9833AA7-A4B8-4043-8467-3A4ACFFE125F}" name="Date de décès" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{E1C26E57-9CA2-5A4A-82AE-8C8691CDECBA}" name="Nationalité" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{A66EA369-EF27-9244-A663-4E91DC0406AA}" name="Fonction dans la société" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{08CAA2D6-0B89-DE4B-8E2C-AA5603CA9F04}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{8E1DC2E1-42FC-9342-9587-EE6CD52C7EAF}" name="Rôle normalisé" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{0227E5F9-6D68-9043-B271-3BADDF4B7AC6}" name="ID DataBnF" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{4062D617-8DE2-6146-BF49-0890B4A0BD49}" name="Nom de la personne (dans le texte)" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{66DCA4AB-B780-BB47-868A-F26D6125C740}" name="Nom usuel (entrée indexée)" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{2272222F-8CF9-454E-AD77-B9608CF10DC0}" name="Nom de famille" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{D6FF3702-227D-4847-8F0A-7B995E7D3F7D}" name="Prénom" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{AA243129-55FF-7844-B3E4-5B3B69735C83}" name="Titre" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{E2449E1A-593F-DC40-86C7-DB861703AC44}" name="Genre" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{3E150E83-1125-9E46-A7E7-B61A04B30A20}" name="Nom normalisé" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{7F082224-92C9-784B-AF54-FFA1E18700CB}" name="Date de naissance" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{A9833AA7-A4B8-4043-8467-3A4ACFFE125F}" name="Date de décès" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{E1C26E57-9CA2-5A4A-82AE-8C8691CDECBA}" name="Nationalité" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{A66EA369-EF27-9244-A663-4E91DC0406AA}" name="Fonction dans la société" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{08CAA2D6-0B89-DE4B-8E2C-AA5603CA9F04}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{8E1DC2E1-42FC-9342-9587-EE6CD52C7EAF}" name="Rôle normalisé" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{0227E5F9-6D68-9043-B271-3BADDF4B7AC6}" name="ID DataBnF" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6330,9 +6383,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G69" sqref="G69"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6379,45 +6432,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -6426,16 +6479,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6443,19 +6496,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>171</v>
@@ -6473,14 +6526,14 @@
         <v>6</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>294</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6488,22 +6541,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H8" s="38">
         <v>1638</v>
@@ -6512,20 +6565,20 @@
         <v>1683</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>138</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6533,20 +6586,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H9" s="37">
         <v>1601</v>
@@ -6555,20 +6608,20 @@
         <v>1666</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>138</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6576,17 +6629,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>223</v>
@@ -6611,7 +6664,7 @@
       </c>
       <c r="N10" s="27"/>
       <c r="O10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6619,19 +6672,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>173</v>
@@ -6646,17 +6699,17 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>295</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6664,17 +6717,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>225</v>
@@ -6695,7 +6748,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="27"/>
       <c r="O12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6704,12 +6757,12 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>226</v>
@@ -6719,14 +6772,14 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,19 +6787,19 @@
         <v>139</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>384</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>224</v>
@@ -6762,14 +6815,14 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6777,17 +6830,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>227</v>
@@ -6810,7 +6863,7 @@
       </c>
       <c r="N15" s="27"/>
       <c r="O15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6818,17 +6871,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>228</v>
@@ -6846,14 +6899,14 @@
         <v>126</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6861,19 +6914,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>229</v>
@@ -6891,14 +6944,14 @@
         <v>127</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6906,19 +6959,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>230</v>
@@ -6936,14 +6989,14 @@
         <v>128</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6951,38 +7004,44 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>486</v>
+        <v>710</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>468</v>
+        <v>709</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+        <v>712</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1640</v>
+      </c>
+      <c r="I19" s="37">
+        <v>1714</v>
+      </c>
       <c r="J19" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="K19" s="11"/>
+        <v>551</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>711</v>
+      </c>
       <c r="L19" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6990,19 +7049,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>231</v>
@@ -7020,14 +7079,14 @@
         <v>129</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7035,22 +7094,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H21" s="37">
         <v>1622</v>
@@ -7065,14 +7124,14 @@
         <v>130</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7080,19 +7139,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>232</v>
@@ -7108,7 +7167,7 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>174</v>
@@ -7120,19 +7179,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>233</v>
@@ -7150,7 +7209,7 @@
         <v>131</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>174</v>
@@ -7162,19 +7221,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>234</v>
@@ -7192,7 +7251,7 @@
         <v>132</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>174</v>
@@ -7204,19 +7263,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>235</v>
@@ -7234,7 +7293,7 @@
         <v>133</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>174</v>
@@ -7246,19 +7305,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>292</v>
@@ -7276,7 +7335,7 @@
         <v>119</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>174</v>
@@ -7288,19 +7347,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>291</v>
@@ -7312,7 +7371,7 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>174</v>
@@ -7324,23 +7383,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>236</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I28" s="37">
         <v>1690</v>
@@ -7352,7 +7411,7 @@
         <v>134</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>174</v>
@@ -7364,17 +7423,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>237</v>
@@ -7389,10 +7448,10 @@
         <v>121</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>174</v>
@@ -7404,17 +7463,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>238</v>
@@ -7432,7 +7491,7 @@
         <v>135</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>174</v>
@@ -7444,17 +7503,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>239</v>
@@ -7472,7 +7531,7 @@
         <v>136</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>174</v>
@@ -7484,17 +7543,17 @@
         <v>241</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>240</v>
@@ -7509,10 +7568,10 @@
         <v>5</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>174</v>
@@ -7524,17 +7583,17 @@
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>242</v>
@@ -7552,7 +7611,7 @@
         <v>136</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>174</v>
@@ -7564,17 +7623,17 @@
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>243</v>
@@ -7593,7 +7652,7 @@
         <v>162</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N34" s="27"/>
     </row>
@@ -7605,16 +7664,16 @@
         <v>245</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>506</v>
-      </c>
       <c r="F35" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>244</v>
@@ -7633,7 +7692,7 @@
         <v>141</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N35" s="27"/>
     </row>
@@ -7642,19 +7701,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>246</v>
@@ -7673,7 +7732,7 @@
         <v>142</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -7682,19 +7741,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>247</v>
@@ -7709,13 +7768,13 @@
         <v>121</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>143</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N37" s="27"/>
     </row>
@@ -7724,19 +7783,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>574</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>248</v>
@@ -7751,13 +7810,13 @@
         <v>121</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>144</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N38" s="27"/>
     </row>
@@ -7766,19 +7825,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>190</v>
@@ -7790,16 +7849,16 @@
         <v>1701</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>145</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N39" s="27"/>
     </row>
@@ -7808,19 +7867,19 @@
         <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>660</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>249</v>
@@ -7839,7 +7898,7 @@
         <v>146</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N40" s="27"/>
     </row>
@@ -7848,25 +7907,25 @@
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>665</v>
-      </c>
       <c r="F41" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>250</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I41" s="37">
         <v>1681</v>
@@ -7879,7 +7938,7 @@
         <v>147</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N41" s="27"/>
     </row>
@@ -7888,25 +7947,25 @@
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>670</v>
-      </c>
       <c r="F42" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I42" s="37">
         <v>1673</v>
@@ -7919,7 +7978,7 @@
         <v>148</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N42" s="27"/>
     </row>
@@ -7928,42 +7987,42 @@
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>149</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7971,19 +8030,19 @@
         <v>39</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>682</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>252</v>
@@ -7998,13 +8057,13 @@
         <v>121</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>150</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N44" s="27"/>
     </row>
@@ -8013,25 +8072,25 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>687</v>
-      </c>
       <c r="F45" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>253</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I45" s="37">
         <v>1723</v>
@@ -8040,17 +8099,17 @@
         <v>121</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>151</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8058,20 +8117,20 @@
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -8081,11 +8140,11 @@
         <v>152</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8093,22 +8152,22 @@
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>697</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H47" s="37">
         <v>1624</v>
@@ -8124,7 +8183,7 @@
         <v>153</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N47" s="27"/>
     </row>
@@ -8137,10 +8196,10 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -8150,7 +8209,7 @@
         <v>154</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N48" s="27"/>
     </row>
@@ -8163,10 +8222,10 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -8176,7 +8235,7 @@
         <v>155</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N49" s="27"/>
     </row>
@@ -8189,10 +8248,10 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
@@ -8202,7 +8261,7 @@
         <v>156</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N50" s="27"/>
     </row>
@@ -8215,10 +8274,10 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -8228,7 +8287,7 @@
         <v>161</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N51" s="27"/>
     </row>
@@ -8241,10 +8300,10 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -8254,7 +8313,7 @@
         <v>141</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N52" s="27"/>
     </row>
@@ -8267,7 +8326,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="37"/>
@@ -8278,7 +8337,7 @@
         <v>142</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N53" s="27"/>
     </row>
@@ -8291,7 +8350,7 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="37"/>
@@ -8302,7 +8361,7 @@
         <v>143</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N54" s="27"/>
     </row>
@@ -8315,10 +8374,10 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -8328,7 +8387,7 @@
         <v>144</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N55" s="27"/>
     </row>
@@ -8341,10 +8400,10 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -8354,7 +8413,7 @@
         <v>145</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N56" s="27"/>
     </row>
@@ -8367,7 +8426,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="37"/>
@@ -8378,7 +8437,7 @@
         <v>146</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N57" s="27"/>
     </row>
@@ -8391,7 +8450,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="37"/>
@@ -8402,7 +8461,7 @@
         <v>147</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N58" s="27"/>
     </row>
@@ -8415,7 +8474,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="37"/>
@@ -8426,23 +8485,23 @@
         <v>148</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
@@ -8452,7 +8511,7 @@
         <v>149</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N60" s="27"/>
     </row>
@@ -8465,10 +8524,10 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -8478,7 +8537,7 @@
         <v>150</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N61" s="27"/>
     </row>
@@ -8491,7 +8550,7 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="37"/>
@@ -8502,7 +8561,7 @@
         <v>151</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N62" s="27"/>
     </row>
@@ -8515,10 +8574,10 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
@@ -8528,7 +8587,7 @@
         <v>152</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N63" s="27"/>
     </row>
@@ -8541,10 +8600,10 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
@@ -8554,7 +8613,7 @@
         <v>153</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N64" s="27"/>
     </row>
@@ -8567,10 +8626,10 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
@@ -8580,7 +8639,7 @@
         <v>154</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N65" s="27"/>
     </row>
@@ -8593,7 +8652,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="37"/>
@@ -8604,7 +8663,7 @@
         <v>155</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N66" s="27"/>
     </row>
@@ -8617,10 +8676,10 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -8630,7 +8689,7 @@
         <v>156</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N67" s="27"/>
     </row>
@@ -8643,10 +8702,10 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
@@ -8656,7 +8715,7 @@
         <v>157</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N68" s="27"/>
     </row>
@@ -8669,7 +8728,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="37"/>
@@ -8680,7 +8739,7 @@
         <v>158</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N69" s="27"/>
     </row>
@@ -8693,7 +8752,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="37"/>
@@ -8704,7 +8763,7 @@
         <v>159</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N70" s="27"/>
     </row>
@@ -8717,7 +8776,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="37"/>
@@ -8728,7 +8787,7 @@
         <v>160</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N71" s="27"/>
     </row>
@@ -8737,20 +8796,20 @@
         <v>66</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H72" s="37">
         <v>1625</v>
@@ -8761,13 +8820,13 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M72" s="12" t="s">
         <v>174</v>
       </c>
       <c r="N72" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8779,7 +8838,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="37"/>
@@ -8787,7 +8846,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>174</v>
@@ -8803,7 +8862,7 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>254</v>
@@ -8813,7 +8872,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M74" s="12" t="s">
         <v>174</v>
@@ -8825,27 +8884,27 @@
         <v>69</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M75" s="12" t="s">
         <v>174</v>
@@ -8861,17 +8920,17 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>174</v>
@@ -8887,7 +8946,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>256</v>
@@ -8897,7 +8956,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M77" s="12" t="s">
         <v>174</v>
@@ -8913,7 +8972,7 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>257</v>
@@ -8923,7 +8982,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>174</v>
@@ -8939,7 +8998,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>258</v>
@@ -8949,7 +9008,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>174</v>
@@ -8965,7 +9024,7 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>259</v>
@@ -8975,7 +9034,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>174</v>
@@ -8991,7 +9050,7 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>260</v>
@@ -9001,7 +9060,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>174</v>
@@ -9017,7 +9076,7 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>261</v>
@@ -9027,7 +9086,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M82" s="12" t="s">
         <v>174</v>
@@ -9043,7 +9102,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>262</v>
@@ -9053,7 +9112,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>174</v>
@@ -9069,7 +9128,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="37"/>
@@ -9077,7 +9136,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>174</v>
@@ -9093,7 +9152,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="37"/>
@@ -9101,7 +9160,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M85" s="12" t="s">
         <v>174</v>
@@ -9113,27 +9172,27 @@
         <v>80</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="37"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M86" s="12" t="s">
         <v>174</v>
@@ -9149,7 +9208,7 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>263</v>
@@ -9159,7 +9218,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M87" s="12" t="s">
         <v>174</v>
@@ -9175,7 +9234,7 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>264</v>
@@ -9185,7 +9244,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M88" s="12" t="s">
         <v>174</v>
@@ -9201,7 +9260,7 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>265</v>
@@ -9211,7 +9270,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M89" s="12" t="s">
         <v>174</v>
@@ -9227,7 +9286,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="37"/>
@@ -9235,7 +9294,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>174</v>
@@ -9251,7 +9310,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="37"/>
@@ -9259,7 +9318,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M91" s="12" t="s">
         <v>174</v>
@@ -9275,7 +9334,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>189</v>
@@ -9285,7 +9344,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>174</v>
@@ -9301,17 +9360,17 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>174</v>
@@ -9327,17 +9386,17 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>174</v>
@@ -9353,17 +9412,17 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M95" s="12" t="s">
         <v>174</v>
@@ -9379,7 +9438,7 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>259</v>
@@ -9389,7 +9448,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>174</v>
@@ -9405,17 +9464,17 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>174</v>
@@ -9424,7 +9483,7 @@
     </row>
     <row r="98" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -9432,7 +9491,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
@@ -9444,7 +9503,7 @@
     </row>
     <row r="99" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9452,7 +9511,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
@@ -9471,17 +9530,17 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M100" s="12" t="s">
         <v>174</v>
@@ -9497,17 +9556,17 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>174</v>
@@ -9523,7 +9582,7 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>278</v>
@@ -9533,7 +9592,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>174</v>
@@ -9545,23 +9604,23 @@
         <v>92</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>279</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I103" s="37">
         <v>1705</v>
@@ -9569,7 +9628,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M103" s="12" t="s">
         <v>174</v>
@@ -9585,7 +9644,7 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>280</v>
@@ -9595,7 +9654,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>174</v>
@@ -9611,7 +9670,7 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>281</v>
@@ -9621,7 +9680,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>174</v>
@@ -9637,7 +9696,7 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>282</v>
@@ -9647,7 +9706,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M106" s="12" t="s">
         <v>174</v>
@@ -9663,7 +9722,7 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>283</v>
@@ -9673,7 +9732,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>174</v>
@@ -9689,7 +9748,7 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>284</v>
@@ -9699,7 +9758,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M108" s="12" t="s">
         <v>174</v>
@@ -9715,7 +9774,7 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>285</v>
@@ -9725,7 +9784,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>174</v>
@@ -9741,7 +9800,7 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>286</v>
@@ -9751,7 +9810,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M110" s="12" t="s">
         <v>174</v>
@@ -9767,7 +9826,7 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>287</v>
@@ -9777,7 +9836,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M111" s="12" t="s">
         <v>174</v>
@@ -9793,7 +9852,7 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>271</v>
@@ -9803,7 +9862,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M112" s="12" t="s">
         <v>174</v>
@@ -9819,7 +9878,7 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>272</v>
@@ -9829,7 +9888,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>174</v>
@@ -9845,7 +9904,7 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>273</v>
@@ -9855,7 +9914,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M114" s="12" t="s">
         <v>174</v>
@@ -9871,17 +9930,17 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H115" s="37"/>
       <c r="I115" s="37"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>174</v>
@@ -9897,7 +9956,7 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>257</v>
@@ -9907,7 +9966,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M116" s="12" t="s">
         <v>174</v>
@@ -9923,7 +9982,7 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>258</v>
@@ -9933,7 +9992,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M117" s="12" t="s">
         <v>174</v>
@@ -9949,7 +10008,7 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>288</v>
@@ -9959,7 +10018,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M118" s="12" t="s">
         <v>174</v>
@@ -9975,7 +10034,7 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>289</v>
@@ -9985,7 +10044,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M119" s="12" t="s">
         <v>174</v>
@@ -10001,7 +10060,7 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>290</v>
@@ -10011,7 +10070,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M120" s="12" t="s">
         <v>174</v>
@@ -10027,7 +10086,7 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>261</v>
@@ -10037,7 +10096,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M121" s="12" t="s">
         <v>174</v>
@@ -10053,7 +10112,7 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>274</v>
@@ -10063,7 +10122,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M122" s="12" t="s">
         <v>174</v>
@@ -10079,7 +10138,7 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>275</v>
@@ -10089,7 +10148,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M123" s="12" t="s">
         <v>174</v>
@@ -10105,7 +10164,7 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>276</v>
@@ -10115,7 +10174,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>174</v>
@@ -10131,7 +10190,7 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>277</v>
@@ -10141,7 +10200,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>174</v>
@@ -10157,7 +10216,7 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>259</v>
@@ -10167,7 +10226,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>174</v>
@@ -10183,7 +10242,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="37"/>
@@ -10191,7 +10250,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M127" s="12" t="s">
         <v>174</v>
@@ -10207,7 +10266,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G128" s="11"/>
       <c r="H128" s="37"/>
@@ -10215,7 +10274,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>174</v>
@@ -10231,7 +10290,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="37"/>
@@ -10239,7 +10298,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>174</v>
@@ -10255,7 +10314,7 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>269</v>
@@ -10277,7 +10336,7 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>268</v>
@@ -10303,7 +10362,7 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>270</v>
@@ -10329,7 +10388,7 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>266</v>
@@ -10355,7 +10414,7 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>267</v>
@@ -10493,7 +10552,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10508,45 +10567,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -10555,52 +10614,52 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>326</v>
-      </c>
       <c r="C7" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" s="45">
         <v>1623</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J7" s="66" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -10609,19 +10668,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>171</v>
@@ -10640,16 +10699,16 @@
       </c>
       <c r="L8" s="65"/>
       <c r="M8" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -10668,20 +10727,20 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>527</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>529</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>189</v>
@@ -10698,22 +10757,22 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="60" t="s">
         <v>190</v>
@@ -10725,10 +10784,10 @@
         <v>1701</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L11" s="65"/>
       <c r="M11" s="65"/>
@@ -11354,7 +11413,7 @@
   </sheetPr>
   <dimension ref="A1:N233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="E28" sqref="E28"/>
@@ -11382,7 +11441,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11397,45 +11456,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -11444,21 +11503,21 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -12128,7 +12187,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12143,45 +12202,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -12190,33 +12249,33 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>171</v>
@@ -12235,7 +12294,7 @@
       </c>
       <c r="L7" s="65"/>
       <c r="M7" s="18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -12862,12 +12921,12 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12886,20 +12945,21 @@
     <col min="12" max="12" width="29.1640625" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="39.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1"/>
@@ -12907,48 +12967,48 @@
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
-    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -12957,33 +13017,36 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="O6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>372</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>373</v>
       </c>
       <c r="G7" s="61" t="s">
         <v>171</v>
@@ -13004,63 +13067,65 @@
         <v>175</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="40"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>360</v>
-      </c>
       <c r="B9" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H9" s="38">
         <v>1638</v>
@@ -13069,27 +13134,28 @@
         <v>1683</v>
       </c>
       <c r="J9" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="18"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>226</v>
@@ -13103,25 +13169,26 @@
         <v>174</v>
       </c>
       <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>173</v>
@@ -13136,30 +13203,31 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>228</v>
@@ -13181,25 +13249,26 @@
         <v>174</v>
       </c>
       <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>229</v>
@@ -13221,25 +13290,26 @@
         <v>174</v>
       </c>
       <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>230</v>
@@ -13261,33 +13331,38 @@
         <v>174</v>
       </c>
       <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>507</v>
+        <v>715</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>486</v>
+        <v>710</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>468</v>
+        <v>714</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+        <v>716</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1638</v>
+      </c>
+      <c r="I15" s="37">
+        <v>1665</v>
+      </c>
       <c r="J15" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
@@ -13295,25 +13370,26 @@
         <v>174</v>
       </c>
       <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>231</v>
@@ -13335,28 +13411,29 @@
         <v>174</v>
       </c>
       <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H17" s="37">
         <v>1622</v>
@@ -13375,25 +13452,26 @@
         <v>174</v>
       </c>
       <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>232</v>
@@ -13413,65 +13491,69 @@
         <v>174</v>
       </c>
       <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>487</v>
+        <v>718</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>483</v>
+        <v>717</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>19</v>
+        <v>721</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>233</v>
+        <v>720</v>
       </c>
       <c r="H19" s="37">
-        <v>1601</v>
+        <v>1632</v>
       </c>
       <c r="I19" s="37">
-        <v>1669</v>
+        <v>1704</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>131</v>
+        <v>722</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>234</v>
@@ -13493,25 +13575,26 @@
         <v>174</v>
       </c>
       <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>235</v>
@@ -13533,25 +13616,26 @@
         <v>174</v>
       </c>
       <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>292</v>
@@ -13573,25 +13657,26 @@
         <v>174</v>
       </c>
       <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>291</v>
@@ -13607,28 +13692,29 @@
         <v>174</v>
       </c>
       <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H24" s="38">
         <v>1638</v>
@@ -13637,36 +13723,37 @@
         <v>1683</v>
       </c>
       <c r="J24" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H25" s="37">
         <v>1601</v>
@@ -13675,33 +13762,34 @@
         <v>1666</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>264</v>
@@ -13713,39 +13801,40 @@
         <v>1692</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>236</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I27" s="37">
         <v>1690</v>
@@ -13761,23 +13850,24 @@
         <v>174</v>
       </c>
       <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>237</v>
@@ -13792,36 +13882,37 @@
         <v>121</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>262</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I29" s="37">
         <v>1700</v>
@@ -13830,36 +13921,37 @@
         <v>121</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>263</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I30" s="37">
         <v>1700</v>
@@ -13868,30 +13960,31 @@
         <v>5</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>265</v>
@@ -13906,30 +13999,31 @@
         <v>121</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>238</v>
@@ -13951,23 +14045,24 @@
         <v>174</v>
       </c>
       <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>239</v>
@@ -13989,23 +14084,24 @@
         <v>174</v>
       </c>
       <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>240</v>
@@ -14020,30 +14116,31 @@
         <v>5</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>242</v>
@@ -14065,26 +14162,27 @@
         <v>174</v>
       </c>
       <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>591</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>593</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -14092,32 +14190,33 @@
         <v>5</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>530</v>
-      </c>
       <c r="F37" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>189</v>
@@ -14133,17 +14232,18 @@
         <v>174</v>
       </c>
       <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="37"/>
@@ -14155,17 +14255,18 @@
         <v>174</v>
       </c>
       <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="37"/>
@@ -14177,17 +14278,18 @@
         <v>174</v>
       </c>
       <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="37"/>
@@ -14199,17 +14301,18 @@
         <v>174</v>
       </c>
       <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="37"/>
@@ -14221,26 +14324,27 @@
         <v>174</v>
       </c>
       <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H42" s="37">
         <v>1625</v>
@@ -14257,29 +14361,30 @@
         <v>174</v>
       </c>
       <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>254</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I43" s="37">
         <v>1678</v>
@@ -14288,26 +14393,27 @@
         <v>5</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>255</v>
@@ -14321,26 +14427,27 @@
         <v>174</v>
       </c>
       <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H45" s="37">
         <v>1618</v>
@@ -14352,17 +14459,18 @@
         <v>5</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
         <v>71</v>
       </c>
@@ -14371,7 +14479,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>256</v>
@@ -14385,19 +14493,20 @@
         <v>174</v>
       </c>
       <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>257</v>
@@ -14406,15 +14515,16 @@
       <c r="I47" s="37"/>
       <c r="J47" s="11"/>
       <c r="K47" s="27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
         <v>73</v>
       </c>
@@ -14423,7 +14533,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>258</v>
@@ -14437,8 +14547,9 @@
         <v>174</v>
       </c>
       <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>74</v>
       </c>
@@ -14447,7 +14558,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>259</v>
@@ -14461,23 +14572,24 @@
         <v>174</v>
       </c>
       <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>260</v>
@@ -14492,17 +14604,18 @@
         <v>5</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>76</v>
       </c>
@@ -14511,7 +14624,7 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>261</v>
@@ -14525,8 +14638,9 @@
         <v>174</v>
       </c>
       <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
         <v>98</v>
       </c>
@@ -14535,7 +14649,7 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>285</v>
@@ -14549,8 +14663,9 @@
         <v>174</v>
       </c>
       <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>87</v>
       </c>
@@ -14559,10 +14674,10 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -14573,26 +14688,27 @@
         <v>174</v>
       </c>
       <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H54" s="37">
         <v>1636</v>
@@ -14602,15 +14718,16 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="27" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
         <v>86</v>
       </c>
@@ -14619,10 +14736,10 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -14633,25 +14750,26 @@
         <v>174</v>
       </c>
       <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
         <v>109</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>637</v>
-      </c>
       <c r="F56" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>275</v>
@@ -14666,15 +14784,16 @@
         <v>5</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="64"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -14691,8 +14810,9 @@
         <v>174</v>
       </c>
       <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="64"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -14709,8 +14829,9 @@
         <v>174</v>
       </c>
       <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -14721,7 +14842,7 @@
       <c r="H59" s="18"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="22"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -14732,18 +14853,18 @@
       <c r="H60" s="18"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="24"/>
     </row>
     <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14892,45 +15013,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -14939,13 +15060,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -14953,19 +15074,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>171</v>
@@ -14983,10 +15104,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N7" s="42"/>
     </row>
@@ -14995,19 +15116,19 @@
         <v>168</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>173</v>
@@ -15022,7 +15143,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>137</v>
@@ -16006,45 +16127,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -16053,13 +16174,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16067,19 +16188,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>171</v>
@@ -16100,7 +16221,7 @@
         <v>178</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N7" s="42"/>
     </row>
@@ -16109,20 +16230,20 @@
         <v>177</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H8" s="37">
         <v>1601</v>
@@ -16131,10 +16252,10 @@
         <v>1666</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -17122,45 +17243,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -17169,13 +17290,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17203,17 +17324,17 @@
         <v>180</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>185</v>
@@ -17241,19 +17362,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>171</v>
@@ -17274,7 +17395,7 @@
         <v>182</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N9" s="46"/>
     </row>
@@ -18241,7 +18362,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18256,45 +18377,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -18303,13 +18424,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -18336,19 +18457,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>171</v>
@@ -18366,10 +18487,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -18932,7 +19053,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18947,45 +19068,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="69" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -18994,13 +19115,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19008,19 +19129,19 @@
         <v>187</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="E7" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>530</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>189</v>
@@ -19040,19 +19161,19 @@
         <v>34</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E8" s="75" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="76" t="s">
         <v>190</v>
@@ -19064,7 +19185,7 @@
         <v>1701</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -19898,45 +20019,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -19945,13 +20066,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19959,17 +20080,17 @@
         <v>192</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>199</v>
@@ -19991,23 +20112,23 @@
         <v>193</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>223</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I8" s="47">
         <v>1713</v>
@@ -20031,26 +20152,26 @@
         <v>194</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>200</v>
       </c>
       <c r="H9" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>452</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>453</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>5</v>
@@ -20067,19 +20188,19 @@
         <v>195</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>540</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>202</v>
@@ -20859,45 +20980,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>457</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>458</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>366</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>367</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>370</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>371</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -20906,13 +21027,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20920,19 +21041,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>171</v>
@@ -20960,22 +21081,22 @@
         <v>205</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47">
@@ -21002,7 +21123,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>222</v>
@@ -21015,7 +21136,7 @@
         <v>214</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N9" s="18"/>
     </row>
@@ -21028,7 +21149,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="47"/>
@@ -21037,7 +21158,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N10" s="18"/>
     </row>
@@ -21050,7 +21171,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="47"/>
@@ -21059,7 +21180,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N11" s="18"/>
     </row>
@@ -21068,17 +21189,17 @@
         <v>209</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>217</v>
@@ -21100,17 +21221,17 @@
         <v>210</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>219</v>
@@ -21125,7 +21246,7 @@
         <v>221</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N13" s="18"/>
     </row>
@@ -21138,7 +21259,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="47"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF284E5C-8EFC-9148-97C7-0E63366021B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B395466-8257-B048-B101-492E3B8AD86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="716">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>Grand maître de l’artillerie fr</t>
-  </si>
-  <si>
-    <t>Gouverneur de Paris et de Boulogne, maréchal de france</t>
   </si>
   <si>
     <t>Marcéhal de Camp et Maître de camp</t>
@@ -819,9 +816,6 @@
     <t>francois_vii_de_la_rochefoucauld</t>
   </si>
   <si>
-    <t>antoine_d_aumont</t>
-  </si>
-  <si>
     <t>cm_de_belleforiere</t>
   </si>
   <si>
@@ -1619,9 +1613,6 @@
     <t>Duc de Rendant</t>
   </si>
   <si>
-    <t>Aumont de Rochebaron (d'), Antoine</t>
-  </si>
-  <si>
     <t>Daillon, Henry de</t>
   </si>
   <si>
@@ -1677,9 +1668,6 @@
   </si>
   <si>
     <t>Madame la Princesse</t>
-  </si>
-  <si>
-    <t>Daillon Charles de Foix, Henri de</t>
   </si>
   <si>
     <t>Catherine</t>
@@ -2292,16 +2280,7 @@
     <t>louis_don</t>
   </si>
   <si>
-    <t>Henri-François</t>
-  </si>
-  <si>
     <t>Foix de Candale (de)</t>
-  </si>
-  <si>
-    <t>Carrière militaire</t>
-  </si>
-  <si>
-    <t>henri_françois_candale_foix</t>
   </si>
   <si>
     <t>Commentaire</t>
@@ -6383,9 +6362,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19:K19"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6414,7 +6393,7 @@
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -6432,45 +6411,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -6479,16 +6458,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6496,22 +6475,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -6526,14 +6505,14 @@
         <v>6</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6541,22 +6520,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H8" s="38">
         <v>1638</v>
@@ -6565,20 +6544,20 @@
         <v>1683</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6586,20 +6565,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H9" s="37">
         <v>1601</v>
@@ -6608,20 +6587,20 @@
         <v>1666</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6629,20 +6608,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="37">
         <v>1637</v>
@@ -6657,14 +6636,14 @@
         <v>123</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6672,22 +6651,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>379</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="37">
         <v>1607</v>
@@ -6699,17 +6678,17 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6717,20 +6696,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="37">
         <v>1474</v>
@@ -6748,7 +6727,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="27"/>
       <c r="O12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6757,52 +6736,52 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H14" s="37">
         <v>1611</v>
@@ -6815,14 +6794,14 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6830,20 +6809,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" s="37">
         <v>1625</v>
@@ -6859,11 +6838,11 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6871,20 +6850,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H16" s="37">
         <v>1620</v>
@@ -6899,14 +6878,14 @@
         <v>126</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,22 +6893,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>468</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="37">
         <v>1650</v>
@@ -6944,14 +6923,14 @@
         <v>127</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6959,22 +6938,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H18" s="37">
         <v>1601</v>
@@ -6989,14 +6968,14 @@
         <v>128</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7004,44 +6983,42 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>505</v>
+        <v>708</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>712</v>
-      </c>
       <c r="H19" s="37">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="I19" s="37">
-        <v>1714</v>
+        <v>1665</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>711</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7049,22 +7026,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H20" s="37">
         <v>1635</v>
@@ -7079,14 +7056,14 @@
         <v>129</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7094,22 +7071,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H21" s="37">
         <v>1622</v>
@@ -7124,14 +7101,14 @@
         <v>130</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7139,22 +7116,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H22" s="39">
         <v>1624</v>
@@ -7167,10 +7144,10 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N22" s="27"/>
     </row>
@@ -7179,40 +7156,40 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>485</v>
+        <v>711</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>482</v>
+        <v>710</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>19</v>
+        <v>714</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>233</v>
+        <v>713</v>
       </c>
       <c r="H23" s="37">
-        <v>1601</v>
+        <v>1632</v>
       </c>
       <c r="I23" s="37">
-        <v>1669</v>
+        <v>1704</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>131</v>
+        <v>715</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N23" s="27"/>
     </row>
@@ -7221,22 +7198,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H24" s="37">
         <v>1619</v>
@@ -7248,13 +7225,13 @@
         <v>5</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N24" s="27"/>
     </row>
@@ -7263,22 +7240,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H25" s="37">
         <v>1628</v>
@@ -7290,13 +7267,13 @@
         <v>5</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N25" s="27"/>
     </row>
@@ -7305,22 +7282,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H26" s="37">
         <v>1642</v>
@@ -7335,10 +7312,10 @@
         <v>119</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N26" s="27"/>
     </row>
@@ -7347,22 +7324,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -7371,10 +7348,10 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N27" s="27"/>
     </row>
@@ -7383,23 +7360,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I28" s="37">
         <v>1690</v>
@@ -7408,13 +7385,13 @@
         <v>5</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N28" s="27"/>
     </row>
@@ -7423,20 +7400,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H29" s="37">
         <v>1630</v>
@@ -7448,13 +7425,13 @@
         <v>121</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N29" s="27"/>
     </row>
@@ -7463,20 +7440,20 @@
         <v>26</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H30" s="37">
         <v>1633</v>
@@ -7488,13 +7465,13 @@
         <v>121</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N30" s="27"/>
     </row>
@@ -7503,20 +7480,20 @@
         <v>27</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H31" s="37">
         <v>1615</v>
@@ -7528,35 +7505,35 @@
         <v>5</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H32" s="37">
         <v>1626</v>
@@ -7568,13 +7545,13 @@
         <v>5</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N32" s="27"/>
     </row>
@@ -7583,20 +7560,20 @@
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H33" s="37">
         <v>1630</v>
@@ -7608,13 +7585,13 @@
         <v>5</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N33" s="27"/>
     </row>
@@ -7623,20 +7600,20 @@
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H34" s="37">
         <v>1646</v>
@@ -7649,10 +7626,10 @@
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N34" s="27"/>
     </row>
@@ -7661,22 +7638,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H35" s="37">
         <v>1628</v>
@@ -7689,10 +7666,10 @@
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N35" s="27"/>
     </row>
@@ -7701,22 +7678,22 @@
         <v>31</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H36" s="37">
         <v>1628</v>
@@ -7729,10 +7706,10 @@
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -7741,22 +7718,22 @@
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H37" s="37">
         <v>1610</v>
@@ -7768,13 +7745,13 @@
         <v>121</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N37" s="27"/>
     </row>
@@ -7783,22 +7760,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H38" s="37">
         <v>1638</v>
@@ -7810,13 +7787,13 @@
         <v>121</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N38" s="27"/>
     </row>
@@ -7825,22 +7802,22 @@
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H39" s="37">
         <v>1640</v>
@@ -7849,16 +7826,16 @@
         <v>1701</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N39" s="27"/>
     </row>
@@ -7867,22 +7844,22 @@
         <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H40" s="37">
         <v>1617</v>
@@ -7895,10 +7872,10 @@
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N40" s="27"/>
     </row>
@@ -7907,25 +7884,25 @@
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D41" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="37" t="s">
         <v>660</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>664</v>
       </c>
       <c r="I41" s="37">
         <v>1681</v>
@@ -7935,10 +7912,10 @@
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N41" s="27"/>
     </row>
@@ -7947,25 +7924,25 @@
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>665</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>669</v>
       </c>
       <c r="I42" s="37">
         <v>1673</v>
@@ -7975,10 +7952,10 @@
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N42" s="27"/>
     </row>
@@ -7987,42 +7964,42 @@
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8030,22 +8007,22 @@
         <v>39</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H44" s="37">
         <v>1640</v>
@@ -8057,13 +8034,13 @@
         <v>121</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N44" s="27"/>
     </row>
@@ -8072,25 +8049,25 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H45" s="37" t="s">
         <v>682</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>686</v>
       </c>
       <c r="I45" s="37">
         <v>1723</v>
@@ -8099,17 +8076,17 @@
         <v>121</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8117,34 +8094,34 @@
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8152,22 +8129,22 @@
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H47" s="37">
         <v>1624</v>
@@ -8180,10 +8157,10 @@
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N47" s="27"/>
     </row>
@@ -8196,20 +8173,20 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N48" s="27"/>
     </row>
@@ -8222,20 +8199,20 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N49" s="27"/>
     </row>
@@ -8248,20 +8225,20 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N50" s="27"/>
     </row>
@@ -8274,20 +8251,20 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N51" s="27"/>
     </row>
@@ -8300,20 +8277,20 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N52" s="27"/>
     </row>
@@ -8326,7 +8303,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="37"/>
@@ -8334,10 +8311,10 @@
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N53" s="27"/>
     </row>
@@ -8350,7 +8327,7 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="37"/>
@@ -8358,10 +8335,10 @@
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N54" s="27"/>
     </row>
@@ -8374,20 +8351,20 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N55" s="27"/>
     </row>
@@ -8400,20 +8377,20 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N56" s="27"/>
     </row>
@@ -8426,7 +8403,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="37"/>
@@ -8434,10 +8411,10 @@
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N57" s="27"/>
     </row>
@@ -8450,7 +8427,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="37"/>
@@ -8458,10 +8435,10 @@
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N58" s="27"/>
     </row>
@@ -8474,7 +8451,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="37"/>
@@ -8482,36 +8459,36 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N60" s="27"/>
     </row>
@@ -8524,20 +8501,20 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N61" s="27"/>
     </row>
@@ -8550,7 +8527,7 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="37"/>
@@ -8558,10 +8535,10 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N62" s="27"/>
     </row>
@@ -8574,20 +8551,20 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N63" s="27"/>
     </row>
@@ -8600,20 +8577,20 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N64" s="27"/>
     </row>
@@ -8626,20 +8603,20 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N65" s="27"/>
     </row>
@@ -8652,7 +8629,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="37"/>
@@ -8660,10 +8637,10 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N66" s="27"/>
     </row>
@@ -8676,20 +8653,20 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N67" s="27"/>
     </row>
@@ -8702,20 +8679,20 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N68" s="27"/>
     </row>
@@ -8728,7 +8705,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="37"/>
@@ -8736,10 +8713,10 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N69" s="27"/>
     </row>
@@ -8752,7 +8729,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="37"/>
@@ -8760,10 +8737,10 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N70" s="27"/>
     </row>
@@ -8776,7 +8753,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="37"/>
@@ -8784,10 +8761,10 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N71" s="27"/>
     </row>
@@ -8796,20 +8773,20 @@
         <v>66</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H72" s="37">
         <v>1625</v>
@@ -8820,13 +8797,13 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N72" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8838,7 +8815,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="37"/>
@@ -8846,10 +8823,10 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N73" s="27"/>
     </row>
@@ -8862,20 +8839,20 @@
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H74" s="37"/>
       <c r="I74" s="37"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N74" s="27"/>
     </row>
@@ -8884,30 +8861,30 @@
         <v>69</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N75" s="27"/>
     </row>
@@ -8920,20 +8897,20 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N76" s="27"/>
     </row>
@@ -8946,20 +8923,20 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N77" s="27"/>
     </row>
@@ -8972,20 +8949,20 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N78" s="27"/>
     </row>
@@ -8998,20 +8975,20 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N79" s="27"/>
     </row>
@@ -9024,20 +9001,20 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N80" s="27"/>
     </row>
@@ -9050,20 +9027,20 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N81" s="27"/>
     </row>
@@ -9076,20 +9053,20 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N82" s="27"/>
     </row>
@@ -9102,20 +9079,20 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N83" s="27"/>
     </row>
@@ -9128,7 +9105,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="37"/>
@@ -9136,10 +9113,10 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N84" s="27"/>
     </row>
@@ -9152,7 +9129,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="37"/>
@@ -9160,10 +9137,10 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N85" s="27"/>
     </row>
@@ -9172,30 +9149,30 @@
         <v>80</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="37"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N86" s="27"/>
     </row>
@@ -9208,20 +9185,20 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N87" s="27"/>
     </row>
@@ -9234,20 +9211,20 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N88" s="27"/>
     </row>
@@ -9260,20 +9237,20 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N89" s="27"/>
     </row>
@@ -9286,7 +9263,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="37"/>
@@ -9294,10 +9271,10 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N90" s="27"/>
     </row>
@@ -9310,7 +9287,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="37"/>
@@ -9318,10 +9295,10 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N91" s="27"/>
     </row>
@@ -9334,20 +9311,20 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N92" s="27"/>
     </row>
@@ -9360,20 +9337,20 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N93" s="27"/>
     </row>
@@ -9386,20 +9363,20 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N94" s="27"/>
     </row>
@@ -9412,20 +9389,20 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N95" s="27"/>
     </row>
@@ -9438,20 +9415,20 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N96" s="27"/>
     </row>
@@ -9464,26 +9441,26 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N97" s="27"/>
     </row>
     <row r="98" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -9491,7 +9468,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
@@ -9503,7 +9480,7 @@
     </row>
     <row r="99" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -9511,7 +9488,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
@@ -9530,20 +9507,20 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N100" s="27"/>
     </row>
@@ -9556,20 +9533,20 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N101" s="27"/>
     </row>
@@ -9582,20 +9559,20 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N102" s="27"/>
     </row>
@@ -9604,23 +9581,23 @@
         <v>92</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I103" s="37">
         <v>1705</v>
@@ -9628,10 +9605,10 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N103" s="27"/>
     </row>
@@ -9644,20 +9621,20 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N104" s="27"/>
     </row>
@@ -9670,20 +9647,20 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H105" s="37"/>
       <c r="I105" s="37"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N105" s="27"/>
     </row>
@@ -9696,20 +9673,20 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N106" s="27"/>
     </row>
@@ -9722,20 +9699,20 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N107" s="27"/>
     </row>
@@ -9748,20 +9725,20 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N108" s="27"/>
     </row>
@@ -9774,20 +9751,20 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N109" s="27"/>
     </row>
@@ -9800,20 +9777,20 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H110" s="37"/>
       <c r="I110" s="37"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M110" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N110" s="27"/>
     </row>
@@ -9826,20 +9803,20 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H111" s="37"/>
       <c r="I111" s="37"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N111" s="27"/>
     </row>
@@ -9852,20 +9829,20 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H112" s="37"/>
       <c r="I112" s="37"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M112" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N112" s="27"/>
     </row>
@@ -9878,20 +9855,20 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H113" s="37"/>
       <c r="I113" s="37"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M113" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N113" s="27"/>
     </row>
@@ -9904,20 +9881,20 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H114" s="37"/>
       <c r="I114" s="37"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M114" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N114" s="27"/>
     </row>
@@ -9930,20 +9907,20 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H115" s="37"/>
       <c r="I115" s="37"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M115" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N115" s="27"/>
     </row>
@@ -9956,20 +9933,20 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H116" s="37"/>
       <c r="I116" s="37"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M116" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N116" s="27"/>
     </row>
@@ -9982,20 +9959,20 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H117" s="37"/>
       <c r="I117" s="37"/>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N117" s="27"/>
     </row>
@@ -10008,20 +9985,20 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M118" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N118" s="27"/>
     </row>
@@ -10034,20 +10011,20 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H119" s="37"/>
       <c r="I119" s="37"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M119" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N119" s="27"/>
     </row>
@@ -10060,20 +10037,20 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H120" s="37"/>
       <c r="I120" s="37"/>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M120" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N120" s="27"/>
     </row>
@@ -10086,20 +10063,20 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H121" s="37"/>
       <c r="I121" s="37"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M121" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N121" s="27"/>
     </row>
@@ -10112,20 +10089,20 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H122" s="37"/>
       <c r="I122" s="37"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N122" s="27"/>
     </row>
@@ -10138,20 +10115,20 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H123" s="37"/>
       <c r="I123" s="37"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M123" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N123" s="27"/>
     </row>
@@ -10164,20 +10141,20 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H124" s="37"/>
       <c r="I124" s="37"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M124" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N124" s="27"/>
     </row>
@@ -10190,20 +10167,20 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H125" s="37"/>
       <c r="I125" s="37"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M125" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N125" s="27"/>
     </row>
@@ -10216,20 +10193,20 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H126" s="37"/>
       <c r="I126" s="37"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M126" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N126" s="27"/>
     </row>
@@ -10242,7 +10219,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="37"/>
@@ -10250,10 +10227,10 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M127" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N127" s="27"/>
     </row>
@@ -10266,7 +10243,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G128" s="11"/>
       <c r="H128" s="37"/>
@@ -10274,10 +10251,10 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M128" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N128" s="27"/>
     </row>
@@ -10290,7 +10267,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="37"/>
@@ -10298,10 +10275,10 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M129" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N129" s="27"/>
     </row>
@@ -10314,10 +10291,10 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H130" s="37"/>
       <c r="I130" s="37"/>
@@ -10336,20 +10313,20 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H131" s="37"/>
       <c r="I131" s="37"/>
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N131" s="27"/>
     </row>
@@ -10362,20 +10339,20 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H132" s="37"/>
       <c r="I132" s="37"/>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M132" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N132" s="27"/>
     </row>
@@ -10388,20 +10365,20 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H133" s="37"/>
       <c r="I133" s="37"/>
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M133" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N133" s="27"/>
     </row>
@@ -10414,20 +10391,20 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H134" s="37"/>
       <c r="I134" s="37"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M134" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N134" s="27"/>
     </row>
@@ -10552,7 +10529,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10567,45 +10544,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -10614,52 +10591,52 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H7" s="45">
         <v>1623</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J7" s="66" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -10668,22 +10645,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="36">
         <v>1638</v>
@@ -10699,23 +10676,23 @@
       </c>
       <c r="L8" s="65"/>
       <c r="M8" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="65"/>
@@ -10727,23 +10704,23 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="65"/>
@@ -10757,25 +10734,25 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H11" s="63">
         <v>1640</v>
@@ -10784,10 +10761,10 @@
         <v>1701</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L11" s="65"/>
       <c r="M11" s="65"/>
@@ -11441,7 +11418,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11456,45 +11433,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -11503,21 +11480,21 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -11530,7 +11507,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="65"/>
       <c r="M7" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -12187,7 +12164,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12202,45 +12179,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -12249,36 +12226,36 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -12294,7 +12271,7 @@
       </c>
       <c r="L7" s="65"/>
       <c r="M7" s="18" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -12923,10 +12900,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12955,7 +12932,7 @@
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12970,45 +12947,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -13017,39 +12994,39 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O6" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="62">
         <v>1638</v>
@@ -13064,68 +13041,68 @@
         <v>6</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="40"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H9" s="38">
         <v>1638</v>
@@ -13134,10 +13111,10 @@
         <v>1683</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="18"/>
@@ -13146,19 +13123,19 @@
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="40"/>
@@ -13166,32 +13143,32 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>379</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="37">
         <v>1607</v>
@@ -13203,11 +13180,11 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -13217,20 +13194,20 @@
         <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H12" s="37">
         <v>1620</v>
@@ -13246,7 +13223,7 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -13256,22 +13233,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>468</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H13" s="37">
         <v>1650</v>
@@ -13287,7 +13264,7 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -13297,22 +13274,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="37">
         <v>1601</v>
@@ -13328,7 +13305,7 @@
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -13338,22 +13315,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="H15" s="37">
         <v>1638</v>
@@ -13362,37 +13339,37 @@
         <v>1665</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
       <c r="M15" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H16" s="37">
         <v>1635</v>
@@ -13408,7 +13385,7 @@
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -13418,22 +13395,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H17" s="37">
         <v>1622</v>
@@ -13449,7 +13426,7 @@
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -13459,22 +13436,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H18" s="39">
         <v>1624</v>
@@ -13488,7 +13465,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
       <c r="M18" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -13498,22 +13475,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="H19" s="37">
         <v>1632</v>
@@ -13525,14 +13502,14 @@
         <v>5</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="O19" s="10"/>
     </row>
@@ -13541,22 +13518,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H20" s="37">
         <v>1619</v>
@@ -13568,11 +13545,11 @@
         <v>5</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -13582,22 +13559,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H21" s="37">
         <v>1628</v>
@@ -13609,11 +13586,11 @@
         <v>5</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -13623,22 +13600,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H22" s="37">
         <v>1642</v>
@@ -13654,7 +13631,7 @@
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -13664,22 +13641,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -13689,32 +13666,32 @@
       <c r="K23" s="11"/>
       <c r="L23" s="10"/>
       <c r="M23" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H24" s="38">
         <v>1638</v>
@@ -13723,37 +13700,37 @@
         <v>1683</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H25" s="37">
         <v>1601</v>
@@ -13762,37 +13739,37 @@
         <v>1666</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H26" s="37">
         <v>1635</v>
@@ -13801,14 +13778,14 @@
         <v>1692</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -13818,23 +13795,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I27" s="37">
         <v>1690</v>
@@ -13843,34 +13820,34 @@
         <v>5</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H28" s="37">
         <v>1630</v>
@@ -13882,37 +13859,37 @@
         <v>121</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I29" s="37">
         <v>1700</v>
@@ -13921,37 +13898,37 @@
         <v>121</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="I30" s="37">
         <v>1700</v>
@@ -13960,34 +13937,34 @@
         <v>5</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H31" s="37">
         <v>1658</v>
@@ -13999,34 +13976,34 @@
         <v>121</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H32" s="37">
         <v>1633</v>
@@ -14038,34 +14015,34 @@
         <v>121</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H33" s="37">
         <v>1615</v>
@@ -14077,34 +14054,34 @@
         <v>5</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H34" s="37">
         <v>1626</v>
@@ -14116,34 +14093,34 @@
         <v>5</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H35" s="37">
         <v>1630</v>
@@ -14155,34 +14132,34 @@
         <v>5</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -14190,36 +14167,36 @@
         <v>5</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -14229,21 +14206,21 @@
       <c r="K37" s="27"/>
       <c r="L37" s="10"/>
       <c r="M37" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="37"/>
@@ -14252,21 +14229,21 @@
       <c r="K38" s="27"/>
       <c r="L38" s="10"/>
       <c r="M38" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="37"/>
@@ -14275,21 +14252,21 @@
       <c r="K39" s="27"/>
       <c r="L39" s="10"/>
       <c r="M39" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="37"/>
@@ -14298,21 +14275,21 @@
       <c r="K40" s="27"/>
       <c r="L40" s="10"/>
       <c r="M40" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="37"/>
@@ -14321,30 +14298,30 @@
       <c r="K41" s="27"/>
       <c r="L41" s="10"/>
       <c r="M41" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H42" s="37">
         <v>1625</v>
@@ -14358,33 +14335,33 @@
       <c r="K42" s="27"/>
       <c r="L42" s="10"/>
       <c r="M42" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I43" s="37">
         <v>1678</v>
@@ -14393,30 +14370,30 @@
         <v>5</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
@@ -14424,30 +14401,30 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H45" s="37">
         <v>1618</v>
@@ -14459,14 +14436,14 @@
         <v>5</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O45" s="10"/>
     </row>
@@ -14479,10 +14456,10 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -14490,7 +14467,7 @@
       <c r="K46" s="27"/>
       <c r="L46" s="10"/>
       <c r="M46" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -14501,25 +14478,25 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="11"/>
       <c r="K47" s="27" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -14533,10 +14510,10 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -14544,7 +14521,7 @@
       <c r="K48" s="27"/>
       <c r="L48" s="10"/>
       <c r="M48" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -14558,10 +14535,10 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -14569,7 +14546,7 @@
       <c r="K49" s="27"/>
       <c r="L49" s="10"/>
       <c r="M49" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -14579,20 +14556,20 @@
         <v>75</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H50" s="37">
         <v>1642</v>
@@ -14604,14 +14581,14 @@
         <v>5</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="O50" s="10"/>
     </row>
@@ -14624,10 +14601,10 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -14635,7 +14612,7 @@
       <c r="K51" s="27"/>
       <c r="L51" s="10"/>
       <c r="M51" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -14649,10 +14626,10 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -14660,7 +14637,7 @@
       <c r="K52" s="27"/>
       <c r="L52" s="10"/>
       <c r="M52" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -14674,10 +14651,10 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -14685,30 +14662,30 @@
       <c r="K53" s="27"/>
       <c r="L53" s="10"/>
       <c r="M53" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H54" s="37">
         <v>1636</v>
@@ -14718,11 +14695,11 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="27" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -14736,10 +14713,10 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -14747,7 +14724,7 @@
       <c r="K55" s="27"/>
       <c r="L55" s="10"/>
       <c r="M55" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -14757,22 +14734,22 @@
         <v>109</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H56" s="37">
         <v>1598</v>
@@ -14784,11 +14761,11 @@
         <v>5</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -14807,7 +14784,7 @@
       <c r="K57" s="27"/>
       <c r="L57" s="10"/>
       <c r="M57" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -14826,7 +14803,7 @@
       <c r="K58" s="27"/>
       <c r="L58" s="10"/>
       <c r="M58" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -14998,7 +14975,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15013,45 +14990,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -15060,13 +15037,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15074,22 +15051,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -15104,34 +15081,34 @@
         <v>6</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>379</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" s="37">
         <v>1607</v>
@@ -15143,29 +15120,29 @@
         <v>5</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="42"/>
@@ -16112,7 +16089,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16127,45 +16104,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -16174,13 +16151,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16188,22 +16165,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -16218,32 +16195,32 @@
         <v>6</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H8" s="37">
         <v>1601</v>
@@ -16252,10 +16229,10 @@
         <v>1666</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -16263,7 +16240,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="42"/>
@@ -16271,7 +16248,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="42"/>
@@ -17228,7 +17205,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17243,45 +17220,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -17290,18 +17267,18 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -17309,7 +17286,7 @@
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -17321,23 +17298,23 @@
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H8" s="45">
         <v>1631</v>
@@ -17347,13 +17324,13 @@
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>184</v>
-      </c>
       <c r="M8" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N8" s="46"/>
     </row>
@@ -17362,22 +17339,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="36">
         <v>1638</v>
@@ -17392,19 +17369,19 @@
         <v>6</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="43"/>
@@ -18362,7 +18339,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18377,45 +18354,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -18424,18 +18401,18 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="14"/>
@@ -18443,7 +18420,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="10"/>
@@ -18457,22 +18434,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="36">
         <v>1638</v>
@@ -18487,10 +18464,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -19053,7 +19030,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19068,45 +19045,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="69" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -19115,36 +19092,36 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -19161,22 +19138,22 @@
         <v>34</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E8" s="75" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" s="77">
         <v>1640</v>
@@ -19185,7 +19162,7 @@
         <v>1701</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -19194,7 +19171,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -19202,7 +19179,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -20004,7 +19981,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20019,45 +19996,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -20066,69 +20043,69 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I8" s="47">
         <v>1713</v>
@@ -20137,47 +20114,47 @@
         <v>120</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -20185,31 +20162,31 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -20965,7 +20942,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20980,45 +20957,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>364</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>366</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -21027,13 +21004,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21041,22 +21018,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -21072,31 +21049,31 @@
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47">
@@ -21104,52 +21081,52 @@
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="47"/>
@@ -21158,20 +21135,20 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="47"/>
@@ -21180,86 +21157,86 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>221</v>
-      </c>
       <c r="M13" s="18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="47"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B395466-8257-B048-B101-492E3B8AD86F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C4F06-B15D-8747-BC3A-877C63EB9655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
@@ -2841,22 +2841,6 @@
     <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="196">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5280,6 +5264,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1" tint="0.499984740745262"/>
         <name val="Calibri"/>
@@ -5841,66 +5841,66 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{8DEE6EBC-5471-DD45-A9DE-9CEC1B08F81D}" name="Tableau1260708090100" displayName="Tableau1260708090100" ref="A6:N11" totalsRowShown="0" dataDxfId="47" headerRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{8DEE6EBC-5471-DD45-A9DE-9CEC1B08F81D}" name="Tableau1260708090100" displayName="Tableau1260708090100" ref="A6:N11" totalsRowShown="0" dataDxfId="46" headerRowBorderDxfId="47">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A2353750-67F8-514E-B8AB-89C60649EFDA}" name="Nom de la personne (dans le texte)" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{41D2143A-B0C6-8140-956F-E0DC3DA365EF}" name="Nom usuel (entrée indexée)" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{DE197E0E-E849-354F-9B41-D8CD0EF09E2A}" name="Nom de famille" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{6E5593C2-253D-AA4B-BF8C-7CE8E3806A51}" name="Prénom" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{42475992-3DA8-ED45-87E6-2CB67BD77E8F}" name="Titre" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{8413A9B1-EF51-0E4A-BFA4-4F2FC593DF7D}" name="Genre" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{6656B3AE-632F-4F48-A32E-152889B5CE73}" name="Nom normalisé" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{FD2BAF72-0C08-334D-A26A-896720B45587}" name="Date de naissance" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{F16E6546-28C0-5141-B4D2-5DF0AA55C3C9}" name="Date de décès" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{B73D416A-2EA7-EE4A-9B46-31FCB7683909}" name="Nationalité" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{01912C96-CD3C-AA4B-B8D7-895859D47A5A}" name="Fonction dans la société" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{05726166-76C5-884F-98B4-7A882E34F3FF}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{F1B19FBF-9C97-7242-B810-F108FA9993B0}" name="Rôle normalisé" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{F41372E5-3ADA-184C-9BFC-C2562F9A6EE8}" name="ID DataBnF" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{A2353750-67F8-514E-B8AB-89C60649EFDA}" name="Nom de la personne (dans le texte)" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{41D2143A-B0C6-8140-956F-E0DC3DA365EF}" name="Nom usuel (entrée indexée)" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{DE197E0E-E849-354F-9B41-D8CD0EF09E2A}" name="Nom de famille" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{6E5593C2-253D-AA4B-BF8C-7CE8E3806A51}" name="Prénom" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{42475992-3DA8-ED45-87E6-2CB67BD77E8F}" name="Titre" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{8413A9B1-EF51-0E4A-BFA4-4F2FC593DF7D}" name="Genre" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{6656B3AE-632F-4F48-A32E-152889B5CE73}" name="Nom normalisé" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{FD2BAF72-0C08-334D-A26A-896720B45587}" name="Date de naissance" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{F16E6546-28C0-5141-B4D2-5DF0AA55C3C9}" name="Date de décès" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{B73D416A-2EA7-EE4A-9B46-31FCB7683909}" name="Nationalité" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{01912C96-CD3C-AA4B-B8D7-895859D47A5A}" name="Fonction dans la société" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{05726166-76C5-884F-98B4-7A882E34F3FF}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{F1B19FBF-9C97-7242-B810-F108FA9993B0}" name="Rôle normalisé" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{F41372E5-3ADA-184C-9BFC-C2562F9A6EE8}" name="ID DataBnF" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58C79682-8BC5-F14E-BE4A-31EC5CE41D0D}" name="Tableau12607080901002" displayName="Tableau12607080901002" ref="A6:N7" totalsRowShown="0" dataDxfId="31" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58C79682-8BC5-F14E-BE4A-31EC5CE41D0D}" name="Tableau12607080901002" displayName="Tableau12607080901002" ref="A6:N7" totalsRowShown="0" dataDxfId="30" headerRowBorderDxfId="31">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{14D8DDAB-4A4B-8247-9C36-926F85B3D148}" name="Nom de la personne (dans le texte)" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{EB42FA4D-5BC1-324F-AD16-A482726B9B85}" name="Nom usuel (entrée indexée)" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{0750B586-CEBA-4C4A-ABAB-2CEFC0F02B81}" name="Nom de famille" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{84CB2B33-1AEF-1E40-9757-FF82063D07F7}" name="Prénom" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{6C53AE0C-D55D-0248-94CA-A64948303225}" name="Titre" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{CE1AD0E2-7376-A64E-9347-4BE80381B5D3}" name="Genre" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{09F80201-BEA2-4345-A5D4-728C4CEF08C7}" name="Nom normalisé" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{25452258-6CB9-D54C-8A92-1FCA0E377432}" name="Date de naissance" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{A6D4A876-49BA-8849-9F6C-68FA936FED56}" name="Date de décès" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{0F1D89FA-336C-804E-A1DA-9D8AB24003A6}" name="Nationalité" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{773B1940-5906-6D46-8351-40641B684A00}" name="Fonction dans la société" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{13CC0DF9-8A77-1A47-A9A8-E47D5E961D13}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{081DF9E0-3742-6245-98C4-B761FB3C315C}" name="Rôle normalisé" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{4EB9643E-A9D2-8F4F-B43B-AF6E16EDD53E}" name="ID DataBnF" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{14D8DDAB-4A4B-8247-9C36-926F85B3D148}" name="Nom de la personne (dans le texte)" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{EB42FA4D-5BC1-324F-AD16-A482726B9B85}" name="Nom usuel (entrée indexée)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0750B586-CEBA-4C4A-ABAB-2CEFC0F02B81}" name="Nom de famille" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{84CB2B33-1AEF-1E40-9757-FF82063D07F7}" name="Prénom" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{6C53AE0C-D55D-0248-94CA-A64948303225}" name="Titre" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{CE1AD0E2-7376-A64E-9347-4BE80381B5D3}" name="Genre" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{09F80201-BEA2-4345-A5D4-728C4CEF08C7}" name="Nom normalisé" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{25452258-6CB9-D54C-8A92-1FCA0E377432}" name="Date de naissance" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{A6D4A876-49BA-8849-9F6C-68FA936FED56}" name="Date de décès" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{0F1D89FA-336C-804E-A1DA-9D8AB24003A6}" name="Nationalité" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{773B1940-5906-6D46-8351-40641B684A00}" name="Fonction dans la société" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{13CC0DF9-8A77-1A47-A9A8-E47D5E961D13}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{081DF9E0-3742-6245-98C4-B761FB3C315C}" name="Rôle normalisé" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{4EB9643E-A9D2-8F4F-B43B-AF6E16EDD53E}" name="ID DataBnF" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC92EE6E-6EF4-A34F-A1D1-B6096E67B13E}" name="Tableau126070809010024" displayName="Tableau126070809010024" ref="A6:N7" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC92EE6E-6EF4-A34F-A1D1-B6096E67B13E}" name="Tableau126070809010024" displayName="Tableau126070809010024" ref="A6:N7" totalsRowShown="0" dataDxfId="14" headerRowBorderDxfId="15">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6F7095AE-B771-4F4D-9E94-F18268E04755}" name="Nom de la personne (dans le texte)" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{2EA22226-616F-184D-B764-66816E8ABB18}" name="Nom usuel (entrée indexée)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A25DB16E-60C5-9343-8EAA-3E9070945B23}" name="Nom de famille" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C49DB506-A94F-9446-A631-34ADFD581A7A}" name="Prénom" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AA2AC9CE-3A26-A145-B48D-89494A66FA71}" name="Titre" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{47821544-5C0C-1349-B94B-CB11CA0BB247}" name="Genre" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{9553F12A-CD9F-B646-85E6-97A1D744FF84}" name="Nom normalisé" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{A824BC49-6EF1-3E47-A9D9-C6DED8769316}" name="Date de naissance" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{206F571E-C4BA-4F4A-98AE-E28D1DA6A35E}" name="Date de décès" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BB73F3B2-4425-6045-99E1-4BA9BA1BE4A1}" name="Nationalité" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{C0FD04FC-914C-7A42-AB11-45EBA63DC958}" name="Fonction dans la société" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{46B53BA1-8DF9-BB42-9753-7C4EBD916D06}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{1CC2369B-5FD1-B24A-A8D0-6E0C87000EC5}" name="Rôle normalisé" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{6B405CFD-A50D-0143-856B-212A780BF8E1}" name="ID DataBnF" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6F7095AE-B771-4F4D-9E94-F18268E04755}" name="Nom de la personne (dans le texte)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2EA22226-616F-184D-B764-66816E8ABB18}" name="Nom usuel (entrée indexée)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A25DB16E-60C5-9343-8EAA-3E9070945B23}" name="Nom de famille" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C49DB506-A94F-9446-A631-34ADFD581A7A}" name="Prénom" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AA2AC9CE-3A26-A145-B48D-89494A66FA71}" name="Titre" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{47821544-5C0C-1349-B94B-CB11CA0BB247}" name="Genre" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{9553F12A-CD9F-B646-85E6-97A1D744FF84}" name="Nom normalisé" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A824BC49-6EF1-3E47-A9D9-C6DED8769316}" name="Date de naissance" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{206F571E-C4BA-4F4A-98AE-E28D1DA6A35E}" name="Date de décès" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BB73F3B2-4425-6045-99E1-4BA9BA1BE4A1}" name="Nationalité" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{C0FD04FC-914C-7A42-AB11-45EBA63DC958}" name="Fonction dans la société" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{46B53BA1-8DF9-BB42-9753-7C4EBD916D06}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{1CC2369B-5FD1-B24A-A8D0-6E0C87000EC5}" name="Rôle normalisé" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{6B405CFD-A50D-0143-856B-212A780BF8E1}" name="ID DataBnF" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5923,7 +5923,7 @@
     <tableColumn id="12" xr3:uid="{C64D47C0-C1DC-2144-88AE-E7A22E4FFD31}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="164"/>
     <tableColumn id="13" xr3:uid="{24FDC70A-BF4A-D148-A4F6-F8CBCB91D37B}" name="Rôle normalisé" dataDxfId="163"/>
     <tableColumn id="14" xr3:uid="{94201B49-6B8F-494A-8F61-6ED38D24F600}" name="ID DataBnF" dataDxfId="162"/>
-    <tableColumn id="15" xr3:uid="{A1DF468E-5049-EB4E-8FD9-2D9E94EC47E1}" name="Commentaire" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{A1DF468E-5049-EB4E-8FD9-2D9E94EC47E1}" name="Commentaire" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5935,88 +5935,88 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59B7998-7504-1E4D-9D3F-D181466A47ED}" name="Tableau35" displayName="Tableau35" ref="A6:N9" totalsRowShown="0" headerRowDxfId="161" dataDxfId="159" headerRowBorderDxfId="160" tableBorderDxfId="158" totalsRowBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59B7998-7504-1E4D-9D3F-D181466A47ED}" name="Tableau35" displayName="Tableau35" ref="A6:N9" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7C7B5B07-599C-C34F-A399-EBBC323D6105}" name="Nom de la personne (dans le texte)" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{22A5E1AF-56B7-A748-B1DF-EA696E1A13B6}" name="Nom usuel (entrée indexée)" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{B2E6DFB1-711F-9340-9876-F9A194AF52ED}" name="Nom de famille" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{1A2BEEE2-82E3-4441-9F9D-B102EA64A423}" name="Prénom" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{03A45F33-2AC2-5B4C-888B-08ED65C70B2E}" name="Titre" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{FFFB3265-211E-AE42-B540-DA3B5B26071F}" name="Genre" dataDxfId="151"/>
-    <tableColumn id="8" xr3:uid="{D35A94F9-C05E-5340-ACC9-65E416FEA73D}" name="Nom normalisé" dataDxfId="150"/>
-    <tableColumn id="10" xr3:uid="{031669F6-08B1-7543-A334-C52AFC765A7D}" name="Date de naissance" dataDxfId="149"/>
-    <tableColumn id="7" xr3:uid="{4CA89AF5-B1A5-5F4D-9D15-9FB79541F401}" name="Date de décès" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{E799D4DA-81BD-1E42-B158-D2AC9EA09DED}" name="Nationalité" dataDxfId="147"/>
-    <tableColumn id="11" xr3:uid="{3A7A60F1-9AE6-F64A-99C3-19D215748C5D}" name="Fonction dans la société" dataDxfId="146"/>
-    <tableColumn id="12" xr3:uid="{84E90FDD-486C-9249-8831-971CC9889D42}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="145"/>
-    <tableColumn id="13" xr3:uid="{27D3ABED-CEF1-8048-9C4E-B2A37D4F88DF}" name="Rôle normalisé" dataDxfId="144"/>
-    <tableColumn id="14" xr3:uid="{9E68FABE-40FC-A843-8AC4-AEB8131ABD26}" name="ID DataBnF" dataDxfId="143"/>
+    <tableColumn id="1" xr3:uid="{7C7B5B07-599C-C34F-A399-EBBC323D6105}" name="Nom de la personne (dans le texte)" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{22A5E1AF-56B7-A748-B1DF-EA696E1A13B6}" name="Nom usuel (entrée indexée)" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{B2E6DFB1-711F-9340-9876-F9A194AF52ED}" name="Nom de famille" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{1A2BEEE2-82E3-4441-9F9D-B102EA64A423}" name="Prénom" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{03A45F33-2AC2-5B4C-888B-08ED65C70B2E}" name="Titre" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{FFFB3265-211E-AE42-B540-DA3B5B26071F}" name="Genre" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{D35A94F9-C05E-5340-ACC9-65E416FEA73D}" name="Nom normalisé" dataDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{031669F6-08B1-7543-A334-C52AFC765A7D}" name="Date de naissance" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{4CA89AF5-B1A5-5F4D-9D15-9FB79541F401}" name="Date de décès" dataDxfId="147"/>
+    <tableColumn id="9" xr3:uid="{E799D4DA-81BD-1E42-B158-D2AC9EA09DED}" name="Nationalité" dataDxfId="146"/>
+    <tableColumn id="11" xr3:uid="{3A7A60F1-9AE6-F64A-99C3-19D215748C5D}" name="Fonction dans la société" dataDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{84E90FDD-486C-9249-8831-971CC9889D42}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="144"/>
+    <tableColumn id="13" xr3:uid="{27D3ABED-CEF1-8048-9C4E-B2A37D4F88DF}" name="Rôle normalisé" dataDxfId="143"/>
+    <tableColumn id="14" xr3:uid="{9E68FABE-40FC-A843-8AC4-AEB8131ABD26}" name="ID DataBnF" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D5083699-6670-F14C-8A2C-2CAB7F6D9DF2}" name="Tableau36724" displayName="Tableau36724" ref="A6:N9" totalsRowShown="0" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D5083699-6670-F14C-8A2C-2CAB7F6D9DF2}" name="Tableau36724" displayName="Tableau36724" ref="A6:N9" totalsRowShown="0" dataDxfId="140" headerRowBorderDxfId="141" tableBorderDxfId="139" totalsRowBorderDxfId="138">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0550EDEE-1CF5-4840-9C70-99D1DA688098}" name="Nom de la personne (dans le texte)" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{70CB825D-3C00-3D4B-ACFE-916BF804DA4D}" name="Nom usuel (entrée indexée)" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{2E6E2E74-9880-0B4E-BA3A-0E5F4FCE8345}" name="Nom de famille" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{757F6610-81A3-C241-9DC4-1EA2A82E510F}" name="Prénom" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{3F35090C-2FD4-834F-93D6-C7AF1EED2543}" name="Titre" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{3F692029-08C0-8C47-A740-A3A54D55253C}" name="Genre" dataDxfId="133"/>
-    <tableColumn id="8" xr3:uid="{1082129E-AE85-1F44-9BD1-B8C171D2FD28}" name="Nom normalisé" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{2F1801FB-9346-A44F-BFB1-E4762FC66B96}" name="Date de naissance" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{9C8E6257-C8EB-CB4C-8840-CC38C46E8A07}" name="Date de décès" dataDxfId="130"/>
-    <tableColumn id="9" xr3:uid="{339A016E-334E-6C4A-8D53-3F255D3BEE96}" name="Nationalité" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{65E97278-B386-054B-AD7B-B3D9F18AB8EC}" name="Fonction dans la société" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{E63CF780-F74C-3B44-91AE-96BD53FCD370}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{0DFA3308-EFA7-034C-A239-8AA93EAD408C}" name="Rôle normalisé" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{AD5D0A0D-F359-A74B-BB31-D151B2021842}" name="ID DataBnF" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{0550EDEE-1CF5-4840-9C70-99D1DA688098}" name="Nom de la personne (dans le texte)" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{70CB825D-3C00-3D4B-ACFE-916BF804DA4D}" name="Nom usuel (entrée indexée)" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{2E6E2E74-9880-0B4E-BA3A-0E5F4FCE8345}" name="Nom de famille" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{757F6610-81A3-C241-9DC4-1EA2A82E510F}" name="Prénom" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{3F35090C-2FD4-834F-93D6-C7AF1EED2543}" name="Titre" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{3F692029-08C0-8C47-A740-A3A54D55253C}" name="Genre" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{1082129E-AE85-1F44-9BD1-B8C171D2FD28}" name="Nom normalisé" dataDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{2F1801FB-9346-A44F-BFB1-E4762FC66B96}" name="Date de naissance" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{9C8E6257-C8EB-CB4C-8840-CC38C46E8A07}" name="Date de décès" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{339A016E-334E-6C4A-8D53-3F255D3BEE96}" name="Nationalité" dataDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{65E97278-B386-054B-AD7B-B3D9F18AB8EC}" name="Fonction dans la société" dataDxfId="127"/>
+    <tableColumn id="12" xr3:uid="{E63CF780-F74C-3B44-91AE-96BD53FCD370}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="126"/>
+    <tableColumn id="13" xr3:uid="{0DFA3308-EFA7-034C-A239-8AA93EAD408C}" name="Rôle normalisé" dataDxfId="125"/>
+    <tableColumn id="14" xr3:uid="{AD5D0A0D-F359-A74B-BB31-D151B2021842}" name="ID DataBnF" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E3CD0599-67F5-0342-98A8-70A3E0DA53C7}" name="Tableau7152535" displayName="Tableau7152535" ref="A6:N10" totalsRowShown="0" dataDxfId="123" headerRowBorderDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E3CD0599-67F5-0342-98A8-70A3E0DA53C7}" name="Tableau7152535" displayName="Tableau7152535" ref="A6:N10" totalsRowShown="0" dataDxfId="122" headerRowBorderDxfId="123">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C8133920-AC07-3F44-A1B6-505C99CE9AE5}" name="Nom de la personne (dans le texte)" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{24956319-9C97-8D4E-B89B-38FA2D976044}" name="Nom usuel (entrée indexée)" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{4E114B50-262D-5F4B-AC64-6F624A1E56DB}" name="Nom de famille" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{4865B31C-EFDF-F747-A725-F4856CEB281E}" name="Prénom" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{E881935A-05E4-914D-BC6F-93138FF84F6D}" name="Titre" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{D106E50F-59AD-AB45-A940-846C1E8915BF}" name="Genre" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{4AF84459-6560-3A4A-A5FB-FBD47651B446}" name="Nom normalisé" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{5E127F00-0679-7045-9AE0-BD2E6910019B}" name="Date de naissance" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{DE1183D1-30C6-9D45-946A-BAAFC7DCF677}" name="Date de décès" dataDxfId="114"/>
-    <tableColumn id="9" xr3:uid="{DC3313B3-07FA-6C47-9F86-0D3F310E48F2}" name="Nationalité" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{344B9684-F7C7-3847-B9F9-7395F185FC3A}" name="Fonction dans la société" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{ABD936E0-C17F-0B4F-9EEF-4381714F0510}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="111"/>
-    <tableColumn id="13" xr3:uid="{9CE00097-2895-254F-A4B4-888B389FA52C}" name="Rôle normalisé" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{379DC569-D18A-3241-B05D-099CA3007E25}" name="ID DataBnF" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{C8133920-AC07-3F44-A1B6-505C99CE9AE5}" name="Nom de la personne (dans le texte)" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{24956319-9C97-8D4E-B89B-38FA2D976044}" name="Nom usuel (entrée indexée)" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{4E114B50-262D-5F4B-AC64-6F624A1E56DB}" name="Nom de famille" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{4865B31C-EFDF-F747-A725-F4856CEB281E}" name="Prénom" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{E881935A-05E4-914D-BC6F-93138FF84F6D}" name="Titre" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{D106E50F-59AD-AB45-A940-846C1E8915BF}" name="Genre" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{4AF84459-6560-3A4A-A5FB-FBD47651B446}" name="Nom normalisé" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{5E127F00-0679-7045-9AE0-BD2E6910019B}" name="Date de naissance" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{DE1183D1-30C6-9D45-946A-BAAFC7DCF677}" name="Date de décès" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{DC3313B3-07FA-6C47-9F86-0D3F310E48F2}" name="Nationalité" dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{344B9684-F7C7-3847-B9F9-7395F185FC3A}" name="Fonction dans la société" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{ABD936E0-C17F-0B4F-9EEF-4381714F0510}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{9CE00097-2895-254F-A4B4-888B389FA52C}" name="Rôle normalisé" dataDxfId="109"/>
+    <tableColumn id="14" xr3:uid="{379DC569-D18A-3241-B05D-099CA3007E25}" name="ID DataBnF" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{FCC55EFF-9ED1-6B46-84F7-42331D92E0D9}" name="Tâches52" displayName="Tâches52" ref="A6:N8" totalsRowShown="0" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{FCC55EFF-9ED1-6B46-84F7-42331D92E0D9}" name="Tâches52" displayName="Tâches52" ref="A6:N8" totalsRowShown="0" dataDxfId="107">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{E280C1B8-84E5-6443-AAED-7FCD168F62FE}" name="Nom de la personne (dans le texte)" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{B21AF61A-AE9C-CF43-804E-69123A8B0C1F}" name="Nom usuel (entrée indexée)" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{3F322E93-B913-8E4E-AE71-B9EB0AA0DC0C}" name="Nom de famille" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{1AEC108F-2696-7B46-8EB3-1EDA2B1B9AC8}" name="Prénom" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{B7003135-6862-DC4C-BA64-708E37063AAB}" name="Titre" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{0C229076-31BD-C14D-AFB2-B1610CB6EE9C}" name="Genre" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{2E130AB0-11A9-8B48-AE78-A0567C6C367A}" name="Nom normalisé" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{5E496734-F84E-7A47-8611-34F2439681E5}" name="Date de naissance" dataDxfId="100"/>
-    <tableColumn id="10" xr3:uid="{ADCDA9FD-F30F-4E47-ACEE-3AD6378C002F}" name="Date de décès" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{33F2D10E-BA19-9944-AC1F-F67AE0B40FCB}" name="Nationalité" dataDxfId="98"/>
-    <tableColumn id="11" xr3:uid="{F165AAF1-00B4-2B43-BDBA-45F62B3D3812}" name="Fonction dans la société" dataDxfId="97"/>
-    <tableColumn id="12" xr3:uid="{4EE29412-D1B6-5940-8FBF-28E638714D5B}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="96"/>
-    <tableColumn id="13" xr3:uid="{6EE5FDD4-161C-884B-BD34-1A16FE64966C}" name="Rôle normalisé" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{9B16F522-E6E6-0344-B823-0EA8C6A4D094}" name="ID DataBnF" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{E280C1B8-84E5-6443-AAED-7FCD168F62FE}" name="Nom de la personne (dans le texte)" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{B21AF61A-AE9C-CF43-804E-69123A8B0C1F}" name="Nom usuel (entrée indexée)" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{3F322E93-B913-8E4E-AE71-B9EB0AA0DC0C}" name="Nom de famille" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{1AEC108F-2696-7B46-8EB3-1EDA2B1B9AC8}" name="Prénom" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{B7003135-6862-DC4C-BA64-708E37063AAB}" name="Titre" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{0C229076-31BD-C14D-AFB2-B1610CB6EE9C}" name="Genre" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{2E130AB0-11A9-8B48-AE78-A0567C6C367A}" name="Nom normalisé" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{5E496734-F84E-7A47-8611-34F2439681E5}" name="Date de naissance" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{ADCDA9FD-F30F-4E47-ACEE-3AD6378C002F}" name="Date de décès" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{33F2D10E-BA19-9944-AC1F-F67AE0B40FCB}" name="Nationalité" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{F165AAF1-00B4-2B43-BDBA-45F62B3D3812}" name="Fonction dans la société" dataDxfId="96"/>
+    <tableColumn id="12" xr3:uid="{4EE29412-D1B6-5940-8FBF-28E638714D5B}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="95"/>
+    <tableColumn id="13" xr3:uid="{6EE5FDD4-161C-884B-BD34-1A16FE64966C}" name="Rôle normalisé" dataDxfId="94"/>
+    <tableColumn id="14" xr3:uid="{9B16F522-E6E6-0344-B823-0EA8C6A4D094}" name="ID DataBnF" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6028,66 +6028,66 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{BC565698-A63C-7D44-8975-9CAB2D82E8C9}" name="Tableau95767" displayName="Tableau95767" ref="A6:N9" totalsRowShown="0" headerRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{BC565698-A63C-7D44-8975-9CAB2D82E8C9}" name="Tableau95767" displayName="Tableau95767" ref="A6:N9" totalsRowShown="0" headerRowBorderDxfId="92">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{9F29C979-12D4-2D4E-B25A-57D649183CDE}" name="Nom de la personne (dans le texte)" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{B4F290F7-8777-6A47-B9CF-3F2CE6D0E118}" name="Nom usuel (entrée indexée)" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{0D626C0F-A275-0741-8BD9-8BB64B31DC52}" name="Nom de famille" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{3CF0069E-5437-A34D-85F4-987D543D0CB2}" name="Prénom" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{CA4A0B9A-0D16-704A-BD64-22367B0E2592}" name="Titre" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{A04799DB-A77D-6545-947A-A495AD204AD8}" name="Genre" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{0D6CC52C-23E9-7048-9C73-B3E478053961}" name="Nom normalisé" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{2D7FF66E-B4E6-9141-8CBA-98107E278AA8}" name="Date de naissance" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{E8539C14-E442-DE4D-8962-8E66A82D140C}" name="Date de décès" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{C7DCFC73-CB35-B447-AA44-FD33F491A961}" name="Nationalité" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{B3E7F922-2AEB-CD4C-BA7B-21FBB3AA40E0}" name="Fonction dans la société" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{0F8F45AF-89E6-E647-83D2-F065884C8428}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{28A11D8F-FF42-BE46-BA75-6DCF6FECBF92}" name="Rôle normalisé" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{CF907310-B4A8-0548-B67F-F38E0A0902B6}" name="ID DataBnF" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{9F29C979-12D4-2D4E-B25A-57D649183CDE}" name="Nom de la personne (dans le texte)" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{B4F290F7-8777-6A47-B9CF-3F2CE6D0E118}" name="Nom usuel (entrée indexée)" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{0D626C0F-A275-0741-8BD9-8BB64B31DC52}" name="Nom de famille" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{3CF0069E-5437-A34D-85F4-987D543D0CB2}" name="Prénom" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{CA4A0B9A-0D16-704A-BD64-22367B0E2592}" name="Titre" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{A04799DB-A77D-6545-947A-A495AD204AD8}" name="Genre" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{0D6CC52C-23E9-7048-9C73-B3E478053961}" name="Nom normalisé" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{2D7FF66E-B4E6-9141-8CBA-98107E278AA8}" name="Date de naissance" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{E8539C14-E442-DE4D-8962-8E66A82D140C}" name="Date de décès" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{C7DCFC73-CB35-B447-AA44-FD33F491A961}" name="Nationalité" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{B3E7F922-2AEB-CD4C-BA7B-21FBB3AA40E0}" name="Fonction dans la société" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{0F8F45AF-89E6-E647-83D2-F065884C8428}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{28A11D8F-FF42-BE46-BA75-6DCF6FECBF92}" name="Rôle normalisé" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{CF907310-B4A8-0548-B67F-F38E0A0902B6}" name="ID DataBnF" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{77216522-F2FD-0849-A28F-056952E3984D}" name="Tableau10586878" displayName="Tableau10586878" ref="A6:N10" totalsRowShown="0" headerRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{77216522-F2FD-0849-A28F-056952E3984D}" name="Tableau10586878" displayName="Tableau10586878" ref="A6:N10" totalsRowShown="0" headerRowBorderDxfId="77">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{EE60C99B-4682-FB4F-9327-9B0B6FA5E178}" name="Nom de la personne (dans le texte)" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{42BA14A7-DE6F-B04D-A7DF-AC409ABC9802}" name="Nom usuel (entrée indexée)" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{FF92DE90-7D4C-274D-9BB6-257362B05523}" name="Nom de famille" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{A4AEA8F2-6A72-AB48-9EB9-382BD1FB6237}" name="Prénom" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{603491C4-0B92-2B4C-A697-73F4D3C64B6C}" name="Titre" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{58189655-6EDA-A844-BDE1-20CED2532F1C}" name="Genre" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{F7EEB9D0-E1AB-B94C-8A23-8BEC30293E0F}" name="Nom normalisé" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{6996C177-0450-CB4A-8F79-D8279E6CC0AF}" name="Date de naissance" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{B7F4663E-D318-0A41-A028-F29FA53B3D57}" name="Date de décès" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{686042DF-3251-A84E-9C2C-AFD072C9246C}" name="Nationalité" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{2FF75966-8570-8941-B27E-D8D15EB22D7F}" name="Fonction dans la société" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{FA5EB6FF-5A4D-8445-B787-08A1B94E6FC2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{38D52C48-B795-0741-83ED-C039EB97B0B0}" name="Rôle normalisé" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{A228EF8D-20FD-6347-A6FC-CAA4998E3CB5}" name="ID DataBnF" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{EE60C99B-4682-FB4F-9327-9B0B6FA5E178}" name="Nom de la personne (dans le texte)" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{42BA14A7-DE6F-B04D-A7DF-AC409ABC9802}" name="Nom usuel (entrée indexée)" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{FF92DE90-7D4C-274D-9BB6-257362B05523}" name="Nom de famille" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{A4AEA8F2-6A72-AB48-9EB9-382BD1FB6237}" name="Prénom" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{603491C4-0B92-2B4C-A697-73F4D3C64B6C}" name="Titre" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{58189655-6EDA-A844-BDE1-20CED2532F1C}" name="Genre" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{F7EEB9D0-E1AB-B94C-8A23-8BEC30293E0F}" name="Nom normalisé" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{6996C177-0450-CB4A-8F79-D8279E6CC0AF}" name="Date de naissance" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{B7F4663E-D318-0A41-A028-F29FA53B3D57}" name="Date de décès" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{686042DF-3251-A84E-9C2C-AFD072C9246C}" name="Nationalité" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{2FF75966-8570-8941-B27E-D8D15EB22D7F}" name="Fonction dans la société" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{FA5EB6FF-5A4D-8445-B787-08A1B94E6FC2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{38D52C48-B795-0741-83ED-C039EB97B0B0}" name="Rôle normalisé" dataDxfId="64"/>
+    <tableColumn id="14" xr3:uid="{A228EF8D-20FD-6347-A6FC-CAA4998E3CB5}" name="ID DataBnF" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" xr:uid="{35DA9172-0B8C-D544-880C-57B4B0E640ED}" name="Tableau1159697989" displayName="Tableau1159697989" ref="A6:N14" totalsRowShown="0" headerRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" xr:uid="{35DA9172-0B8C-D544-880C-57B4B0E640ED}" name="Tableau1159697989" displayName="Tableau1159697989" ref="A6:N14" totalsRowShown="0" headerRowBorderDxfId="62">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4062D617-8DE2-6146-BF49-0890B4A0BD49}" name="Nom de la personne (dans le texte)" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{66DCA4AB-B780-BB47-868A-F26D6125C740}" name="Nom usuel (entrée indexée)" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{2272222F-8CF9-454E-AD77-B9608CF10DC0}" name="Nom de famille" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{D6FF3702-227D-4847-8F0A-7B995E7D3F7D}" name="Prénom" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{AA243129-55FF-7844-B3E4-5B3B69735C83}" name="Titre" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{E2449E1A-593F-DC40-86C7-DB861703AC44}" name="Genre" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{3E150E83-1125-9E46-A7E7-B61A04B30A20}" name="Nom normalisé" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{7F082224-92C9-784B-AF54-FFA1E18700CB}" name="Date de naissance" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{A9833AA7-A4B8-4043-8467-3A4ACFFE125F}" name="Date de décès" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{E1C26E57-9CA2-5A4A-82AE-8C8691CDECBA}" name="Nationalité" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{A66EA369-EF27-9244-A663-4E91DC0406AA}" name="Fonction dans la société" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{08CAA2D6-0B89-DE4B-8E2C-AA5603CA9F04}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{8E1DC2E1-42FC-9342-9587-EE6CD52C7EAF}" name="Rôle normalisé" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{0227E5F9-6D68-9043-B271-3BADDF4B7AC6}" name="ID DataBnF" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{4062D617-8DE2-6146-BF49-0890B4A0BD49}" name="Nom de la personne (dans le texte)" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{66DCA4AB-B780-BB47-868A-F26D6125C740}" name="Nom usuel (entrée indexée)" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{2272222F-8CF9-454E-AD77-B9608CF10DC0}" name="Nom de famille" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{D6FF3702-227D-4847-8F0A-7B995E7D3F7D}" name="Prénom" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{AA243129-55FF-7844-B3E4-5B3B69735C83}" name="Titre" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{E2449E1A-593F-DC40-86C7-DB861703AC44}" name="Genre" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{3E150E83-1125-9E46-A7E7-B61A04B30A20}" name="Nom normalisé" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{7F082224-92C9-784B-AF54-FFA1E18700CB}" name="Date de naissance" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{A9833AA7-A4B8-4043-8467-3A4ACFFE125F}" name="Date de décès" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{E1C26E57-9CA2-5A4A-82AE-8C8691CDECBA}" name="Nationalité" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{A66EA369-EF27-9244-A663-4E91DC0406AA}" name="Fonction dans la société" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{08CAA2D6-0B89-DE4B-8E2C-AA5603CA9F04}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{8E1DC2E1-42FC-9342-9587-EE6CD52C7EAF}" name="Rôle normalisé" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{0227E5F9-6D68-9043-B271-3BADDF4B7AC6}" name="ID DataBnF" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6362,9 +6362,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <selection pane="topRight" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12900,10 +12900,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C4F06-B15D-8747-BC3A-877C63EB9655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3556D9F-BF48-4842-898B-FF7D1B81E01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="722">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2311,6 +2311,24 @@
   </si>
   <si>
     <t>1er gentilhomme de la chambre du Roi</t>
+  </si>
+  <si>
+    <t>madeleine_charlotte_albert_ailly</t>
+  </si>
+  <si>
+    <t>mme_de_brancas</t>
+  </si>
+  <si>
+    <t>benedicte_henriette_palatinat</t>
+  </si>
+  <si>
+    <t>mme_de_crussol</t>
+  </si>
+  <si>
+    <t>mlle_de_cologon</t>
+  </si>
+  <si>
+    <t>mlle_d_ardennes</t>
   </si>
 </sst>
 </file>
@@ -6362,9 +6380,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G130" sqref="G130"/>
+      <selection pane="topRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8305,7 +8323,9 @@
       <c r="F53" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G53" s="11"/>
+      <c r="G53" s="11" t="s">
+        <v>716</v>
+      </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
       <c r="J53" s="12"/>
@@ -8329,7 +8349,9 @@
       <c r="F54" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>717</v>
+      </c>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
       <c r="J54" s="12"/>
@@ -8405,7 +8427,9 @@
       <c r="F57" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G57" s="11"/>
+      <c r="G57" s="11" t="s">
+        <v>721</v>
+      </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
       <c r="J57" s="12"/>
@@ -8429,7 +8453,9 @@
       <c r="F58" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G58" s="11"/>
+      <c r="G58" s="11" t="s">
+        <v>720</v>
+      </c>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
       <c r="J58" s="12"/>
@@ -8453,7 +8479,9 @@
       <c r="F59" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>719</v>
+      </c>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="12"/>
@@ -8529,7 +8557,9 @@
       <c r="F62" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>718</v>
+      </c>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
       <c r="J62" s="12"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3556D9F-BF48-4842-898B-FF7D1B81E01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D16D72-C1CF-BC44-A871-64DD1CF1EFB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="725">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2329,6 +2329,15 @@
   </si>
   <si>
     <t>mlle_d_ardennes</t>
+  </si>
+  <si>
+    <t>jacques_estival</t>
+  </si>
+  <si>
+    <t>chanteur, abbé</t>
+  </si>
+  <si>
+    <t>Estival, Guillaume (d')</t>
   </si>
 </sst>
 </file>
@@ -6380,9 +6389,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G57" sqref="G57"/>
+      <selection pane="topRight" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8864,20 +8873,32 @@
       <c r="A74" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>490</v>
+      </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
         <v>370</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
+        <v>722</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="I74" s="37">
+        <v>1678</v>
+      </c>
       <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="K74" s="12" t="s">
+        <v>723</v>
+      </c>
       <c r="L74" s="12" t="s">
         <v>422</v>
       </c>
@@ -12930,10 +12951,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D16D72-C1CF-BC44-A871-64DD1CF1EFB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF79A7-3FF1-A64A-98D9-CCF2C66234B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="727">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -864,9 +864,6 @@
     <t>servien_saint_aignan</t>
   </si>
   <si>
-    <t>charron-du-plessis</t>
-  </si>
-  <si>
     <t>choiseul_etampes</t>
   </si>
   <si>
@@ -1015,9 +1012,6 @@
   </si>
   <si>
     <t>louise_rouxel_grancey</t>
-  </si>
-  <si>
-    <t>marie_bourbon_carigan</t>
   </si>
   <si>
     <t>marie_bauffremont_fleix</t>
@@ -2338,6 +2332,18 @@
   </si>
   <si>
     <t>Estival, Guillaume (d')</t>
+  </si>
+  <si>
+    <t>Etienne ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude ? </t>
+  </si>
+  <si>
+    <t>charron_du_plessis</t>
+  </si>
+  <si>
+    <t>marie_bourbon_carignan</t>
   </si>
 </sst>
 </file>
@@ -6389,9 +6395,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I74" sqref="I74"/>
+      <selection pane="topRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6438,45 +6444,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -6485,16 +6491,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6502,19 +6508,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>170</v>
@@ -6532,14 +6538,14 @@
         <v>6</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6547,22 +6553,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H8" s="38">
         <v>1638</v>
@@ -6571,20 +6577,20 @@
         <v>1683</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>137</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6592,20 +6598,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H9" s="37">
         <v>1601</v>
@@ -6614,20 +6620,20 @@
         <v>1666</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>137</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6635,17 +6641,17 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>222</v>
@@ -6666,11 +6672,11 @@
         <v>139</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6678,19 +6684,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>377</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>172</v>
@@ -6705,17 +6711,17 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6723,17 +6729,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>224</v>
@@ -6754,7 +6760,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="27"/>
       <c r="O12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6763,12 +6769,12 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>225</v>
@@ -6778,14 +6784,14 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6793,19 +6799,19 @@
         <v>138</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>223</v>
@@ -6821,14 +6827,14 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6836,17 +6842,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>226</v>
@@ -6869,7 +6875,7 @@
       </c>
       <c r="N15" s="27"/>
       <c r="O15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6877,17 +6883,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>227</v>
@@ -6905,14 +6911,14 @@
         <v>126</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6920,19 +6926,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>466</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>228</v>
@@ -6950,14 +6956,14 @@
         <v>127</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6965,19 +6971,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>469</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>229</v>
@@ -6995,14 +7001,14 @@
         <v>128</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7010,22 +7016,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>709</v>
       </c>
       <c r="H19" s="37">
         <v>1638</v>
@@ -7034,18 +7040,18 @@
         <v>1665</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7053,19 +7059,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>230</v>
@@ -7083,14 +7089,14 @@
         <v>129</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7098,22 +7104,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H21" s="37">
         <v>1622</v>
@@ -7128,14 +7134,14 @@
         <v>130</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7143,19 +7149,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>231</v>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M22" s="12" t="s">
         <v>173</v>
@@ -7183,22 +7189,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>711</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>713</v>
       </c>
       <c r="H23" s="37">
         <v>1632</v>
@@ -7210,10 +7216,10 @@
         <v>5</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>173</v>
@@ -7225,19 +7231,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>232</v>
@@ -7255,7 +7261,7 @@
         <v>131</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>173</v>
@@ -7267,19 +7273,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>233</v>
@@ -7297,7 +7303,7 @@
         <v>132</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>173</v>
@@ -7309,22 +7315,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H26" s="37">
         <v>1642</v>
@@ -7339,7 +7345,7 @@
         <v>119</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>173</v>
@@ -7351,22 +7357,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -7375,7 +7381,7 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>173</v>
@@ -7387,23 +7393,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I28" s="37">
         <v>1690</v>
@@ -7415,7 +7421,7 @@
         <v>133</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>173</v>
@@ -7427,17 +7433,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>235</v>
@@ -7452,10 +7458,10 @@
         <v>121</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>173</v>
@@ -7467,17 +7473,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>236</v>
@@ -7495,7 +7501,7 @@
         <v>134</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>173</v>
@@ -7507,17 +7513,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>237</v>
@@ -7535,7 +7541,7 @@
         <v>135</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>173</v>
@@ -7547,17 +7553,17 @@
         <v>239</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>238</v>
@@ -7572,10 +7578,10 @@
         <v>5</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>173</v>
@@ -7587,17 +7593,17 @@
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>240</v>
@@ -7615,7 +7621,7 @@
         <v>135</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>173</v>
@@ -7627,17 +7633,17 @@
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>241</v>
@@ -7656,7 +7662,7 @@
         <v>161</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N34" s="27"/>
     </row>
@@ -7668,16 +7674,16 @@
         <v>243</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>501</v>
-      </c>
       <c r="F35" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>242</v>
@@ -7696,7 +7702,7 @@
         <v>140</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N35" s="27"/>
     </row>
@@ -7705,19 +7711,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>244</v>
@@ -7736,7 +7742,7 @@
         <v>141</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -7745,19 +7751,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>245</v>
@@ -7772,13 +7778,13 @@
         <v>121</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>142</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N37" s="27"/>
     </row>
@@ -7787,19 +7793,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D38" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>568</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>246</v>
@@ -7814,13 +7820,13 @@
         <v>121</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>143</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N38" s="27"/>
     </row>
@@ -7829,19 +7835,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>189</v>
@@ -7853,16 +7859,16 @@
         <v>1701</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>144</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N39" s="27"/>
     </row>
@@ -7871,19 +7877,19 @@
         <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D40" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>654</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>247</v>
@@ -7902,7 +7908,7 @@
         <v>145</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N40" s="27"/>
     </row>
@@ -7911,25 +7917,25 @@
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="H41" s="37" t="s">
         <v>658</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>656</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>660</v>
       </c>
       <c r="I41" s="37">
         <v>1681</v>
@@ -7942,7 +7948,7 @@
         <v>146</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N41" s="27"/>
     </row>
@@ -7951,25 +7957,25 @@
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>663</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>665</v>
       </c>
       <c r="I42" s="37">
         <v>1673</v>
@@ -7982,7 +7988,7 @@
         <v>147</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N42" s="27"/>
     </row>
@@ -7991,42 +7997,42 @@
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>148</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8034,22 +8040,22 @@
         <v>39</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>676</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H44" s="37">
         <v>1640</v>
@@ -8061,13 +8067,13 @@
         <v>121</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>149</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N44" s="27"/>
     </row>
@@ -8076,25 +8082,25 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H45" s="37" t="s">
         <v>680</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>682</v>
       </c>
       <c r="I45" s="37">
         <v>1723</v>
@@ -8103,17 +8109,17 @@
         <v>121</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>150</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8121,20 +8127,20 @@
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -8144,11 +8150,11 @@
         <v>151</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,22 +8162,22 @@
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>691</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H47" s="37">
         <v>1624</v>
@@ -8187,7 +8193,7 @@
         <v>152</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N47" s="27"/>
     </row>
@@ -8200,10 +8206,10 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -8213,7 +8219,7 @@
         <v>153</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N48" s="27"/>
     </row>
@@ -8226,10 +8232,10 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -8239,7 +8245,7 @@
         <v>154</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N49" s="27"/>
     </row>
@@ -8252,10 +8258,10 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
@@ -8265,7 +8271,7 @@
         <v>155</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N50" s="27"/>
     </row>
@@ -8278,10 +8284,10 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>299</v>
+        <v>726</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -8291,7 +8297,7 @@
         <v>160</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N51" s="27"/>
     </row>
@@ -8304,10 +8310,10 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -8317,7 +8323,7 @@
         <v>140</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N52" s="27"/>
     </row>
@@ -8330,10 +8336,10 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -8343,7 +8349,7 @@
         <v>141</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N53" s="27"/>
     </row>
@@ -8356,10 +8362,10 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
@@ -8369,7 +8375,7 @@
         <v>142</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N54" s="27"/>
     </row>
@@ -8382,10 +8388,10 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -8395,7 +8401,7 @@
         <v>143</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N55" s="27"/>
     </row>
@@ -8408,10 +8414,10 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -8421,7 +8427,7 @@
         <v>144</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N56" s="27"/>
     </row>
@@ -8434,10 +8440,10 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -8447,7 +8453,7 @@
         <v>145</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N57" s="27"/>
     </row>
@@ -8460,10 +8466,10 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -8473,7 +8479,7 @@
         <v>146</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N58" s="27"/>
     </row>
@@ -8486,10 +8492,10 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
@@ -8499,23 +8505,23 @@
         <v>147</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
@@ -8525,7 +8531,7 @@
         <v>148</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N60" s="27"/>
     </row>
@@ -8538,10 +8544,10 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -8551,7 +8557,7 @@
         <v>149</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N61" s="27"/>
     </row>
@@ -8564,10 +8570,10 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
@@ -8577,7 +8583,7 @@
         <v>150</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N62" s="27"/>
     </row>
@@ -8590,10 +8596,10 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
@@ -8603,7 +8609,7 @@
         <v>151</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N63" s="27"/>
     </row>
@@ -8616,10 +8622,10 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
@@ -8629,7 +8635,7 @@
         <v>152</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N64" s="27"/>
     </row>
@@ -8642,10 +8648,10 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
@@ -8655,7 +8661,7 @@
         <v>153</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N65" s="27"/>
     </row>
@@ -8668,7 +8674,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="37"/>
@@ -8679,7 +8685,7 @@
         <v>154</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N66" s="27"/>
     </row>
@@ -8692,10 +8698,10 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -8705,7 +8711,7 @@
         <v>155</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N67" s="27"/>
     </row>
@@ -8718,10 +8724,10 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
@@ -8731,7 +8737,7 @@
         <v>156</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N68" s="27"/>
     </row>
@@ -8744,7 +8750,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="37"/>
@@ -8755,7 +8761,7 @@
         <v>157</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N69" s="27"/>
     </row>
@@ -8768,7 +8774,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="37"/>
@@ -8779,7 +8785,7 @@
         <v>158</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N70" s="27"/>
     </row>
@@ -8792,7 +8798,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="37"/>
@@ -8803,7 +8809,7 @@
         <v>159</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N71" s="27"/>
     </row>
@@ -8812,20 +8818,20 @@
         <v>66</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H72" s="37">
         <v>1625</v>
@@ -8836,13 +8842,13 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M72" s="12" t="s">
         <v>173</v>
       </c>
       <c r="N72" s="41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8854,7 +8860,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="37"/>
@@ -8862,7 +8868,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M73" s="12" t="s">
         <v>173</v>
@@ -8874,33 +8880,33 @@
         <v>68</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I74" s="37">
         <v>1678</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="12" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M74" s="12" t="s">
         <v>173</v>
@@ -8912,27 +8918,27 @@
         <v>69</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M75" s="12" t="s">
         <v>173</v>
@@ -8948,17 +8954,17 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>173</v>
@@ -8974,17 +8980,17 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M77" s="12" t="s">
         <v>173</v>
@@ -9000,17 +9006,17 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>173</v>
@@ -9026,17 +9032,17 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>173</v>
@@ -9052,17 +9058,17 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>173</v>
@@ -9078,17 +9084,17 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>173</v>
@@ -9104,17 +9110,17 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M82" s="12" t="s">
         <v>173</v>
@@ -9130,17 +9136,17 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M83" s="12" t="s">
         <v>173</v>
@@ -9156,7 +9162,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="37"/>
@@ -9164,7 +9170,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>173</v>
@@ -9180,7 +9186,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="37"/>
@@ -9188,7 +9194,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M85" s="12" t="s">
         <v>173</v>
@@ -9200,27 +9206,27 @@
         <v>80</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="37"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M86" s="12" t="s">
         <v>173</v>
@@ -9236,17 +9242,17 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M87" s="12" t="s">
         <v>173</v>
@@ -9262,17 +9268,17 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M88" s="12" t="s">
         <v>173</v>
@@ -9288,17 +9294,17 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M89" s="12" t="s">
         <v>173</v>
@@ -9314,7 +9320,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="37"/>
@@ -9322,7 +9328,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>173</v>
@@ -9338,7 +9344,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="37"/>
@@ -9346,7 +9352,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M91" s="12" t="s">
         <v>173</v>
@@ -9362,7 +9368,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>188</v>
@@ -9372,7 +9378,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>173</v>
@@ -9388,17 +9394,17 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>173</v>
@@ -9414,17 +9420,17 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>173</v>
@@ -9440,17 +9446,17 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M95" s="12" t="s">
         <v>173</v>
@@ -9466,17 +9472,17 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>173</v>
@@ -9492,17 +9498,17 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>173</v>
@@ -9511,15 +9517,17 @@
     </row>
     <row r="98" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="G98" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
@@ -9531,15 +9539,17 @@
     </row>
     <row r="99" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="G99" s="11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
@@ -9558,17 +9568,17 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M100" s="12" t="s">
         <v>173</v>
@@ -9584,17 +9594,17 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>173</v>
@@ -9610,17 +9620,17 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>173</v>
@@ -9632,23 +9642,23 @@
         <v>92</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I103" s="37">
         <v>1705</v>
@@ -9656,7 +9666,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M103" s="12" t="s">
         <v>173</v>
@@ -9672,17 +9682,17 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>173</v>
@@ -9698,17 +9708,17 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H105" s="37"/>
       <c r="I105" s="37"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M105" s="12" t="s">
         <v>173</v>
@@ -9724,17 +9734,17 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M106" s="12" t="s">
         <v>173</v>
@@ -9750,17 +9760,17 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>173</v>
@@ -9776,17 +9786,17 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M108" s="12" t="s">
         <v>173</v>
@@ -9802,17 +9812,17 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>173</v>
@@ -9828,17 +9838,17 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H110" s="37"/>
       <c r="I110" s="37"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M110" s="12" t="s">
         <v>173</v>
@@ -9854,17 +9864,17 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H111" s="37"/>
       <c r="I111" s="37"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M111" s="12" t="s">
         <v>173</v>
@@ -9880,17 +9890,17 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H112" s="37"/>
       <c r="I112" s="37"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M112" s="12" t="s">
         <v>173</v>
@@ -9906,17 +9916,17 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H113" s="37"/>
       <c r="I113" s="37"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>173</v>
@@ -9932,17 +9942,17 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H114" s="37"/>
       <c r="I114" s="37"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M114" s="12" t="s">
         <v>173</v>
@@ -9958,17 +9968,17 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H115" s="37"/>
       <c r="I115" s="37"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>173</v>
@@ -9984,17 +9994,17 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H116" s="37"/>
       <c r="I116" s="37"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M116" s="12" t="s">
         <v>173</v>
@@ -10010,17 +10020,17 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H117" s="37"/>
       <c r="I117" s="37"/>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M117" s="12" t="s">
         <v>173</v>
@@ -10036,17 +10046,17 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M118" s="12" t="s">
         <v>173</v>
@@ -10062,17 +10072,17 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H119" s="37"/>
       <c r="I119" s="37"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M119" s="12" t="s">
         <v>173</v>
@@ -10088,17 +10098,17 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H120" s="37"/>
       <c r="I120" s="37"/>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M120" s="12" t="s">
         <v>173</v>
@@ -10114,17 +10124,17 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H121" s="37"/>
       <c r="I121" s="37"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M121" s="12" t="s">
         <v>173</v>
@@ -10140,17 +10150,17 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H122" s="37"/>
       <c r="I122" s="37"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M122" s="12" t="s">
         <v>173</v>
@@ -10166,17 +10176,17 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H123" s="37"/>
       <c r="I123" s="37"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M123" s="12" t="s">
         <v>173</v>
@@ -10192,17 +10202,17 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H124" s="37"/>
       <c r="I124" s="37"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>173</v>
@@ -10218,17 +10228,17 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H125" s="37"/>
       <c r="I125" s="37"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>173</v>
@@ -10244,17 +10254,17 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H126" s="37"/>
       <c r="I126" s="37"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>173</v>
@@ -10270,7 +10280,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="37"/>
@@ -10278,7 +10288,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M127" s="12" t="s">
         <v>173</v>
@@ -10294,7 +10304,7 @@
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G128" s="11"/>
       <c r="H128" s="37"/>
@@ -10302,7 +10312,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>173</v>
@@ -10318,7 +10328,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="37"/>
@@ -10326,7 +10336,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>173</v>
@@ -10342,10 +10352,10 @@
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H130" s="37"/>
       <c r="I130" s="37"/>
@@ -10364,10 +10374,10 @@
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H131" s="37"/>
       <c r="I131" s="37"/>
@@ -10390,10 +10400,10 @@
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H132" s="37"/>
       <c r="I132" s="37"/>
@@ -10416,10 +10426,10 @@
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H133" s="37"/>
       <c r="I133" s="37"/>
@@ -10442,10 +10452,10 @@
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H134" s="37"/>
       <c r="I134" s="37"/>
@@ -10580,7 +10590,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10595,45 +10605,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -10642,52 +10652,52 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H7" s="45">
         <v>1623</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J7" s="66" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -10696,19 +10706,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>170</v>
@@ -10727,16 +10737,16 @@
       </c>
       <c r="L8" s="65"/>
       <c r="M8" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -10755,20 +10765,20 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>521</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>523</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>188</v>
@@ -10785,22 +10795,22 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" s="60" t="s">
         <v>189</v>
@@ -10812,10 +10822,10 @@
         <v>1701</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L11" s="65"/>
       <c r="M11" s="65"/>
@@ -11469,7 +11479,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11484,45 +11494,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -11531,21 +11541,21 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -12215,7 +12225,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12230,45 +12240,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -12277,33 +12287,33 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>170</v>
@@ -12322,7 +12332,7 @@
       </c>
       <c r="L7" s="65"/>
       <c r="M7" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -12951,10 +12961,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="N43" sqref="N43"/>
+      <selection pane="topRight" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12983,7 +12993,7 @@
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12998,45 +13008,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -13045,36 +13055,36 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="61" t="s">
         <v>170</v>
@@ -13095,65 +13105,65 @@
         <v>174</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="40"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H9" s="38">
         <v>1638</v>
@@ -13162,10 +13172,10 @@
         <v>1683</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="18"/>
@@ -13174,16 +13184,16 @@
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>225</v>
@@ -13201,22 +13211,22 @@
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>377</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>172</v>
@@ -13231,7 +13241,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="18" t="s">
@@ -13245,17 +13255,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>227</v>
@@ -13284,19 +13294,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>466</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>228</v>
@@ -13325,19 +13335,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>469</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>229</v>
@@ -13366,22 +13376,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>709</v>
       </c>
       <c r="H15" s="37">
         <v>1638</v>
@@ -13390,7 +13400,7 @@
         <v>1665</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
@@ -13402,22 +13412,22 @@
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>230</v>
@@ -13446,22 +13456,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H17" s="37">
         <v>1622</v>
@@ -13487,19 +13497,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>231</v>
@@ -13526,22 +13536,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>711</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>713</v>
       </c>
       <c r="H19" s="37">
         <v>1632</v>
@@ -13553,14 +13563,14 @@
         <v>5</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="18" t="s">
         <v>173</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O19" s="10"/>
     </row>
@@ -13569,19 +13579,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>232</v>
@@ -13610,19 +13620,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>233</v>
@@ -13651,22 +13661,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H22" s="37">
         <v>1642</v>
@@ -13692,22 +13702,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -13724,25 +13734,25 @@
     </row>
     <row r="24" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H24" s="38">
         <v>1638</v>
@@ -13751,10 +13761,10 @@
         <v>1683</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="18" t="s">
@@ -13765,23 +13775,23 @@
     </row>
     <row r="25" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H25" s="37">
         <v>1601</v>
@@ -13790,10 +13800,10 @@
         <v>1666</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="18" t="s">
@@ -13804,23 +13814,23 @@
     </row>
     <row r="26" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H26" s="37">
         <v>1635</v>
@@ -13829,10 +13839,10 @@
         <v>1692</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="18" t="s">
@@ -13846,23 +13856,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I27" s="37">
         <v>1690</v>
@@ -13882,20 +13892,20 @@
     </row>
     <row r="28" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>235</v>
@@ -13910,7 +13920,7 @@
         <v>121</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="18" t="s">
@@ -13921,26 +13931,26 @@
     </row>
     <row r="29" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I29" s="37">
         <v>1700</v>
@@ -13949,7 +13959,7 @@
         <v>121</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="18" t="s">
@@ -13960,26 +13970,26 @@
     </row>
     <row r="30" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I30" s="37">
         <v>1700</v>
@@ -13988,7 +13998,7 @@
         <v>5</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="18" t="s">
@@ -13999,23 +14009,23 @@
     </row>
     <row r="31" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H31" s="37">
         <v>1658</v>
@@ -14027,7 +14037,7 @@
         <v>121</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="18" t="s">
@@ -14038,20 +14048,20 @@
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>236</v>
@@ -14077,20 +14087,20 @@
     </row>
     <row r="33" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>237</v>
@@ -14116,20 +14126,20 @@
     </row>
     <row r="34" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>238</v>
@@ -14144,7 +14154,7 @@
         <v>5</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="18" t="s">
@@ -14155,20 +14165,20 @@
     </row>
     <row r="35" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>240</v>
@@ -14194,23 +14204,23 @@
     </row>
     <row r="36" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>585</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>587</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -14218,7 +14228,7 @@
         <v>5</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="18" t="s">
@@ -14229,22 +14239,22 @@
     </row>
     <row r="37" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>524</v>
-      </c>
       <c r="F37" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>188</v>
@@ -14264,14 +14274,14 @@
     </row>
     <row r="38" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="37"/>
@@ -14287,14 +14297,16 @@
     </row>
     <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>723</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="37"/>
@@ -14310,14 +14322,16 @@
     </row>
     <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>724</v>
+      </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="37"/>
@@ -14333,14 +14347,14 @@
     </row>
     <row r="41" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="37"/>
@@ -14356,23 +14370,23 @@
     </row>
     <row r="42" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H42" s="37">
         <v>1625</v>
@@ -14393,26 +14407,26 @@
     </row>
     <row r="43" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I43" s="37">
         <v>1678</v>
@@ -14421,30 +14435,30 @@
         <v>5</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="18" t="s">
         <v>173</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
@@ -14459,23 +14473,23 @@
     </row>
     <row r="45" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H45" s="37">
         <v>1618</v>
@@ -14487,14 +14501,14 @@
         <v>5</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="18" t="s">
         <v>173</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O45" s="10"/>
     </row>
@@ -14507,10 +14521,10 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -14529,21 +14543,21 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="11"/>
       <c r="K47" s="27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="18" t="s">
@@ -14561,10 +14575,10 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -14586,10 +14600,10 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -14607,20 +14621,20 @@
         <v>75</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H50" s="37">
         <v>1642</v>
@@ -14632,14 +14646,14 @@
         <v>5</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="18" t="s">
         <v>173</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O50" s="10"/>
     </row>
@@ -14652,10 +14666,10 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -14677,10 +14691,10 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -14702,10 +14716,10 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -14720,23 +14734,23 @@
     </row>
     <row r="54" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H54" s="37">
         <v>1636</v>
@@ -14746,7 +14760,7 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="18" t="s">
@@ -14764,10 +14778,10 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -14785,22 +14799,22 @@
         <v>109</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>631</v>
-      </c>
       <c r="F56" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H56" s="37">
         <v>1598</v>
@@ -14812,7 +14826,7 @@
         <v>5</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="18" t="s">
@@ -15041,45 +15055,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -15088,13 +15102,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15102,19 +15116,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>170</v>
@@ -15132,10 +15146,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N7" s="42"/>
     </row>
@@ -15144,19 +15158,19 @@
         <v>167</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>377</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>172</v>
@@ -15171,7 +15185,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>136</v>
@@ -16155,45 +16169,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -16202,13 +16216,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16216,19 +16230,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>170</v>
@@ -16249,7 +16263,7 @@
         <v>177</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N7" s="42"/>
     </row>
@@ -16258,20 +16272,20 @@
         <v>176</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H8" s="37">
         <v>1601</v>
@@ -16280,10 +16294,10 @@
         <v>1666</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -17271,45 +17285,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -17318,13 +17332,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -17352,17 +17366,17 @@
         <v>179</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>184</v>
@@ -17390,19 +17404,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>170</v>
@@ -17423,7 +17437,7 @@
         <v>181</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N9" s="46"/>
     </row>
@@ -18390,7 +18404,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18405,45 +18419,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -18452,13 +18466,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -18485,19 +18499,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>170</v>
@@ -18515,10 +18529,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -19081,7 +19095,7 @@
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19096,45 +19110,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="69" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -19143,13 +19157,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19157,19 +19171,19 @@
         <v>186</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>521</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="E7" s="73" t="s">
         <v>522</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>523</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>524</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>188</v>
@@ -19189,19 +19203,19 @@
         <v>34</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E8" s="75" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="76" t="s">
         <v>189</v>
@@ -19213,7 +19227,7 @@
         <v>1701</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -20047,45 +20061,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -20094,13 +20108,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -20108,17 +20122,17 @@
         <v>191</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>198</v>
@@ -20140,23 +20154,23 @@
         <v>192</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>222</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I8" s="47">
         <v>1713</v>
@@ -20180,26 +20194,26 @@
         <v>193</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>5</v>
@@ -20216,19 +20230,19 @@
         <v>194</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>534</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>201</v>
@@ -21008,45 +21022,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>364</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -21055,13 +21069,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M6" s="57" t="s">
         <v>171</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21069,19 +21083,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>170</v>
@@ -21109,22 +21123,22 @@
         <v>204</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47">
@@ -21151,7 +21165,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>221</v>
@@ -21164,7 +21178,7 @@
         <v>213</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N9" s="18"/>
     </row>
@@ -21177,7 +21191,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="47"/>
@@ -21186,7 +21200,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N10" s="18"/>
     </row>
@@ -21199,7 +21213,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="47"/>
@@ -21208,7 +21222,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N11" s="18"/>
     </row>
@@ -21217,17 +21231,17 @@
         <v>208</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>216</v>
@@ -21249,17 +21263,17 @@
         <v>209</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>218</v>
@@ -21274,7 +21288,7 @@
         <v>220</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N13" s="18"/>
     </row>
@@ -21287,7 +21301,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="47"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF79A7-3FF1-A64A-98D9-CCF2C66234B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8684F1-462A-ED44-8ED7-3032D019BF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="731">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Sieur Bureau</t>
-  </si>
-  <si>
-    <t>Mademoiselle De Lorge</t>
   </si>
   <si>
     <t>Mareschal Duc de Grammont</t>
@@ -2325,9 +2322,6 @@
     <t>mlle_d_ardennes</t>
   </si>
   <si>
-    <t>jacques_estival</t>
-  </si>
-  <si>
     <t>chanteur, abbé</t>
   </si>
   <si>
@@ -2344,6 +2338,24 @@
   </si>
   <si>
     <t>marie_bourbon_carignan</t>
+  </si>
+  <si>
+    <t>De Lorge</t>
+  </si>
+  <si>
+    <t>Guy Aldonce II</t>
+  </si>
+  <si>
+    <t>Durfort (de)</t>
+  </si>
+  <si>
+    <t>Durfort, Guy Aldonce II de</t>
+  </si>
+  <si>
+    <t>Maréchal de Lorge</t>
+  </si>
+  <si>
+    <t>durfort_de_lorge</t>
   </si>
 </sst>
 </file>
@@ -6395,9 +6407,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G68" sqref="G68"/>
+      <selection pane="topRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6420,13 +6432,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -6444,45 +6456,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -6491,16 +6503,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6508,22 +6520,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -6538,14 +6550,14 @@
         <v>6</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6553,22 +6565,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H8" s="38">
         <v>1638</v>
@@ -6577,20 +6589,20 @@
         <v>1683</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="L8" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,20 +6610,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" s="37">
         <v>1601</v>
@@ -6620,20 +6632,20 @@
         <v>1666</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6641,20 +6653,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" s="37">
         <v>1637</v>
@@ -6663,20 +6675,20 @@
         <v>1714</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6684,22 +6696,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>375</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" s="37">
         <v>1607</v>
@@ -6711,17 +6723,17 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6729,20 +6741,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12" s="37">
         <v>1474</v>
@@ -6751,16 +6763,16 @@
         <v>1533</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="27"/>
       <c r="O12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6769,52 +6781,52 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>379</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H14" s="37">
         <v>1611</v>
@@ -6827,14 +6839,14 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6842,20 +6854,20 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H15" s="37">
         <v>1625</v>
@@ -6867,15 +6879,15 @@
         <v>5</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6883,20 +6895,20 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="37">
         <v>1620</v>
@@ -6908,17 +6920,17 @@
         <v>5</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6926,22 +6938,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="37">
         <v>1650</v>
@@ -6953,17 +6965,17 @@
         <v>5</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -6971,22 +6983,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>466</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="37">
         <v>1601</v>
@@ -6998,17 +7010,17 @@
         <v>5</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,22 +7028,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>707</v>
       </c>
       <c r="H19" s="37">
         <v>1638</v>
@@ -7040,18 +7052,18 @@
         <v>1665</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7059,22 +7071,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H20" s="37">
         <v>1635</v>
@@ -7086,17 +7098,17 @@
         <v>5</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7104,22 +7116,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H21" s="37">
         <v>1622</v>
@@ -7131,17 +7143,17 @@
         <v>5</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -7149,22 +7161,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H22" s="39">
         <v>1624</v>
@@ -7177,10 +7189,10 @@
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N22" s="27"/>
     </row>
@@ -7189,22 +7201,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H23" s="37">
         <v>1632</v>
@@ -7216,13 +7228,13 @@
         <v>5</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N23" s="27"/>
     </row>
@@ -7231,22 +7243,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H24" s="37">
         <v>1619</v>
@@ -7258,13 +7270,13 @@
         <v>5</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N24" s="27"/>
     </row>
@@ -7273,22 +7285,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" s="37">
         <v>1628</v>
@@ -7300,13 +7312,13 @@
         <v>5</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N25" s="27"/>
     </row>
@@ -7315,22 +7327,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H26" s="37">
         <v>1642</v>
@@ -7342,13 +7354,13 @@
         <v>5</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N26" s="27"/>
     </row>
@@ -7357,22 +7369,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
@@ -7381,10 +7393,10 @@
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N27" s="27"/>
     </row>
@@ -7393,23 +7405,23 @@
         <v>24</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I28" s="37">
         <v>1690</v>
@@ -7418,13 +7430,13 @@
         <v>5</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N28" s="27"/>
     </row>
@@ -7433,20 +7445,20 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H29" s="37">
         <v>1630</v>
@@ -7455,16 +7467,16 @@
         <v>1706</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N29" s="27"/>
     </row>
@@ -7473,20 +7485,20 @@
         <v>26</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H30" s="37">
         <v>1633</v>
@@ -7495,16 +7507,16 @@
         <v>1668</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N30" s="27"/>
     </row>
@@ -7513,20 +7525,20 @@
         <v>27</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="37">
         <v>1615</v>
@@ -7538,35 +7550,35 @@
         <v>5</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" s="37">
         <v>1626</v>
@@ -7578,13 +7590,13 @@
         <v>5</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N32" s="27"/>
     </row>
@@ -7593,20 +7605,20 @@
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" s="37">
         <v>1630</v>
@@ -7618,13 +7630,13 @@
         <v>5</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N33" s="27"/>
     </row>
@@ -7633,20 +7645,20 @@
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34" s="37">
         <v>1646</v>
@@ -7655,14 +7667,14 @@
         <v>1696</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N34" s="27"/>
     </row>
@@ -7671,22 +7683,22 @@
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>499</v>
-      </c>
       <c r="F35" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H35" s="37">
         <v>1628</v>
@@ -7695,14 +7707,14 @@
         <v>1694</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N35" s="27"/>
     </row>
@@ -7711,22 +7723,22 @@
         <v>31</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" s="37">
         <v>1628</v>
@@ -7735,14 +7747,14 @@
         <v>1679</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N36" s="27"/>
     </row>
@@ -7751,22 +7763,22 @@
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>561</v>
-      </c>
       <c r="F37" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" s="37">
         <v>1610</v>
@@ -7775,16 +7787,16 @@
         <v>1688</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N37" s="27"/>
     </row>
@@ -7793,22 +7805,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>566</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38" s="37">
         <v>1638</v>
@@ -7817,16 +7829,16 @@
         <v>1683</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N38" s="27"/>
     </row>
@@ -7835,22 +7847,22 @@
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H39" s="37">
         <v>1640</v>
@@ -7859,16 +7871,16 @@
         <v>1701</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N39" s="27"/>
     </row>
@@ -7877,22 +7889,22 @@
         <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>652</v>
-      </c>
       <c r="F40" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="37">
         <v>1617</v>
@@ -7901,14 +7913,14 @@
         <v>1680</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N40" s="27"/>
     </row>
@@ -7917,38 +7929,38 @@
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="H41" s="37" t="s">
         <v>657</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>658</v>
       </c>
       <c r="I41" s="37">
         <v>1681</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N41" s="27"/>
     </row>
@@ -7957,38 +7969,38 @@
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="37" t="s">
         <v>662</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>663</v>
       </c>
       <c r="I42" s="37">
         <v>1673</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N42" s="27"/>
     </row>
@@ -7997,42 +8009,42 @@
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I43" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="J43" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>669</v>
-      </c>
       <c r="K43" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8040,22 +8052,22 @@
         <v>39</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>674</v>
-      </c>
       <c r="F44" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H44" s="37">
         <v>1640</v>
@@ -8064,16 +8076,16 @@
         <v>1707</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N44" s="27"/>
     </row>
@@ -8082,44 +8094,44 @@
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="F45" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H45" s="37" t="s">
         <v>679</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>680</v>
       </c>
       <c r="I45" s="37">
         <v>1723</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8127,34 +8139,34 @@
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8162,22 +8174,22 @@
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>689</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H47" s="37">
         <v>1624</v>
@@ -8186,14 +8198,14 @@
         <v>1674</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N47" s="27"/>
     </row>
@@ -8206,20 +8218,20 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N48" s="27"/>
     </row>
@@ -8232,20 +8244,20 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N49" s="27"/>
     </row>
@@ -8258,20 +8270,20 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N50" s="27"/>
     </row>
@@ -8284,20 +8296,20 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N51" s="27"/>
     </row>
@@ -8310,20 +8322,20 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N52" s="27"/>
     </row>
@@ -8336,20 +8348,20 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
       <c r="L53" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N53" s="27"/>
     </row>
@@ -8362,20 +8374,20 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N54" s="27"/>
     </row>
@@ -8388,20 +8400,20 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N55" s="27"/>
     </row>
@@ -8414,20 +8426,20 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N56" s="27"/>
     </row>
@@ -8440,20 +8452,20 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N57" s="27"/>
     </row>
@@ -8466,20 +8478,20 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N58" s="27"/>
     </row>
@@ -8492,46 +8504,46 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N60" s="27"/>
     </row>
@@ -8544,20 +8556,20 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N61" s="27"/>
     </row>
@@ -8570,20 +8582,20 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N62" s="27"/>
     </row>
@@ -8596,20 +8608,20 @@
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N63" s="27"/>
     </row>
@@ -8622,20 +8634,20 @@
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N64" s="27"/>
     </row>
@@ -8648,20 +8660,20 @@
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N65" s="27"/>
     </row>
@@ -8674,7 +8686,7 @@
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="37"/>
@@ -8682,10 +8694,10 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N66" s="27"/>
     </row>
@@ -8698,20 +8710,20 @@
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N67" s="27"/>
     </row>
@@ -8724,20 +8736,20 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N68" s="27"/>
     </row>
@@ -8750,7 +8762,7 @@
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="37"/>
@@ -8758,10 +8770,10 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N69" s="27"/>
     </row>
@@ -8774,7 +8786,7 @@
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="37"/>
@@ -8782,10 +8794,10 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N70" s="27"/>
     </row>
@@ -8798,7 +8810,7 @@
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="37"/>
@@ -8806,10 +8818,10 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N71" s="27"/>
     </row>
@@ -8818,20 +8830,20 @@
         <v>66</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H72" s="37">
         <v>1625</v>
@@ -8842,13 +8854,13 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N72" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -8860,7 +8872,7 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="37"/>
@@ -8868,10 +8880,10 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N73" s="27"/>
     </row>
@@ -8880,36 +8892,36 @@
         <v>68</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I74" s="37">
         <v>1678</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N74" s="27"/>
     </row>
@@ -8918,30 +8930,30 @@
         <v>69</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N75" s="27"/>
     </row>
@@ -8954,20 +8966,20 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N76" s="27"/>
     </row>
@@ -8980,20 +8992,20 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N77" s="27"/>
     </row>
@@ -9006,20 +9018,20 @@
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N78" s="27"/>
     </row>
@@ -9032,20 +9044,20 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N79" s="27"/>
     </row>
@@ -9058,20 +9070,20 @@
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N80" s="27"/>
     </row>
@@ -9084,20 +9096,20 @@
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N81" s="27"/>
     </row>
@@ -9110,20 +9122,20 @@
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
       <c r="L82" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N82" s="27"/>
     </row>
@@ -9136,20 +9148,20 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
       <c r="L83" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N83" s="27"/>
     </row>
@@ -9162,7 +9174,7 @@
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="37"/>
@@ -9170,10 +9182,10 @@
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N84" s="27"/>
     </row>
@@ -9186,7 +9198,7 @@
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="37"/>
@@ -9194,10 +9206,10 @@
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N85" s="27"/>
     </row>
@@ -9206,30 +9218,30 @@
         <v>80</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>585</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H86" s="40"/>
       <c r="I86" s="37"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N86" s="27"/>
     </row>
@@ -9242,20 +9254,20 @@
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N87" s="27"/>
     </row>
@@ -9268,20 +9280,20 @@
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N88" s="27"/>
     </row>
@@ -9294,20 +9306,20 @@
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N89" s="27"/>
     </row>
@@ -9320,7 +9332,7 @@
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="37"/>
@@ -9328,10 +9340,10 @@
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N90" s="27"/>
     </row>
@@ -9344,7 +9356,7 @@
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="37"/>
@@ -9352,10 +9364,10 @@
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N91" s="27"/>
     </row>
@@ -9368,20 +9380,20 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N92" s="27"/>
     </row>
@@ -9394,20 +9406,20 @@
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N93" s="27"/>
     </row>
@@ -9420,20 +9432,20 @@
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N94" s="27"/>
     </row>
@@ -9446,20 +9458,20 @@
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N95" s="27"/>
     </row>
@@ -9472,20 +9484,20 @@
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N96" s="27"/>
     </row>
@@ -9498,36 +9510,36 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N97" s="27"/>
     </row>
     <row r="98" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
@@ -9539,17 +9551,17 @@
     </row>
     <row r="99" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="48" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
@@ -9568,20 +9580,20 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N100" s="27"/>
     </row>
@@ -9594,20 +9606,20 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N101" s="27"/>
     </row>
@@ -9620,20 +9632,20 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M102" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N102" s="27"/>
     </row>
@@ -9642,23 +9654,23 @@
         <v>92</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H103" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I103" s="37">
         <v>1705</v>
@@ -9666,10 +9678,10 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N103" s="27"/>
     </row>
@@ -9682,20 +9694,20 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N104" s="27"/>
     </row>
@@ -9708,20 +9720,20 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H105" s="37"/>
       <c r="I105" s="37"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N105" s="27"/>
     </row>
@@ -9734,20 +9746,20 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N106" s="27"/>
     </row>
@@ -9760,20 +9772,20 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N107" s="27"/>
     </row>
@@ -9786,20 +9798,20 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N108" s="27"/>
     </row>
@@ -9812,20 +9824,20 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N109" s="27"/>
     </row>
@@ -9838,20 +9850,20 @@
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H110" s="37"/>
       <c r="I110" s="37"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M110" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N110" s="27"/>
     </row>
@@ -9864,20 +9876,20 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H111" s="37"/>
       <c r="I111" s="37"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N111" s="27"/>
     </row>
@@ -9890,20 +9902,20 @@
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H112" s="37"/>
       <c r="I112" s="37"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M112" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N112" s="27"/>
     </row>
@@ -9916,20 +9928,20 @@
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H113" s="37"/>
       <c r="I113" s="37"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M113" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N113" s="27"/>
     </row>
@@ -9942,20 +9954,20 @@
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H114" s="37"/>
       <c r="I114" s="37"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M114" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N114" s="27"/>
     </row>
@@ -9968,20 +9980,20 @@
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H115" s="37"/>
       <c r="I115" s="37"/>
       <c r="J115" s="12"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M115" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N115" s="27"/>
     </row>
@@ -9994,20 +10006,20 @@
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H116" s="37"/>
       <c r="I116" s="37"/>
       <c r="J116" s="12"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M116" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N116" s="27"/>
     </row>
@@ -10020,20 +10032,20 @@
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H117" s="37"/>
       <c r="I117" s="37"/>
       <c r="J117" s="12"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N117" s="27"/>
     </row>
@@ -10046,20 +10058,20 @@
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H118" s="37"/>
       <c r="I118" s="37"/>
       <c r="J118" s="12"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M118" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N118" s="27"/>
     </row>
@@ -10072,20 +10084,20 @@
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
       <c r="F119" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H119" s="37"/>
       <c r="I119" s="37"/>
       <c r="J119" s="12"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M119" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N119" s="27"/>
     </row>
@@ -10098,20 +10110,20 @@
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H120" s="37"/>
       <c r="I120" s="37"/>
       <c r="J120" s="12"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M120" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N120" s="27"/>
     </row>
@@ -10124,20 +10136,20 @@
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H121" s="37"/>
       <c r="I121" s="37"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M121" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N121" s="27"/>
     </row>
@@ -10150,20 +10162,20 @@
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H122" s="37"/>
       <c r="I122" s="37"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N122" s="27"/>
     </row>
@@ -10176,20 +10188,20 @@
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H123" s="37"/>
       <c r="I123" s="37"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M123" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N123" s="27"/>
     </row>
@@ -10202,20 +10214,20 @@
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H124" s="37"/>
       <c r="I124" s="37"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M124" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N124" s="27"/>
     </row>
@@ -10228,20 +10240,20 @@
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H125" s="37"/>
       <c r="I125" s="37"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M125" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N125" s="27"/>
     </row>
@@ -10254,20 +10266,20 @@
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H126" s="37"/>
       <c r="I126" s="37"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M126" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N126" s="27"/>
     </row>
@@ -10280,7 +10292,7 @@
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="37"/>
@@ -10288,34 +10300,50 @@
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M127" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N127" s="27"/>
     </row>
     <row r="128" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
+        <v>725</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>729</v>
+      </c>
       <c r="F128" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G128" s="11"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="12"/>
+        <v>367</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="H128" s="37">
+        <v>1630</v>
+      </c>
+      <c r="I128" s="37">
+        <v>1702</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>544</v>
+      </c>
       <c r="K128" s="12"/>
       <c r="L128" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M128" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N128" s="27"/>
     </row>
@@ -10328,7 +10356,7 @@
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="37"/>
@@ -10336,26 +10364,26 @@
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M129" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N129" s="27"/>
     </row>
     <row r="130" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H130" s="37"/>
       <c r="I130" s="37"/>
@@ -10367,105 +10395,105 @@
     </row>
     <row r="131" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H131" s="37"/>
       <c r="I131" s="37"/>
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N131" s="27"/>
     </row>
     <row r="132" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H132" s="37"/>
       <c r="I132" s="37"/>
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M132" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N132" s="27"/>
     </row>
     <row r="133" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H133" s="37"/>
       <c r="I133" s="37"/>
       <c r="J133" s="12"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M133" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N133" s="27"/>
     </row>
     <row r="134" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H134" s="37"/>
       <c r="I134" s="37"/>
       <c r="J134" s="12"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M134" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N134" s="27"/>
     </row>
@@ -10585,12 +10613,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10605,45 +10633,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -10652,52 +10680,52 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>321</v>
-      </c>
       <c r="C7" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>534</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" s="45">
         <v>1623</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J7" s="66" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -10706,22 +10734,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="36">
         <v>1638</v>
@@ -10737,23 +10765,23 @@
       </c>
       <c r="L8" s="65"/>
       <c r="M8" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N8" s="65"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="65"/>
@@ -10765,23 +10793,23 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>520</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>521</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="65"/>
@@ -10795,25 +10823,25 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E11" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H11" s="63">
         <v>1640</v>
@@ -10822,10 +10850,10 @@
         <v>1701</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L11" s="65"/>
       <c r="M11" s="65"/>
@@ -11474,12 +11502,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11494,45 +11522,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -11541,21 +11569,21 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
+        <v>693</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>694</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>695</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -11568,7 +11596,7 @@
       <c r="K7" s="44"/>
       <c r="L7" s="65"/>
       <c r="M7" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -12220,12 +12248,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12240,45 +12268,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -12287,36 +12315,36 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -12332,7 +12360,7 @@
       </c>
       <c r="L7" s="65"/>
       <c r="M7" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N7" s="65"/>
     </row>
@@ -12961,10 +12989,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="D40" sqref="D40"/>
+      <selection pane="topRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12988,12 +13016,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13008,45 +13036,45 @@
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -13055,39 +13083,39 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>368</v>
-      </c>
       <c r="G7" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="62">
         <v>1638</v>
@@ -13102,68 +13130,68 @@
         <v>6</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="40"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H9" s="38">
         <v>1638</v>
@@ -13172,10 +13200,10 @@
         <v>1683</v>
       </c>
       <c r="J9" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="18"/>
@@ -13184,19 +13212,19 @@
     </row>
     <row r="10" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="40"/>
@@ -13204,32 +13232,32 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>375</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11" s="37">
         <v>1607</v>
@@ -13241,11 +13269,11 @@
         <v>5</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -13255,20 +13283,20 @@
         <v>12</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="37">
         <v>1620</v>
@@ -13280,11 +13308,11 @@
         <v>5</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -13294,22 +13322,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="37">
         <v>1650</v>
@@ -13321,11 +13349,11 @@
         <v>5</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -13335,22 +13363,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>466</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H14" s="37">
         <v>1601</v>
@@ -13362,11 +13390,11 @@
         <v>5</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -13376,22 +13404,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>707</v>
       </c>
       <c r="H15" s="37">
         <v>1638</v>
@@ -13400,37 +13428,37 @@
         <v>1665</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
       <c r="M15" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H16" s="37">
         <v>1635</v>
@@ -13442,11 +13470,11 @@
         <v>5</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -13456,22 +13484,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H17" s="37">
         <v>1622</v>
@@ -13483,11 +13511,11 @@
         <v>5</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -13497,22 +13525,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H18" s="39">
         <v>1624</v>
@@ -13526,7 +13554,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="10"/>
       <c r="M18" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -13536,22 +13564,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H19" s="37">
         <v>1632</v>
@@ -13563,14 +13591,14 @@
         <v>5</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O19" s="10"/>
     </row>
@@ -13579,22 +13607,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H20" s="37">
         <v>1619</v>
@@ -13606,11 +13634,11 @@
         <v>5</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -13620,22 +13648,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H21" s="37">
         <v>1628</v>
@@ -13647,11 +13675,11 @@
         <v>5</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -13661,22 +13689,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H22" s="37">
         <v>1642</v>
@@ -13688,11 +13716,11 @@
         <v>5</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -13702,22 +13730,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -13727,32 +13755,32 @@
       <c r="K23" s="11"/>
       <c r="L23" s="10"/>
       <c r="M23" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H24" s="38">
         <v>1638</v>
@@ -13761,37 +13789,37 @@
         <v>1683</v>
       </c>
       <c r="J24" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H25" s="37">
         <v>1601</v>
@@ -13800,37 +13828,37 @@
         <v>1666</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H26" s="37">
         <v>1635</v>
@@ -13839,14 +13867,14 @@
         <v>1692</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -13856,23 +13884,23 @@
         <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I27" s="37">
         <v>1690</v>
@@ -13881,34 +13909,34 @@
         <v>5</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H28" s="37">
         <v>1630</v>
@@ -13917,79 +13945,79 @@
         <v>1706</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I29" s="37">
         <v>1700</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="64" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I30" s="37">
         <v>1700</v>
@@ -13998,34 +14026,34 @@
         <v>5</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H31" s="37">
         <v>1658</v>
@@ -14034,37 +14062,37 @@
         <v>1756</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H32" s="37">
         <v>1633</v>
@@ -14073,37 +14101,37 @@
         <v>1668</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H33" s="37">
         <v>1615</v>
@@ -14115,34 +14143,34 @@
         <v>5</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H34" s="37">
         <v>1626</v>
@@ -14154,34 +14182,34 @@
         <v>5</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H35" s="37">
         <v>1630</v>
@@ -14193,34 +14221,34 @@
         <v>5</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
+        <v>582</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>585</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
@@ -14228,36 +14256,36 @@
         <v>5</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>522</v>
-      </c>
       <c r="F37" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -14267,21 +14295,21 @@
       <c r="K37" s="27"/>
       <c r="L37" s="10"/>
       <c r="M37" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="37"/>
@@ -14290,23 +14318,23 @@
       <c r="K38" s="27"/>
       <c r="L38" s="10"/>
       <c r="M38" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="12" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="37"/>
@@ -14315,23 +14343,23 @@
       <c r="K39" s="27"/>
       <c r="L39" s="10"/>
       <c r="M39" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="37"/>
@@ -14340,21 +14368,21 @@
       <c r="K40" s="27"/>
       <c r="L40" s="10"/>
       <c r="M40" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="37"/>
@@ -14363,30 +14391,30 @@
       <c r="K41" s="27"/>
       <c r="L41" s="10"/>
       <c r="M41" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H42" s="37">
         <v>1625</v>
@@ -14400,33 +14428,33 @@
       <c r="K42" s="27"/>
       <c r="L42" s="10"/>
       <c r="M42" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I43" s="37">
         <v>1678</v>
@@ -14435,30 +14463,30 @@
         <v>5</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
@@ -14466,30 +14494,30 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H45" s="37">
         <v>1618</v>
@@ -14501,14 +14529,14 @@
         <v>5</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O45" s="10"/>
     </row>
@@ -14521,10 +14549,10 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
@@ -14532,7 +14560,7 @@
       <c r="K46" s="27"/>
       <c r="L46" s="10"/>
       <c r="M46" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -14543,25 +14571,25 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="11"/>
       <c r="K47" s="27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -14575,10 +14603,10 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
@@ -14586,7 +14614,7 @@
       <c r="K48" s="27"/>
       <c r="L48" s="10"/>
       <c r="M48" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -14600,10 +14628,10 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
@@ -14611,7 +14639,7 @@
       <c r="K49" s="27"/>
       <c r="L49" s="10"/>
       <c r="M49" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -14621,20 +14649,20 @@
         <v>75</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H50" s="37">
         <v>1642</v>
@@ -14646,14 +14674,14 @@
         <v>5</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O50" s="10"/>
     </row>
@@ -14666,10 +14694,10 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
@@ -14677,7 +14705,7 @@
       <c r="K51" s="27"/>
       <c r="L51" s="10"/>
       <c r="M51" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -14691,10 +14719,10 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -14702,7 +14730,7 @@
       <c r="K52" s="27"/>
       <c r="L52" s="10"/>
       <c r="M52" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -14716,10 +14744,10 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -14727,30 +14755,30 @@
       <c r="K53" s="27"/>
       <c r="L53" s="10"/>
       <c r="M53" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H54" s="37">
         <v>1636</v>
@@ -14760,11 +14788,11 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -14778,10 +14806,10 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -14789,7 +14817,7 @@
       <c r="K55" s="27"/>
       <c r="L55" s="10"/>
       <c r="M55" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -14799,22 +14827,22 @@
         <v>109</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C56" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>629</v>
-      </c>
       <c r="F56" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H56" s="37">
         <v>1598</v>
@@ -14826,11 +14854,11 @@
         <v>5</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -14849,7 +14877,7 @@
       <c r="K57" s="27"/>
       <c r="L57" s="10"/>
       <c r="M57" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -14868,7 +14896,7 @@
       <c r="K58" s="27"/>
       <c r="L58" s="10"/>
       <c r="M58" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -15035,12 +15063,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15055,45 +15083,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>1</v>
@@ -15102,13 +15130,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15116,22 +15144,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -15146,34 +15174,34 @@
         <v>6</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" ht="66" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>375</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="37">
         <v>1607</v>
@@ -15185,29 +15213,29 @@
         <v>5</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N8" s="42"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="42"/>
@@ -16149,12 +16177,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16169,45 +16197,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -16216,13 +16244,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -16230,22 +16258,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -16260,32 +16288,32 @@
         <v>6</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8" s="37">
         <v>1601</v>
@@ -16294,10 +16322,10 @@
         <v>1666</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -16305,7 +16333,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="42"/>
@@ -16313,7 +16341,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="42"/>
@@ -17265,12 +17293,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17285,45 +17313,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -17332,18 +17360,18 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -17351,7 +17379,7 @@
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -17363,23 +17391,23 @@
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H8" s="45">
         <v>1631</v>
@@ -17389,13 +17417,13 @@
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>183</v>
-      </c>
       <c r="M8" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N8" s="46"/>
     </row>
@@ -17404,22 +17432,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G9" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="36">
         <v>1638</v>
@@ -17434,19 +17462,19 @@
         <v>6</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M9" s="46" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="43"/>
@@ -18399,12 +18427,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18419,45 +18447,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -18466,18 +18494,18 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="14"/>
@@ -18485,7 +18513,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="18"/>
       <c r="J7" s="10"/>
@@ -18499,22 +18527,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="36">
         <v>1638</v>
@@ -18529,10 +18557,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -19090,12 +19118,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19110,45 +19138,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -19157,36 +19185,36 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="E7" s="73" t="s">
         <v>521</v>
       </c>
-      <c r="E7" s="73" t="s">
-        <v>522</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -19203,22 +19231,22 @@
         <v>34</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E8" s="75" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H8" s="77">
         <v>1640</v>
@@ -19227,7 +19255,7 @@
         <v>1701</v>
       </c>
       <c r="J8" s="78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -19236,7 +19264,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -19244,7 +19272,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -20041,12 +20069,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20061,45 +20089,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -20108,118 +20136,118 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I8" s="47">
         <v>1713</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>524</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>525</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>447</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>448</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -20227,31 +20255,31 @@
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>531</v>
-      </c>
       <c r="F10" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -21002,12 +21030,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21022,45 +21050,45 @@
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="80"/>
       <c r="H5" s="80" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>453</v>
-      </c>
       <c r="D6" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="56" t="s">
         <v>365</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>366</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>1</v>
@@ -21069,13 +21097,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -21083,22 +21111,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="36">
         <v>1638</v>
@@ -21114,31 +21142,31 @@
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>534</v>
-      </c>
       <c r="E8" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="47">
@@ -21146,52 +21174,52 @@
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="47"/>
@@ -21200,20 +21228,20 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="47"/>
@@ -21222,86 +21250,86 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>547</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>220</v>
-      </c>
       <c r="M13" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="47"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phantom/Desktop/GitHub/files/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8684F1-462A-ED44-8ED7-3032D019BF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D2E18B-98FA-FC42-9BF1-31A3830745F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="733">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2356,6 +2356,12 @@
   </si>
   <si>
     <t>durfort_de_lorge</t>
+  </si>
+  <si>
+    <t>Henri Jules</t>
+  </si>
+  <si>
+    <t>Bourbon Condé, Henri Jules de</t>
   </si>
 </sst>
 </file>
@@ -6407,9 +6413,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A111" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G103" sqref="G103"/>
+      <selection pane="topRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7369,13 +7375,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>509</v>
+        <v>732</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>492</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>486</v>
+        <v>731</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>23</v>
@@ -7386,8 +7392,12 @@
       <c r="G27" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="37">
+        <v>1643</v>
+      </c>
+      <c r="I27" s="37">
+        <v>1709</v>
+      </c>
       <c r="J27" s="11" t="s">
         <v>5</v>
       </c>
@@ -10415,7 +10425,7 @@
         <v>135</v>
       </c>
       <c r="M131" s="12" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="N131" s="27"/>
     </row>
@@ -10467,7 +10477,7 @@
         <v>161</v>
       </c>
       <c r="M133" s="12" t="s">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="N133" s="27"/>
     </row>
@@ -10493,7 +10503,7 @@
         <v>161</v>
       </c>
       <c r="M134" s="12" t="s">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="N134" s="27"/>
     </row>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC85AA8-E289-4B72-A3A7-5D08BB7932F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F683B8-F9DB-4ED7-8525-49C192F7CEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="17" r:id="rId2"/>
+    <sheet name="gdv_felibien_1668" sheetId="17" r:id="rId2"/>
     <sheet name="Les Plaisirs… pie ballard 1" sheetId="13" r:id="rId3"/>
     <sheet name="Registre… acflagrange001" sheetId="3" r:id="rId4"/>
     <sheet name="Registre… acflagrange002" sheetId="4" r:id="rId5"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="773">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2453,6 +2453,36 @@
   </si>
   <si>
     <t>henriette_d_angleterre</t>
+  </si>
+  <si>
+    <t>Le Jardinier</t>
+  </si>
+  <si>
+    <t>le_jardinier</t>
+  </si>
+  <si>
+    <t>La Pierre Favier</t>
+  </si>
+  <si>
+    <t>la_pierre_favier</t>
+  </si>
+  <si>
+    <t>Descouteaux</t>
+  </si>
+  <si>
+    <t>descouteaux</t>
+  </si>
+  <si>
+    <t>Philibert</t>
+  </si>
+  <si>
+    <t>philibert</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>Jean</t>
   </si>
 </sst>
 </file>
@@ -2970,11 +3000,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2986,255 +3016,6 @@
     <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="212">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF808080"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5897,6 +5678,255 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1" tint="0.499984740745262"/>
         <name val="Calibri"/>
@@ -6235,133 +6265,133 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" xr:uid="{35DA9172-0B8C-D544-880C-57B4B0E640ED}" name="Tableau1159697989" displayName="Tableau1159697989" ref="A6:N14" totalsRowShown="0" headerRowBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="88" xr:uid="{35DA9172-0B8C-D544-880C-57B4B0E640ED}" name="Tableau1159697989" displayName="Tableau1159697989" ref="A6:N14" totalsRowShown="0" headerRowBorderDxfId="62">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{4062D617-8DE2-6146-BF49-0890B4A0BD49}" name="Nom de la personne (dans le texte)" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{66DCA4AB-B780-BB47-868A-F26D6125C740}" name="Nom usuel (entrée indexée)" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{2272222F-8CF9-454E-AD77-B9608CF10DC0}" name="Nom de famille" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{D6FF3702-227D-4847-8F0A-7B995E7D3F7D}" name="Prénom" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{AA243129-55FF-7844-B3E4-5B3B69735C83}" name="Titre" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{E2449E1A-593F-DC40-86C7-DB861703AC44}" name="Genre" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{3E150E83-1125-9E46-A7E7-B61A04B30A20}" name="Nom normalisé" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{7F082224-92C9-784B-AF54-FFA1E18700CB}" name="Date de naissance" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{A9833AA7-A4B8-4043-8467-3A4ACFFE125F}" name="Date de décès" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{E1C26E57-9CA2-5A4A-82AE-8C8691CDECBA}" name="Nationalité" dataDxfId="68"/>
-    <tableColumn id="11" xr3:uid="{A66EA369-EF27-9244-A663-4E91DC0406AA}" name="Fonction dans la société" dataDxfId="67"/>
-    <tableColumn id="12" xr3:uid="{08CAA2D6-0B89-DE4B-8E2C-AA5603CA9F04}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="66"/>
-    <tableColumn id="13" xr3:uid="{8E1DC2E1-42FC-9342-9587-EE6CD52C7EAF}" name="Rôle normalisé" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{0227E5F9-6D68-9043-B271-3BADDF4B7AC6}" name="ID DataBnF" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{4062D617-8DE2-6146-BF49-0890B4A0BD49}" name="Nom de la personne (dans le texte)" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{66DCA4AB-B780-BB47-868A-F26D6125C740}" name="Nom usuel (entrée indexée)" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{2272222F-8CF9-454E-AD77-B9608CF10DC0}" name="Nom de famille" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{D6FF3702-227D-4847-8F0A-7B995E7D3F7D}" name="Prénom" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{AA243129-55FF-7844-B3E4-5B3B69735C83}" name="Titre" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{E2449E1A-593F-DC40-86C7-DB861703AC44}" name="Genre" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{3E150E83-1125-9E46-A7E7-B61A04B30A20}" name="Nom normalisé" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{7F082224-92C9-784B-AF54-FFA1E18700CB}" name="Date de naissance" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{A9833AA7-A4B8-4043-8467-3A4ACFFE125F}" name="Date de décès" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{E1C26E57-9CA2-5A4A-82AE-8C8691CDECBA}" name="Nationalité" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{A66EA369-EF27-9244-A663-4E91DC0406AA}" name="Fonction dans la société" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{08CAA2D6-0B89-DE4B-8E2C-AA5603CA9F04}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{8E1DC2E1-42FC-9342-9587-EE6CD52C7EAF}" name="Rôle normalisé" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{0227E5F9-6D68-9043-B271-3BADDF4B7AC6}" name="ID DataBnF" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{8DEE6EBC-5471-DD45-A9DE-9CEC1B08F81D}" name="Tableau1260708090100" displayName="Tableau1260708090100" ref="A6:N11" totalsRowShown="0" dataDxfId="62" headerRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="99" xr:uid="{8DEE6EBC-5471-DD45-A9DE-9CEC1B08F81D}" name="Tableau1260708090100" displayName="Tableau1260708090100" ref="A6:N11" totalsRowShown="0" dataDxfId="46" headerRowBorderDxfId="47">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A2353750-67F8-514E-B8AB-89C60649EFDA}" name="Nom de la personne (dans le texte)" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{41D2143A-B0C6-8140-956F-E0DC3DA365EF}" name="Nom usuel (entrée indexée)" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{DE197E0E-E849-354F-9B41-D8CD0EF09E2A}" name="Nom de famille" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{6E5593C2-253D-AA4B-BF8C-7CE8E3806A51}" name="Prénom" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{42475992-3DA8-ED45-87E6-2CB67BD77E8F}" name="Titre" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{8413A9B1-EF51-0E4A-BFA4-4F2FC593DF7D}" name="Genre" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{6656B3AE-632F-4F48-A32E-152889B5CE73}" name="Nom normalisé" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{FD2BAF72-0C08-334D-A26A-896720B45587}" name="Date de naissance" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{F16E6546-28C0-5141-B4D2-5DF0AA55C3C9}" name="Date de décès" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{B73D416A-2EA7-EE4A-9B46-31FCB7683909}" name="Nationalité" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{01912C96-CD3C-AA4B-B8D7-895859D47A5A}" name="Fonction dans la société" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{05726166-76C5-884F-98B4-7A882E34F3FF}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{F1B19FBF-9C97-7242-B810-F108FA9993B0}" name="Rôle normalisé" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{F41372E5-3ADA-184C-9BFC-C2562F9A6EE8}" name="ID DataBnF" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{A2353750-67F8-514E-B8AB-89C60649EFDA}" name="Nom de la personne (dans le texte)" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{41D2143A-B0C6-8140-956F-E0DC3DA365EF}" name="Nom usuel (entrée indexée)" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{DE197E0E-E849-354F-9B41-D8CD0EF09E2A}" name="Nom de famille" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{6E5593C2-253D-AA4B-BF8C-7CE8E3806A51}" name="Prénom" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{42475992-3DA8-ED45-87E6-2CB67BD77E8F}" name="Titre" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{8413A9B1-EF51-0E4A-BFA4-4F2FC593DF7D}" name="Genre" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{6656B3AE-632F-4F48-A32E-152889B5CE73}" name="Nom normalisé" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{FD2BAF72-0C08-334D-A26A-896720B45587}" name="Date de naissance" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{F16E6546-28C0-5141-B4D2-5DF0AA55C3C9}" name="Date de décès" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{B73D416A-2EA7-EE4A-9B46-31FCB7683909}" name="Nationalité" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{01912C96-CD3C-AA4B-B8D7-895859D47A5A}" name="Fonction dans la société" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{05726166-76C5-884F-98B4-7A882E34F3FF}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{F1B19FBF-9C97-7242-B810-F108FA9993B0}" name="Rôle normalisé" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{F41372E5-3ADA-184C-9BFC-C2562F9A6EE8}" name="ID DataBnF" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58C79682-8BC5-F14E-BE4A-31EC5CE41D0D}" name="Tableau12607080901002" displayName="Tableau12607080901002" ref="A6:N7" totalsRowShown="0" dataDxfId="46" headerRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58C79682-8BC5-F14E-BE4A-31EC5CE41D0D}" name="Tableau12607080901002" displayName="Tableau12607080901002" ref="A6:N7" totalsRowShown="0" dataDxfId="30" headerRowBorderDxfId="31">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{14D8DDAB-4A4B-8247-9C36-926F85B3D148}" name="Nom de la personne (dans le texte)" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{EB42FA4D-5BC1-324F-AD16-A482726B9B85}" name="Nom usuel (entrée indexée)" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{0750B586-CEBA-4C4A-ABAB-2CEFC0F02B81}" name="Nom de famille" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{84CB2B33-1AEF-1E40-9757-FF82063D07F7}" name="Prénom" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{6C53AE0C-D55D-0248-94CA-A64948303225}" name="Titre" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{CE1AD0E2-7376-A64E-9347-4BE80381B5D3}" name="Genre" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{09F80201-BEA2-4345-A5D4-728C4CEF08C7}" name="Nom normalisé" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{25452258-6CB9-D54C-8A92-1FCA0E377432}" name="Date de naissance" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{A6D4A876-49BA-8849-9F6C-68FA936FED56}" name="Date de décès" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{0F1D89FA-336C-804E-A1DA-9D8AB24003A6}" name="Nationalité" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{773B1940-5906-6D46-8351-40641B684A00}" name="Fonction dans la société" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{13CC0DF9-8A77-1A47-A9A8-E47D5E961D13}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{081DF9E0-3742-6245-98C4-B761FB3C315C}" name="Rôle normalisé" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{4EB9643E-A9D2-8F4F-B43B-AF6E16EDD53E}" name="ID DataBnF" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{14D8DDAB-4A4B-8247-9C36-926F85B3D148}" name="Nom de la personne (dans le texte)" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{EB42FA4D-5BC1-324F-AD16-A482726B9B85}" name="Nom usuel (entrée indexée)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{0750B586-CEBA-4C4A-ABAB-2CEFC0F02B81}" name="Nom de famille" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{84CB2B33-1AEF-1E40-9757-FF82063D07F7}" name="Prénom" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{6C53AE0C-D55D-0248-94CA-A64948303225}" name="Titre" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{CE1AD0E2-7376-A64E-9347-4BE80381B5D3}" name="Genre" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{09F80201-BEA2-4345-A5D4-728C4CEF08C7}" name="Nom normalisé" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{25452258-6CB9-D54C-8A92-1FCA0E377432}" name="Date de naissance" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{A6D4A876-49BA-8849-9F6C-68FA936FED56}" name="Date de décès" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{0F1D89FA-336C-804E-A1DA-9D8AB24003A6}" name="Nationalité" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{773B1940-5906-6D46-8351-40641B684A00}" name="Fonction dans la société" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{13CC0DF9-8A77-1A47-A9A8-E47D5E961D13}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{081DF9E0-3742-6245-98C4-B761FB3C315C}" name="Rôle normalisé" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{4EB9643E-A9D2-8F4F-B43B-AF6E16EDD53E}" name="ID DataBnF" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC92EE6E-6EF4-A34F-A1D1-B6096E67B13E}" name="Tableau126070809010024" displayName="Tableau126070809010024" ref="A6:N7" totalsRowShown="0" dataDxfId="30" headerRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EC92EE6E-6EF4-A34F-A1D1-B6096E67B13E}" name="Tableau126070809010024" displayName="Tableau126070809010024" ref="A6:N7" totalsRowShown="0" dataDxfId="14" headerRowBorderDxfId="15">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6F7095AE-B771-4F4D-9E94-F18268E04755}" name="Nom de la personne (dans le texte)" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{2EA22226-616F-184D-B764-66816E8ABB18}" name="Nom usuel (entrée indexée)" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A25DB16E-60C5-9343-8EAA-3E9070945B23}" name="Nom de famille" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{C49DB506-A94F-9446-A631-34ADFD581A7A}" name="Prénom" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{AA2AC9CE-3A26-A145-B48D-89494A66FA71}" name="Titre" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{47821544-5C0C-1349-B94B-CB11CA0BB247}" name="Genre" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{9553F12A-CD9F-B646-85E6-97A1D744FF84}" name="Nom normalisé" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{A824BC49-6EF1-3E47-A9D9-C6DED8769316}" name="Date de naissance" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{206F571E-C4BA-4F4A-98AE-E28D1DA6A35E}" name="Date de décès" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{BB73F3B2-4425-6045-99E1-4BA9BA1BE4A1}" name="Nationalité" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{C0FD04FC-914C-7A42-AB11-45EBA63DC958}" name="Fonction dans la société" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{46B53BA1-8DF9-BB42-9753-7C4EBD916D06}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{1CC2369B-5FD1-B24A-A8D0-6E0C87000EC5}" name="Rôle normalisé" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{6B405CFD-A50D-0143-856B-212A780BF8E1}" name="ID DataBnF" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{6F7095AE-B771-4F4D-9E94-F18268E04755}" name="Nom de la personne (dans le texte)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{2EA22226-616F-184D-B764-66816E8ABB18}" name="Nom usuel (entrée indexée)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A25DB16E-60C5-9343-8EAA-3E9070945B23}" name="Nom de famille" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C49DB506-A94F-9446-A631-34ADFD581A7A}" name="Prénom" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AA2AC9CE-3A26-A145-B48D-89494A66FA71}" name="Titre" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{47821544-5C0C-1349-B94B-CB11CA0BB247}" name="Genre" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{9553F12A-CD9F-B646-85E6-97A1D744FF84}" name="Nom normalisé" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A824BC49-6EF1-3E47-A9D9-C6DED8769316}" name="Date de naissance" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{206F571E-C4BA-4F4A-98AE-E28D1DA6A35E}" name="Date de décès" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{BB73F3B2-4425-6045-99E1-4BA9BA1BE4A1}" name="Nationalité" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{C0FD04FC-914C-7A42-AB11-45EBA63DC958}" name="Fonction dans la société" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{46B53BA1-8DF9-BB42-9753-7C4EBD916D06}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{1CC2369B-5FD1-B24A-A8D0-6E0C87000EC5}" name="Rôle normalisé" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{6B405CFD-A50D-0143-856B-212A780BF8E1}" name="ID DataBnF" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N13" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N18" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{06BD48F9-F07A-4D24-8F2B-4E115041D941}" name="Nom de famille" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D6FF28A9-E226-4EC7-AB10-DB3FCA15FE39}" name="Prénom" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{F9B41F85-74EE-4213-956F-935CF5F1A30B}" name="Titre" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{7CB871C7-0707-4CE2-BD15-C168BE4A09BE}" name="Genre" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{C5F2F070-B772-4740-BFB7-D39646F801C2}" name="Nom normalisé" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{6D8B0510-F4B8-497D-9723-75B38DE41640}" name="Date de naissance" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F8F5FF64-3542-4A5D-9963-2C8375E455E5}" name="Date de décès" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B4FB19ED-5AE7-4A8A-8CB3-8CEFB3EE4742}" name="Nationalité" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{5CF126E5-FF2C-4393-BD5E-3DC871D4C2A0}" name="Fonction dans la société" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{245FAE7B-70A0-4DB2-9DB5-014360D38EB2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7475895B-CEF3-4195-860D-2F72CF7DA7D7}" name="Rôle normalisé" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{13D26B9B-D68B-413B-9A4C-576D26F6F8DE}" name="ID DataBnF" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{06BD48F9-F07A-4D24-8F2B-4E115041D941}" name="Nom de famille" dataDxfId="188"/>
+    <tableColumn id="4" xr3:uid="{D6FF28A9-E226-4EC7-AB10-DB3FCA15FE39}" name="Prénom" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{F9B41F85-74EE-4213-956F-935CF5F1A30B}" name="Titre" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{7CB871C7-0707-4CE2-BD15-C168BE4A09BE}" name="Genre" dataDxfId="185"/>
+    <tableColumn id="8" xr3:uid="{C5F2F070-B772-4740-BFB7-D39646F801C2}" name="Nom normalisé" dataDxfId="184"/>
+    <tableColumn id="10" xr3:uid="{6D8B0510-F4B8-497D-9723-75B38DE41640}" name="Date de naissance" dataDxfId="183"/>
+    <tableColumn id="7" xr3:uid="{F8F5FF64-3542-4A5D-9963-2C8375E455E5}" name="Date de décès" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{B4FB19ED-5AE7-4A8A-8CB3-8CEFB3EE4742}" name="Nationalité" dataDxfId="181"/>
+    <tableColumn id="11" xr3:uid="{5CF126E5-FF2C-4393-BD5E-3DC871D4C2A0}" name="Fonction dans la société" dataDxfId="180"/>
+    <tableColumn id="12" xr3:uid="{245FAE7B-70A0-4DB2-9DB5-014360D38EB2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="179"/>
+    <tableColumn id="13" xr3:uid="{7475895B-CEF3-4195-860D-2F72CF7DA7D7}" name="Rôle normalisé" dataDxfId="178"/>
+    <tableColumn id="14" xr3:uid="{13D26B9B-D68B-413B-9A4C-576D26F6F8DE}" name="ID DataBnF" dataDxfId="177"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="101" xr:uid="{59A0F306-B7C8-FA44-84D4-5C1B92D371C4}" name="PieBallard1" displayName="PieBallard1" ref="A6:O58" totalsRowShown="0" dataDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="101" xr:uid="{59A0F306-B7C8-FA44-84D4-5C1B92D371C4}" name="PieBallard1" displayName="PieBallard1" ref="A6:O58" totalsRowShown="0" dataDxfId="176">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{93ED270F-6577-8E4B-9FAF-A4D2321EAEC1}" name="Nom de la personne (dans le texte)" dataDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{9C52561F-F4D9-CE42-A9BF-5FDA846A77D9}" name="Nom usuel (entrée indexée)" dataDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{B75E3DA7-7330-EA42-9FB4-88694C5BFC8F}" name="Nom de famille" dataDxfId="189"/>
-    <tableColumn id="3" xr3:uid="{A435EC5E-F9B3-8441-AF8A-35B9C2FE1D34}" name="Prénom" dataDxfId="188"/>
-    <tableColumn id="5" xr3:uid="{3C5A696A-E65E-1D4D-9505-8E726C114293}" name="Titre" dataDxfId="187"/>
-    <tableColumn id="6" xr3:uid="{CF67975B-B925-3F4A-B222-C46D2BC35EEA}" name="Genre" dataDxfId="186"/>
-    <tableColumn id="8" xr3:uid="{353509B8-9C9B-9C41-BEE7-8583F15B289E}" name="Nom normalisé" dataDxfId="185"/>
-    <tableColumn id="9" xr3:uid="{ABFF3E23-E6B0-0F44-A581-3C1B42AC8676}" name="Date de naissance" dataDxfId="184"/>
-    <tableColumn id="10" xr3:uid="{C5470F6F-D474-6D45-B6A3-61918CAA6D5B}" name="Date de décès" dataDxfId="183"/>
-    <tableColumn id="7" xr3:uid="{6D3BFF3A-74DD-D145-ACA6-D7DF1A822FAD}" name="Nationalité" dataDxfId="182"/>
-    <tableColumn id="11" xr3:uid="{F472EBF5-480A-1C45-83B1-9E56B61B8723}" name="Fonction dans la société" dataDxfId="181"/>
-    <tableColumn id="12" xr3:uid="{C64D47C0-C1DC-2144-88AE-E7A22E4FFD31}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="180"/>
-    <tableColumn id="13" xr3:uid="{24FDC70A-BF4A-D148-A4F6-F8CBCB91D37B}" name="Rôle normalisé" dataDxfId="179"/>
-    <tableColumn id="14" xr3:uid="{94201B49-6B8F-494A-8F61-6ED38D24F600}" name="ID DataBnF" dataDxfId="178"/>
-    <tableColumn id="15" xr3:uid="{A1DF468E-5049-EB4E-8FD9-2D9E94EC47E1}" name="Commentaire" dataDxfId="177"/>
+    <tableColumn id="1" xr3:uid="{93ED270F-6577-8E4B-9FAF-A4D2321EAEC1}" name="Nom de la personne (dans le texte)" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{9C52561F-F4D9-CE42-A9BF-5FDA846A77D9}" name="Nom usuel (entrée indexée)" dataDxfId="174"/>
+    <tableColumn id="4" xr3:uid="{B75E3DA7-7330-EA42-9FB4-88694C5BFC8F}" name="Nom de famille" dataDxfId="173"/>
+    <tableColumn id="3" xr3:uid="{A435EC5E-F9B3-8441-AF8A-35B9C2FE1D34}" name="Prénom" dataDxfId="172"/>
+    <tableColumn id="5" xr3:uid="{3C5A696A-E65E-1D4D-9505-8E726C114293}" name="Titre" dataDxfId="171"/>
+    <tableColumn id="6" xr3:uid="{CF67975B-B925-3F4A-B222-C46D2BC35EEA}" name="Genre" dataDxfId="170"/>
+    <tableColumn id="8" xr3:uid="{353509B8-9C9B-9C41-BEE7-8583F15B289E}" name="Nom normalisé" dataDxfId="169"/>
+    <tableColumn id="9" xr3:uid="{ABFF3E23-E6B0-0F44-A581-3C1B42AC8676}" name="Date de naissance" dataDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{C5470F6F-D474-6D45-B6A3-61918CAA6D5B}" name="Date de décès" dataDxfId="167"/>
+    <tableColumn id="7" xr3:uid="{6D3BFF3A-74DD-D145-ACA6-D7DF1A822FAD}" name="Nationalité" dataDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{F472EBF5-480A-1C45-83B1-9E56B61B8723}" name="Fonction dans la société" dataDxfId="165"/>
+    <tableColumn id="12" xr3:uid="{C64D47C0-C1DC-2144-88AE-E7A22E4FFD31}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="164"/>
+    <tableColumn id="13" xr3:uid="{24FDC70A-BF4A-D148-A4F6-F8CBCB91D37B}" name="Rôle normalisé" dataDxfId="163"/>
+    <tableColumn id="14" xr3:uid="{94201B49-6B8F-494A-8F61-6ED38D24F600}" name="ID DataBnF" dataDxfId="162"/>
+    <tableColumn id="15" xr3:uid="{A1DF468E-5049-EB4E-8FD9-2D9E94EC47E1}" name="Commentaire" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6373,88 +6403,88 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59B7998-7504-1E4D-9D3F-D181466A47ED}" name="Tableau35" displayName="Tableau35" ref="A6:N9" totalsRowShown="0" headerRowDxfId="176" dataDxfId="174" headerRowBorderDxfId="175" tableBorderDxfId="173" totalsRowBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C59B7998-7504-1E4D-9D3F-D181466A47ED}" name="Tableau35" displayName="Tableau35" ref="A6:N9" totalsRowShown="0" headerRowDxfId="160" dataDxfId="158" headerRowBorderDxfId="159" tableBorderDxfId="157" totalsRowBorderDxfId="156">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7C7B5B07-599C-C34F-A399-EBBC323D6105}" name="Nom de la personne (dans le texte)" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{22A5E1AF-56B7-A748-B1DF-EA696E1A13B6}" name="Nom usuel (entrée indexée)" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{B2E6DFB1-711F-9340-9876-F9A194AF52ED}" name="Nom de famille" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{1A2BEEE2-82E3-4441-9F9D-B102EA64A423}" name="Prénom" dataDxfId="168"/>
-    <tableColumn id="5" xr3:uid="{03A45F33-2AC2-5B4C-888B-08ED65C70B2E}" name="Titre" dataDxfId="167"/>
-    <tableColumn id="6" xr3:uid="{FFFB3265-211E-AE42-B540-DA3B5B26071F}" name="Genre" dataDxfId="166"/>
-    <tableColumn id="8" xr3:uid="{D35A94F9-C05E-5340-ACC9-65E416FEA73D}" name="Nom normalisé" dataDxfId="165"/>
-    <tableColumn id="10" xr3:uid="{031669F6-08B1-7543-A334-C52AFC765A7D}" name="Date de naissance" dataDxfId="164"/>
-    <tableColumn id="7" xr3:uid="{4CA89AF5-B1A5-5F4D-9D15-9FB79541F401}" name="Date de décès" dataDxfId="163"/>
-    <tableColumn id="9" xr3:uid="{E799D4DA-81BD-1E42-B158-D2AC9EA09DED}" name="Nationalité" dataDxfId="162"/>
-    <tableColumn id="11" xr3:uid="{3A7A60F1-9AE6-F64A-99C3-19D215748C5D}" name="Fonction dans la société" dataDxfId="161"/>
-    <tableColumn id="12" xr3:uid="{84E90FDD-486C-9249-8831-971CC9889D42}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="160"/>
-    <tableColumn id="13" xr3:uid="{27D3ABED-CEF1-8048-9C4E-B2A37D4F88DF}" name="Rôle normalisé" dataDxfId="159"/>
-    <tableColumn id="14" xr3:uid="{9E68FABE-40FC-A843-8AC4-AEB8131ABD26}" name="ID DataBnF" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{7C7B5B07-599C-C34F-A399-EBBC323D6105}" name="Nom de la personne (dans le texte)" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{22A5E1AF-56B7-A748-B1DF-EA696E1A13B6}" name="Nom usuel (entrée indexée)" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{B2E6DFB1-711F-9340-9876-F9A194AF52ED}" name="Nom de famille" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{1A2BEEE2-82E3-4441-9F9D-B102EA64A423}" name="Prénom" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{03A45F33-2AC2-5B4C-888B-08ED65C70B2E}" name="Titre" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{FFFB3265-211E-AE42-B540-DA3B5B26071F}" name="Genre" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{D35A94F9-C05E-5340-ACC9-65E416FEA73D}" name="Nom normalisé" dataDxfId="149"/>
+    <tableColumn id="10" xr3:uid="{031669F6-08B1-7543-A334-C52AFC765A7D}" name="Date de naissance" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{4CA89AF5-B1A5-5F4D-9D15-9FB79541F401}" name="Date de décès" dataDxfId="147"/>
+    <tableColumn id="9" xr3:uid="{E799D4DA-81BD-1E42-B158-D2AC9EA09DED}" name="Nationalité" dataDxfId="146"/>
+    <tableColumn id="11" xr3:uid="{3A7A60F1-9AE6-F64A-99C3-19D215748C5D}" name="Fonction dans la société" dataDxfId="145"/>
+    <tableColumn id="12" xr3:uid="{84E90FDD-486C-9249-8831-971CC9889D42}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="144"/>
+    <tableColumn id="13" xr3:uid="{27D3ABED-CEF1-8048-9C4E-B2A37D4F88DF}" name="Rôle normalisé" dataDxfId="143"/>
+    <tableColumn id="14" xr3:uid="{9E68FABE-40FC-A843-8AC4-AEB8131ABD26}" name="ID DataBnF" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D5083699-6670-F14C-8A2C-2CAB7F6D9DF2}" name="Tableau36724" displayName="Tableau36724" ref="A6:N9" totalsRowShown="0" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155" totalsRowBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D5083699-6670-F14C-8A2C-2CAB7F6D9DF2}" name="Tableau36724" displayName="Tableau36724" ref="A6:N9" totalsRowShown="0" dataDxfId="140" headerRowBorderDxfId="141" tableBorderDxfId="139" totalsRowBorderDxfId="138">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{0550EDEE-1CF5-4840-9C70-99D1DA688098}" name="Nom de la personne (dans le texte)" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{70CB825D-3C00-3D4B-ACFE-916BF804DA4D}" name="Nom usuel (entrée indexée)" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{2E6E2E74-9880-0B4E-BA3A-0E5F4FCE8345}" name="Nom de famille" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{757F6610-81A3-C241-9DC4-1EA2A82E510F}" name="Prénom" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{3F35090C-2FD4-834F-93D6-C7AF1EED2543}" name="Titre" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{3F692029-08C0-8C47-A740-A3A54D55253C}" name="Genre" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{1082129E-AE85-1F44-9BD1-B8C171D2FD28}" name="Nom normalisé" dataDxfId="147"/>
-    <tableColumn id="10" xr3:uid="{2F1801FB-9346-A44F-BFB1-E4762FC66B96}" name="Date de naissance" dataDxfId="146"/>
-    <tableColumn id="7" xr3:uid="{9C8E6257-C8EB-CB4C-8840-CC38C46E8A07}" name="Date de décès" dataDxfId="145"/>
-    <tableColumn id="9" xr3:uid="{339A016E-334E-6C4A-8D53-3F255D3BEE96}" name="Nationalité" dataDxfId="144"/>
-    <tableColumn id="11" xr3:uid="{65E97278-B386-054B-AD7B-B3D9F18AB8EC}" name="Fonction dans la société" dataDxfId="143"/>
-    <tableColumn id="12" xr3:uid="{E63CF780-F74C-3B44-91AE-96BD53FCD370}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="142"/>
-    <tableColumn id="13" xr3:uid="{0DFA3308-EFA7-034C-A239-8AA93EAD408C}" name="Rôle normalisé" dataDxfId="141"/>
-    <tableColumn id="14" xr3:uid="{AD5D0A0D-F359-A74B-BB31-D151B2021842}" name="ID DataBnF" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{0550EDEE-1CF5-4840-9C70-99D1DA688098}" name="Nom de la personne (dans le texte)" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{70CB825D-3C00-3D4B-ACFE-916BF804DA4D}" name="Nom usuel (entrée indexée)" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{2E6E2E74-9880-0B4E-BA3A-0E5F4FCE8345}" name="Nom de famille" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{757F6610-81A3-C241-9DC4-1EA2A82E510F}" name="Prénom" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{3F35090C-2FD4-834F-93D6-C7AF1EED2543}" name="Titre" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{3F692029-08C0-8C47-A740-A3A54D55253C}" name="Genre" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{1082129E-AE85-1F44-9BD1-B8C171D2FD28}" name="Nom normalisé" dataDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{2F1801FB-9346-A44F-BFB1-E4762FC66B96}" name="Date de naissance" dataDxfId="130"/>
+    <tableColumn id="7" xr3:uid="{9C8E6257-C8EB-CB4C-8840-CC38C46E8A07}" name="Date de décès" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{339A016E-334E-6C4A-8D53-3F255D3BEE96}" name="Nationalité" dataDxfId="128"/>
+    <tableColumn id="11" xr3:uid="{65E97278-B386-054B-AD7B-B3D9F18AB8EC}" name="Fonction dans la société" dataDxfId="127"/>
+    <tableColumn id="12" xr3:uid="{E63CF780-F74C-3B44-91AE-96BD53FCD370}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="126"/>
+    <tableColumn id="13" xr3:uid="{0DFA3308-EFA7-034C-A239-8AA93EAD408C}" name="Rôle normalisé" dataDxfId="125"/>
+    <tableColumn id="14" xr3:uid="{AD5D0A0D-F359-A74B-BB31-D151B2021842}" name="ID DataBnF" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E3CD0599-67F5-0342-98A8-70A3E0DA53C7}" name="Tableau7152535" displayName="Tableau7152535" ref="A6:N10" totalsRowShown="0" dataDxfId="138" headerRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{E3CD0599-67F5-0342-98A8-70A3E0DA53C7}" name="Tableau7152535" displayName="Tableau7152535" ref="A6:N10" totalsRowShown="0" dataDxfId="122" headerRowBorderDxfId="123">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{C8133920-AC07-3F44-A1B6-505C99CE9AE5}" name="Nom de la personne (dans le texte)" dataDxfId="137"/>
-    <tableColumn id="2" xr3:uid="{24956319-9C97-8D4E-B89B-38FA2D976044}" name="Nom usuel (entrée indexée)" dataDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{4E114B50-262D-5F4B-AC64-6F624A1E56DB}" name="Nom de famille" dataDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{4865B31C-EFDF-F747-A725-F4856CEB281E}" name="Prénom" dataDxfId="134"/>
-    <tableColumn id="5" xr3:uid="{E881935A-05E4-914D-BC6F-93138FF84F6D}" name="Titre" dataDxfId="133"/>
-    <tableColumn id="6" xr3:uid="{D106E50F-59AD-AB45-A940-846C1E8915BF}" name="Genre" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{4AF84459-6560-3A4A-A5FB-FBD47651B446}" name="Nom normalisé" dataDxfId="131"/>
-    <tableColumn id="10" xr3:uid="{5E127F00-0679-7045-9AE0-BD2E6910019B}" name="Date de naissance" dataDxfId="130"/>
-    <tableColumn id="7" xr3:uid="{DE1183D1-30C6-9D45-946A-BAAFC7DCF677}" name="Date de décès" dataDxfId="129"/>
-    <tableColumn id="9" xr3:uid="{DC3313B3-07FA-6C47-9F86-0D3F310E48F2}" name="Nationalité" dataDxfId="128"/>
-    <tableColumn id="11" xr3:uid="{344B9684-F7C7-3847-B9F9-7395F185FC3A}" name="Fonction dans la société" dataDxfId="127"/>
-    <tableColumn id="12" xr3:uid="{ABD936E0-C17F-0B4F-9EEF-4381714F0510}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="126"/>
-    <tableColumn id="13" xr3:uid="{9CE00097-2895-254F-A4B4-888B389FA52C}" name="Rôle normalisé" dataDxfId="125"/>
-    <tableColumn id="14" xr3:uid="{379DC569-D18A-3241-B05D-099CA3007E25}" name="ID DataBnF" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{C8133920-AC07-3F44-A1B6-505C99CE9AE5}" name="Nom de la personne (dans le texte)" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{24956319-9C97-8D4E-B89B-38FA2D976044}" name="Nom usuel (entrée indexée)" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{4E114B50-262D-5F4B-AC64-6F624A1E56DB}" name="Nom de famille" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{4865B31C-EFDF-F747-A725-F4856CEB281E}" name="Prénom" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{E881935A-05E4-914D-BC6F-93138FF84F6D}" name="Titre" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{D106E50F-59AD-AB45-A940-846C1E8915BF}" name="Genre" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{4AF84459-6560-3A4A-A5FB-FBD47651B446}" name="Nom normalisé" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{5E127F00-0679-7045-9AE0-BD2E6910019B}" name="Date de naissance" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{DE1183D1-30C6-9D45-946A-BAAFC7DCF677}" name="Date de décès" dataDxfId="113"/>
+    <tableColumn id="9" xr3:uid="{DC3313B3-07FA-6C47-9F86-0D3F310E48F2}" name="Nationalité" dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{344B9684-F7C7-3847-B9F9-7395F185FC3A}" name="Fonction dans la société" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{ABD936E0-C17F-0B4F-9EEF-4381714F0510}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{9CE00097-2895-254F-A4B4-888B389FA52C}" name="Rôle normalisé" dataDxfId="109"/>
+    <tableColumn id="14" xr3:uid="{379DC569-D18A-3241-B05D-099CA3007E25}" name="ID DataBnF" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{FCC55EFF-9ED1-6B46-84F7-42331D92E0D9}" name="Tâches52" displayName="Tâches52" ref="A6:N8" totalsRowShown="0" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{FCC55EFF-9ED1-6B46-84F7-42331D92E0D9}" name="Tâches52" displayName="Tâches52" ref="A6:N8" totalsRowShown="0" dataDxfId="107">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{E280C1B8-84E5-6443-AAED-7FCD168F62FE}" name="Nom de la personne (dans le texte)" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{B21AF61A-AE9C-CF43-804E-69123A8B0C1F}" name="Nom usuel (entrée indexée)" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{3F322E93-B913-8E4E-AE71-B9EB0AA0DC0C}" name="Nom de famille" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{1AEC108F-2696-7B46-8EB3-1EDA2B1B9AC8}" name="Prénom" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{B7003135-6862-DC4C-BA64-708E37063AAB}" name="Titre" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{0C229076-31BD-C14D-AFB2-B1610CB6EE9C}" name="Genre" dataDxfId="117"/>
-    <tableColumn id="8" xr3:uid="{2E130AB0-11A9-8B48-AE78-A0567C6C367A}" name="Nom normalisé" dataDxfId="116"/>
-    <tableColumn id="9" xr3:uid="{5E496734-F84E-7A47-8611-34F2439681E5}" name="Date de naissance" dataDxfId="115"/>
-    <tableColumn id="10" xr3:uid="{ADCDA9FD-F30F-4E47-ACEE-3AD6378C002F}" name="Date de décès" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{33F2D10E-BA19-9944-AC1F-F67AE0B40FCB}" name="Nationalité" dataDxfId="113"/>
-    <tableColumn id="11" xr3:uid="{F165AAF1-00B4-2B43-BDBA-45F62B3D3812}" name="Fonction dans la société" dataDxfId="112"/>
-    <tableColumn id="12" xr3:uid="{4EE29412-D1B6-5940-8FBF-28E638714D5B}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="111"/>
-    <tableColumn id="13" xr3:uid="{6EE5FDD4-161C-884B-BD34-1A16FE64966C}" name="Rôle normalisé" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{9B16F522-E6E6-0344-B823-0EA8C6A4D094}" name="ID DataBnF" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{E280C1B8-84E5-6443-AAED-7FCD168F62FE}" name="Nom de la personne (dans le texte)" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{B21AF61A-AE9C-CF43-804E-69123A8B0C1F}" name="Nom usuel (entrée indexée)" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{3F322E93-B913-8E4E-AE71-B9EB0AA0DC0C}" name="Nom de famille" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{1AEC108F-2696-7B46-8EB3-1EDA2B1B9AC8}" name="Prénom" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{B7003135-6862-DC4C-BA64-708E37063AAB}" name="Titre" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{0C229076-31BD-C14D-AFB2-B1610CB6EE9C}" name="Genre" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{2E130AB0-11A9-8B48-AE78-A0567C6C367A}" name="Nom normalisé" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{5E496734-F84E-7A47-8611-34F2439681E5}" name="Date de naissance" dataDxfId="99"/>
+    <tableColumn id="10" xr3:uid="{ADCDA9FD-F30F-4E47-ACEE-3AD6378C002F}" name="Date de décès" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{33F2D10E-BA19-9944-AC1F-F67AE0B40FCB}" name="Nationalité" dataDxfId="97"/>
+    <tableColumn id="11" xr3:uid="{F165AAF1-00B4-2B43-BDBA-45F62B3D3812}" name="Fonction dans la société" dataDxfId="96"/>
+    <tableColumn id="12" xr3:uid="{4EE29412-D1B6-5940-8FBF-28E638714D5B}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="95"/>
+    <tableColumn id="13" xr3:uid="{6EE5FDD4-161C-884B-BD34-1A16FE64966C}" name="Rôle normalisé" dataDxfId="94"/>
+    <tableColumn id="14" xr3:uid="{9B16F522-E6E6-0344-B823-0EA8C6A4D094}" name="ID DataBnF" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6466,44 +6496,44 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{BC565698-A63C-7D44-8975-9CAB2D82E8C9}" name="Tableau95767" displayName="Tableau95767" ref="A6:N9" totalsRowShown="0" headerRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="66" xr:uid="{BC565698-A63C-7D44-8975-9CAB2D82E8C9}" name="Tableau95767" displayName="Tableau95767" ref="A6:N9" totalsRowShown="0" headerRowBorderDxfId="92">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{9F29C979-12D4-2D4E-B25A-57D649183CDE}" name="Nom de la personne (dans le texte)" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{B4F290F7-8777-6A47-B9CF-3F2CE6D0E118}" name="Nom usuel (entrée indexée)" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{0D626C0F-A275-0741-8BD9-8BB64B31DC52}" name="Nom de famille" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{3CF0069E-5437-A34D-85F4-987D543D0CB2}" name="Prénom" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{CA4A0B9A-0D16-704A-BD64-22367B0E2592}" name="Titre" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{A04799DB-A77D-6545-947A-A495AD204AD8}" name="Genre" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{0D6CC52C-23E9-7048-9C73-B3E478053961}" name="Nom normalisé" dataDxfId="101"/>
-    <tableColumn id="10" xr3:uid="{2D7FF66E-B4E6-9141-8CBA-98107E278AA8}" name="Date de naissance" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{E8539C14-E442-DE4D-8962-8E66A82D140C}" name="Date de décès" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{C7DCFC73-CB35-B447-AA44-FD33F491A961}" name="Nationalité" dataDxfId="98"/>
-    <tableColumn id="11" xr3:uid="{B3E7F922-2AEB-CD4C-BA7B-21FBB3AA40E0}" name="Fonction dans la société" dataDxfId="97"/>
-    <tableColumn id="12" xr3:uid="{0F8F45AF-89E6-E647-83D2-F065884C8428}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="96"/>
-    <tableColumn id="13" xr3:uid="{28A11D8F-FF42-BE46-BA75-6DCF6FECBF92}" name="Rôle normalisé" dataDxfId="95"/>
-    <tableColumn id="14" xr3:uid="{CF907310-B4A8-0548-B67F-F38E0A0902B6}" name="ID DataBnF" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{9F29C979-12D4-2D4E-B25A-57D649183CDE}" name="Nom de la personne (dans le texte)" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{B4F290F7-8777-6A47-B9CF-3F2CE6D0E118}" name="Nom usuel (entrée indexée)" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{0D626C0F-A275-0741-8BD9-8BB64B31DC52}" name="Nom de famille" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{3CF0069E-5437-A34D-85F4-987D543D0CB2}" name="Prénom" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{CA4A0B9A-0D16-704A-BD64-22367B0E2592}" name="Titre" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{A04799DB-A77D-6545-947A-A495AD204AD8}" name="Genre" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{0D6CC52C-23E9-7048-9C73-B3E478053961}" name="Nom normalisé" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{2D7FF66E-B4E6-9141-8CBA-98107E278AA8}" name="Date de naissance" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{E8539C14-E442-DE4D-8962-8E66A82D140C}" name="Date de décès" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{C7DCFC73-CB35-B447-AA44-FD33F491A961}" name="Nationalité" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{B3E7F922-2AEB-CD4C-BA7B-21FBB3AA40E0}" name="Fonction dans la société" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{0F8F45AF-89E6-E647-83D2-F065884C8428}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{28A11D8F-FF42-BE46-BA75-6DCF6FECBF92}" name="Rôle normalisé" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{CF907310-B4A8-0548-B67F-F38E0A0902B6}" name="ID DataBnF" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{77216522-F2FD-0849-A28F-056952E3984D}" name="Tableau10586878" displayName="Tableau10586878" ref="A6:N10" totalsRowShown="0" headerRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="77" xr:uid="{77216522-F2FD-0849-A28F-056952E3984D}" name="Tableau10586878" displayName="Tableau10586878" ref="A6:N10" totalsRowShown="0" headerRowBorderDxfId="77">
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{EE60C99B-4682-FB4F-9327-9B0B6FA5E178}" name="Nom de la personne (dans le texte)" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{42BA14A7-DE6F-B04D-A7DF-AC409ABC9802}" name="Nom usuel (entrée indexée)" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{FF92DE90-7D4C-274D-9BB6-257362B05523}" name="Nom de famille" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{A4AEA8F2-6A72-AB48-9EB9-382BD1FB6237}" name="Prénom" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{603491C4-0B92-2B4C-A697-73F4D3C64B6C}" name="Titre" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{58189655-6EDA-A844-BDE1-20CED2532F1C}" name="Genre" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{F7EEB9D0-E1AB-B94C-8A23-8BEC30293E0F}" name="Nom normalisé" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{6996C177-0450-CB4A-8F79-D8279E6CC0AF}" name="Date de naissance" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{B7F4663E-D318-0A41-A028-F29FA53B3D57}" name="Date de décès" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{686042DF-3251-A84E-9C2C-AFD072C9246C}" name="Nationalité" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{2FF75966-8570-8941-B27E-D8D15EB22D7F}" name="Fonction dans la société" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{FA5EB6FF-5A4D-8445-B787-08A1B94E6FC2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{38D52C48-B795-0741-83ED-C039EB97B0B0}" name="Rôle normalisé" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{A228EF8D-20FD-6347-A6FC-CAA4998E3CB5}" name="ID DataBnF" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{EE60C99B-4682-FB4F-9327-9B0B6FA5E178}" name="Nom de la personne (dans le texte)" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{42BA14A7-DE6F-B04D-A7DF-AC409ABC9802}" name="Nom usuel (entrée indexée)" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{FF92DE90-7D4C-274D-9BB6-257362B05523}" name="Nom de famille" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{A4AEA8F2-6A72-AB48-9EB9-382BD1FB6237}" name="Prénom" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{603491C4-0B92-2B4C-A697-73F4D3C64B6C}" name="Titre" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{58189655-6EDA-A844-BDE1-20CED2532F1C}" name="Genre" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{F7EEB9D0-E1AB-B94C-8A23-8BEC30293E0F}" name="Nom normalisé" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{6996C177-0450-CB4A-8F79-D8279E6CC0AF}" name="Date de naissance" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{B7F4663E-D318-0A41-A028-F29FA53B3D57}" name="Date de décès" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{686042DF-3251-A84E-9C2C-AFD072C9246C}" name="Nationalité" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{2FF75966-8570-8941-B27E-D8D15EB22D7F}" name="Fonction dans la société" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{FA5EB6FF-5A4D-8445-B787-08A1B94E6FC2}" name="Rôle dans le divertissement (+ nom fictif si acteur)" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{38D52C48-B795-0741-83ED-C039EB97B0B0}" name="Rôle normalisé" dataDxfId="64"/>
+    <tableColumn id="14" xr3:uid="{A228EF8D-20FD-6347-A6FC-CAA4998E3CB5}" name="ID DataBnF" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6778,9 +6808,9 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A111" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="69" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A111" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6826,18 +6856,18 @@
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -11010,18 +11040,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -12000,18 +12030,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -12889,18 +12919,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -13635,18 +13665,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -14356,8 +14386,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14396,18 +14426,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -14655,7 +14685,7 @@
       <c r="G13" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="80">
         <v>1655</v>
       </c>
       <c r="I13" s="37">
@@ -14669,79 +14699,171 @@
       </c>
       <c r="N13" s="65"/>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N14" s="65"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
+        <v>765</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" s="65"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N17" s="65"/>
+    </row>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N18" s="65"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="D32"/>
     </row>
@@ -15252,10 +15374,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="A50" sqref="A50"/>
+      <selection pane="topRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15298,18 +15420,18 @@
     </row>
     <row r="5" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -17345,18 +17467,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -18459,18 +18581,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -19575,18 +19697,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -20709,18 +20831,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
@@ -21400,18 +21522,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
@@ -22351,18 +22473,18 @@
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="H5" s="80" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F683B8-F9DB-4ED7-8525-49C192F7CEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922B56D-6725-4531-A9F0-F0161A02EFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation… Pie ballard 2" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="775">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2374,9 +2374,6 @@
     <t xml:space="preserve">Mareschal de Bellefond </t>
   </si>
   <si>
-    <t>Le Sieur Giffey</t>
-  </si>
-  <si>
     <t>Le Sieur le V</t>
   </si>
   <si>
@@ -2392,9 +2389,6 @@
     <t>(de) Bellefonds, Bernadin (de) Gigault</t>
   </si>
   <si>
-    <t>Giffey, le Sieur</t>
-  </si>
-  <si>
     <t>Le Vau, Louis</t>
   </si>
   <si>
@@ -2443,9 +2437,6 @@
     <t>marechal_de_bellefond</t>
   </si>
   <si>
-    <t>sieur_giffey</t>
-  </si>
-  <si>
     <t>louis_le_vau</t>
   </si>
   <si>
@@ -2483,6 +2474,21 @@
   </si>
   <si>
     <t>Jean</t>
+  </si>
+  <si>
+    <t>Le Sieur Gissey</t>
+  </si>
+  <si>
+    <t>(de) Gissey, Henri</t>
+  </si>
+  <si>
+    <t>(de) Gissey</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>sieur_gissey</t>
   </si>
 </sst>
 </file>
@@ -14386,8 +14392,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14488,10 +14494,10 @@
         <v>734</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>377</v>
@@ -14499,7 +14505,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="35" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H7" s="36">
         <v>1623</v>
@@ -14520,18 +14526,18 @@
         <v>735</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H8" s="18">
         <v>1630</v>
@@ -14549,20 +14555,28 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+        <v>771</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>773</v>
+      </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="37"/>
+        <v>774</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1621</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1673</v>
+      </c>
       <c r="J9" s="66"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65"/>
@@ -14573,13 +14587,13 @@
     </row>
     <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>489</v>
@@ -14587,7 +14601,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H10" s="18">
         <v>1612</v>
@@ -14605,13 +14619,13 @@
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>489</v>
@@ -14619,7 +14633,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H11" s="18">
         <v>1661</v>
@@ -14640,18 +14654,18 @@
         <v>55</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H12" s="18">
         <v>1644</v>
@@ -14669,21 +14683,21 @@
     </row>
     <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>753</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H13" s="80">
         <v>1655</v>
@@ -14701,17 +14715,17 @@
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="65"/>
@@ -14725,17 +14739,17 @@
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="65"/>
@@ -14749,7 +14763,7 @@
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -14757,7 +14771,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="65"/>
@@ -14769,7 +14783,7 @@
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -14777,7 +14791,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="65"/>
@@ -14791,7 +14805,7 @@
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -14799,7 +14813,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="65"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4922B56D-6725-4531-A9F0-F0161A02EFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEB334-E772-4FB9-8BBF-0232ECA14520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="792">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2489,6 +2489,57 @@
   </si>
   <si>
     <t>sieur_gissey</t>
+  </si>
+  <si>
+    <t>Sieur du Mets</t>
+  </si>
+  <si>
+    <t>La Pierre, Favier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berbiers Du Mets, Gédéon </t>
+  </si>
+  <si>
+    <t>Berbiers Du Mets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gédéon </t>
+  </si>
+  <si>
+    <t>sieur_du_mets</t>
+  </si>
+  <si>
+    <t>Hotteterre, Martin</t>
+  </si>
+  <si>
+    <t>Hotteterre</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>musicien</t>
+  </si>
+  <si>
+    <t>Martin Hottere</t>
+  </si>
+  <si>
+    <t>martin_hottere</t>
+  </si>
+  <si>
+    <t>Mlle Hylaire</t>
+  </si>
+  <si>
+    <t>Hilaire, Dupuy</t>
+  </si>
+  <si>
+    <t>Dupuy</t>
+  </si>
+  <si>
+    <t>Mlle de Froteaux</t>
+  </si>
+  <si>
+    <t>mlle_de_froteaux</t>
   </si>
 </sst>
 </file>
@@ -6359,7 +6410,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N18" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N22" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14392,8 +14443,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14742,7 +14793,7 @@
         <v>762</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
@@ -14778,7 +14829,9 @@
       <c r="J16" s="66"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="M16" s="18" t="s">
+        <v>784</v>
+      </c>
       <c r="N16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14799,7 +14852,7 @@
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
       <c r="M17" s="18" t="s">
-        <v>172</v>
+        <v>784</v>
       </c>
       <c r="N17" s="65"/>
     </row>
@@ -14821,25 +14874,129 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
       <c r="M18" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="N18" s="65"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
+        <v>775</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1626</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1709</v>
+      </c>
+      <c r="J19" s="66"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="65"/>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>785</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>781</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1640</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1712</v>
+      </c>
+      <c r="J20" s="66"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="N20" s="65"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="64" t="s">
+        <v>787</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1625</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1709</v>
+      </c>
+      <c r="J21" s="66"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="N18" s="65"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="D22"/>
+      <c r="N21" s="65"/>
+    </row>
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" s="65"/>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEB334-E772-4FB9-8BBF-0232ECA14520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DAD958-DE4A-48C6-8FC6-FACEB8B593DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="813">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2509,12 +2509,6 @@
     <t>sieur_du_mets</t>
   </si>
   <si>
-    <t>Hotteterre, Martin</t>
-  </si>
-  <si>
-    <t>Hotteterre</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
@@ -2530,9 +2524,6 @@
     <t>Mlle Hylaire</t>
   </si>
   <si>
-    <t>Hilaire, Dupuy</t>
-  </si>
-  <si>
     <t>Dupuy</t>
   </si>
   <si>
@@ -2540,6 +2531,78 @@
   </si>
   <si>
     <t>mlle_de_froteaux</t>
+  </si>
+  <si>
+    <t>Gaye</t>
+  </si>
+  <si>
+    <t>Dupuy, Hilaire</t>
+  </si>
+  <si>
+    <t>Gaye, Jean</t>
+  </si>
+  <si>
+    <t>jean_gaye</t>
+  </si>
+  <si>
+    <t>1640(?)</t>
+  </si>
+  <si>
+    <t>Joüan</t>
+  </si>
+  <si>
+    <t>Jouan</t>
+  </si>
+  <si>
+    <t>jouan</t>
+  </si>
+  <si>
+    <t>Mayeu</t>
+  </si>
+  <si>
+    <t>mayeu</t>
+  </si>
+  <si>
+    <t>Hottere, Martin</t>
+  </si>
+  <si>
+    <t>Hottere</t>
+  </si>
+  <si>
+    <t>danseur</t>
+  </si>
+  <si>
+    <t>Foignard</t>
+  </si>
+  <si>
+    <t>foignard</t>
+  </si>
+  <si>
+    <t>Gingan</t>
+  </si>
+  <si>
+    <t>gingan</t>
+  </si>
+  <si>
+    <t>Le Gros</t>
+  </si>
+  <si>
+    <t>le_gros</t>
+  </si>
+  <si>
+    <t>Lully</t>
+  </si>
+  <si>
+    <t>lully</t>
+  </si>
+  <si>
+    <t>(de) Bourbon-Condé, Louis II</t>
+  </si>
+  <si>
+    <t>(de) Bourbon-Condé</t>
+  </si>
+  <si>
+    <t>hj_bourbon_condé</t>
   </si>
 </sst>
 </file>
@@ -6410,7 +6473,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N22" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N30" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14443,8 +14506,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14830,7 +14893,7 @@
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N16" s="65"/>
     </row>
@@ -14852,7 +14915,7 @@
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
       <c r="M17" s="18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N17" s="65"/>
     </row>
@@ -14874,7 +14937,7 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
       <c r="M18" s="18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N18" s="65"/>
     </row>
@@ -14912,21 +14975,21 @@
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>781</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>782</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>783</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H20" s="18">
         <v>1640</v>
@@ -14938,22 +15001,22 @@
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
       <c r="M20" s="18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N20" s="65"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>514</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>789</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -14976,17 +15039,17 @@
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="65"/>
@@ -14998,37 +15061,213 @@
       </c>
       <c r="N22" s="65"/>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="D30"/>
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>789</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1701</v>
+      </c>
+      <c r="J23" s="66"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N23" s="65"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="s">
+        <v>794</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="N24" s="65"/>
+    </row>
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64" t="s">
+        <v>797</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="N25" s="65"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="N26" s="65"/>
+    </row>
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" s="65"/>
+    </row>
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" s="65"/>
+    </row>
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="18" t="s">
+        <v>782</v>
+      </c>
+      <c r="N29" s="65"/>
+    </row>
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1643</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1709</v>
+      </c>
+      <c r="J30" s="66"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N30" s="65"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
@@ -15545,10 +15784,10 @@
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="topRight" activeCell="B37" sqref="B37"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DAD958-DE4A-48C6-8FC6-FACEB8B593DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A0CC2-113C-48A2-8FAE-10715A504BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14506,8 +14506,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A0CC2-113C-48A2-8FAE-10715A504BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D39995-346D-4D69-9958-F0431DF9AE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="814">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2596,13 +2596,16 @@
     <t>lully</t>
   </si>
   <si>
-    <t>(de) Bourbon-Condé, Louis II</t>
-  </si>
-  <si>
     <t>(de) Bourbon-Condé</t>
   </si>
   <si>
     <t>hj_bourbon_condé</t>
+  </si>
+  <si>
+    <t>(de) Bourbon-Condé, Henri-Jules</t>
+  </si>
+  <si>
+    <t>Henri-Jules</t>
   </si>
 </sst>
 </file>
@@ -14506,8 +14509,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15242,18 +15245,18 @@
         <v>23</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>811</v>
-      </c>
       <c r="D30" s="19" t="s">
-        <v>489</v>
+        <v>813</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H30" s="18">
         <v>1643</v>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D39995-346D-4D69-9958-F0431DF9AE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0D56B-7C06-4B93-B1D5-A68FAB6F5789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="863">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2386,9 +2386,6 @@
     <t>(de) Blanchefort-Créquy, Charles III</t>
   </si>
   <si>
-    <t>(de) Bellefonds, Bernadin (de) Gigault</t>
-  </si>
-  <si>
     <t>Le Vau, Louis</t>
   </si>
   <si>
@@ -2401,9 +2398,6 @@
     <t>Potier, François-Bernard</t>
   </si>
   <si>
-    <t>(de) Bellefonds</t>
-  </si>
-  <si>
     <t>(de) France</t>
   </si>
   <si>
@@ -2416,9 +2410,6 @@
     <t>Potier</t>
   </si>
   <si>
-    <t>Bernadin (de) Gigault</t>
-  </si>
-  <si>
     <t>François-Bernard</t>
   </si>
   <si>
@@ -2606,6 +2597,162 @@
   </si>
   <si>
     <t>Henri-Jules</t>
+  </si>
+  <si>
+    <t>Sieur de Valentiné</t>
+  </si>
+  <si>
+    <t>sieur_de_valentine</t>
+  </si>
+  <si>
+    <t>Sieurs Grotteau</t>
+  </si>
+  <si>
+    <t>sieurs_grotteau</t>
+  </si>
+  <si>
+    <t>Les Sieurs Grotteau</t>
+  </si>
+  <si>
+    <t>Gaut</t>
+  </si>
+  <si>
+    <t>Chamois</t>
+  </si>
+  <si>
+    <t>gaut</t>
+  </si>
+  <si>
+    <t>chamois</t>
+  </si>
+  <si>
+    <t>Sieur Courtet</t>
+  </si>
+  <si>
+    <t>courtet</t>
+  </si>
+  <si>
+    <t>Sieur de la Grande</t>
+  </si>
+  <si>
+    <t>sieur_de_la_grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(de) Gigault de Bellefonds, Bernadin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernadin </t>
+  </si>
+  <si>
+    <t>(de) Gigault de Bellefonds</t>
+  </si>
+  <si>
+    <t>(de) Gigault de Bellefonds, Madeleine</t>
+  </si>
+  <si>
+    <t>marechalle_de_bellefond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madame la Mareschalle de Bellefond </t>
+  </si>
+  <si>
+    <t>Mesdemoiselles d'Angoulesmes</t>
+  </si>
+  <si>
+    <t>Mesdemoiselles d'Angoulême</t>
+  </si>
+  <si>
+    <t>mesdemoiselles_d_angouleme</t>
+  </si>
+  <si>
+    <t>Me Aubry de Courcy</t>
+  </si>
+  <si>
+    <t>(de) Courcy, Aubry</t>
+  </si>
+  <si>
+    <t>(de) Courcy</t>
+  </si>
+  <si>
+    <t>Aubry</t>
+  </si>
+  <si>
+    <t>aubry_de_courcy</t>
+  </si>
+  <si>
+    <t>Me de Saint Arbre</t>
+  </si>
+  <si>
+    <t>Madame de Saint Arbre</t>
+  </si>
+  <si>
+    <t>madame_de_saint_arbre</t>
+  </si>
+  <si>
+    <t>Me de Broglio</t>
+  </si>
+  <si>
+    <t>Madame de Broglio</t>
+  </si>
+  <si>
+    <t>madame_de_broglio</t>
+  </si>
+  <si>
+    <t>Me de Bailleul</t>
+  </si>
+  <si>
+    <t>Madame de Bailleul</t>
+  </si>
+  <si>
+    <t>madame_de_bailleul</t>
+  </si>
+  <si>
+    <t>Me de Bonnelle</t>
+  </si>
+  <si>
+    <t>Madame de Bonnelle</t>
+  </si>
+  <si>
+    <t>madame_de_bonnelle</t>
+  </si>
+  <si>
+    <t>Me Bignon</t>
+  </si>
+  <si>
+    <t>Madame Bignon</t>
+  </si>
+  <si>
+    <t>madame_bignon</t>
+  </si>
+  <si>
+    <t>Me de Bordeaux</t>
+  </si>
+  <si>
+    <t>Madame de Bordeaux</t>
+  </si>
+  <si>
+    <t>madame_de_bordeaux</t>
+  </si>
+  <si>
+    <t>Mlle Borelle</t>
+  </si>
+  <si>
+    <t>Mademoiselle Borelle</t>
+  </si>
+  <si>
+    <t>mademoiselle_borelle</t>
+  </si>
+  <si>
+    <t>Me de Brissac</t>
+  </si>
+  <si>
+    <t>Madame de Brissac</t>
+  </si>
+  <si>
+    <t>madame_de_brissac</t>
+  </si>
+  <si>
+    <t>Me de Coulange</t>
   </si>
 </sst>
 </file>
@@ -6476,7 +6623,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N30" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N48" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14509,8 +14656,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14614,7 +14761,7 @@
         <v>739</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>377</v>
@@ -14622,7 +14769,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="35" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H7" s="36">
         <v>1623</v>
@@ -14638,23 +14785,23 @@
       </c>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>735</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>740</v>
+        <v>824</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>745</v>
+        <v>826</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>750</v>
+        <v>825</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H8" s="18">
         <v>1630</v>
@@ -14672,21 +14819,21 @@
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
+        <v>767</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>770</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>773</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H9" s="18">
         <v>1621</v>
@@ -14707,10 +14854,10 @@
         <v>736</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>489</v>
@@ -14718,7 +14865,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H10" s="18">
         <v>1612</v>
@@ -14739,10 +14886,10 @@
         <v>737</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>489</v>
@@ -14750,7 +14897,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H11" s="18">
         <v>1661</v>
@@ -14771,18 +14918,18 @@
         <v>55</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H12" s="18">
         <v>1644</v>
@@ -14803,18 +14950,18 @@
         <v>738</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H13" s="80">
         <v>1655</v>
@@ -14832,17 +14979,17 @@
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="65"/>
@@ -14856,17 +15003,17 @@
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="65"/>
@@ -14880,7 +15027,7 @@
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -14888,7 +15035,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="65"/>
@@ -14896,13 +15043,13 @@
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
       <c r="M16" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="N16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -14910,7 +15057,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="65"/>
@@ -14918,13 +15065,13 @@
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
       <c r="M17" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="N17" s="65"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -14932,7 +15079,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="65"/>
@@ -14940,27 +15087,27 @@
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
       <c r="M18" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="N18" s="65"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
+        <v>772</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>778</v>
-      </c>
       <c r="D19" s="19" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="H19" s="18">
         <v>1626</v>
@@ -14978,21 +15125,21 @@
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="H20" s="18">
         <v>1640</v>
@@ -15004,19 +15151,19 @@
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
       <c r="M20" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="N20" s="65"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>514</v>
@@ -15042,17 +15189,17 @@
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="65"/>
@@ -15066,24 +15213,24 @@
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I23" s="18">
         <v>1701</v>
@@ -15098,17 +15245,17 @@
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="65"/>
@@ -15116,23 +15263,23 @@
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
       <c r="M24" s="18" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="N24" s="65"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="65"/>
@@ -15140,23 +15287,23 @@
       <c r="K25" s="65"/>
       <c r="L25" s="65"/>
       <c r="M25" s="18" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="N25" s="65"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="65"/>
@@ -15164,23 +15311,23 @@
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
       <c r="M26" s="18" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="N26" s="65"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="64" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="65"/>
@@ -15194,17 +15341,17 @@
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="64" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="65"/>
@@ -15218,17 +15365,17 @@
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="65"/>
@@ -15236,7 +15383,7 @@
       <c r="K29" s="65"/>
       <c r="L29" s="65"/>
       <c r="M29" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="N29" s="65"/>
     </row>
@@ -15245,18 +15392,18 @@
         <v>23</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>810</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>813</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H30" s="18">
         <v>1643</v>
@@ -15272,77 +15419,441 @@
       </c>
       <c r="N30" s="65"/>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="D48"/>
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="64" t="s">
+        <v>811</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N31" s="65"/>
+    </row>
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="64" t="s">
+        <v>815</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N32" s="65"/>
+    </row>
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
+        <v>816</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N33" s="65"/>
+    </row>
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64" t="s">
+        <v>817</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N34" s="65"/>
+    </row>
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="64" t="s">
+        <v>820</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N35" s="65"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
+        <v>822</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="N36" s="65"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
+        <v>829</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18">
+        <v>1716</v>
+      </c>
+      <c r="J37" s="66"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N37" s="65"/>
+    </row>
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
+        <v>830</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N38" s="65"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
+        <v>833</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N39" s="65"/>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
+        <v>838</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N40" s="65"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="64" t="s">
+        <v>841</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N41" s="65"/>
+    </row>
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="64" t="s">
+        <v>844</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N42" s="65"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N43" s="65"/>
+    </row>
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="64" t="s">
+        <v>850</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N44" s="65"/>
+    </row>
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N45" s="65"/>
+    </row>
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="64" t="s">
+        <v>856</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N46" s="65"/>
+    </row>
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="64" t="s">
+        <v>859</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N47" s="65"/>
+    </row>
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0D56B-7C06-4B93-B1D5-A68FAB6F5789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12085261-53CF-49DB-913D-9639000BD723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="909">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2650,12 +2650,6 @@
     <t>(de) Gigault de Bellefonds, Madeleine</t>
   </si>
   <si>
-    <t>marechalle_de_bellefond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madame la Mareschalle de Bellefond </t>
-  </si>
-  <si>
     <t>Mesdemoiselles d'Angoulesmes</t>
   </si>
   <si>
@@ -2753,6 +2747,150 @@
   </si>
   <si>
     <t>Me de Coulange</t>
+  </si>
+  <si>
+    <t>Madame de Coulange</t>
+  </si>
+  <si>
+    <t>madame_de_coulange</t>
+  </si>
+  <si>
+    <t>Me la Mareschale de Clerembaut</t>
+  </si>
+  <si>
+    <t>Me la Mareschale de Castelnau</t>
+  </si>
+  <si>
+    <t>Me de Comminge</t>
+  </si>
+  <si>
+    <t>Madame de Comminge</t>
+  </si>
+  <si>
+    <t>madame_de_comminge</t>
+  </si>
+  <si>
+    <t>Me la Marquise de Castelnau</t>
+  </si>
+  <si>
+    <t>Madame la Marquise de Castelnau</t>
+  </si>
+  <si>
+    <t>marquise_de_castelnau</t>
+  </si>
+  <si>
+    <t>Me la Mareschale d'Albret</t>
+  </si>
+  <si>
+    <t>Madame la Maréchale de Clérembaut</t>
+  </si>
+  <si>
+    <t>Madame la Maréchale de Castelnau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madame la Mareschale de Bellefond </t>
+  </si>
+  <si>
+    <t>marechale_de_clerembaut</t>
+  </si>
+  <si>
+    <t>marechale_de_castelnau</t>
+  </si>
+  <si>
+    <t>marechale_de_bellefond</t>
+  </si>
+  <si>
+    <t>Madame la Maréchale d'Albret</t>
+  </si>
+  <si>
+    <t>marechale_d_albret</t>
+  </si>
+  <si>
+    <t>Mlle sa fille</t>
+  </si>
+  <si>
+    <t>Mlle d'Albret</t>
+  </si>
+  <si>
+    <t>mlle_d_albret</t>
+  </si>
+  <si>
+    <t>Me la Mareschale d'Estrée</t>
+  </si>
+  <si>
+    <t>Gabrielle de Longueval</t>
+  </si>
+  <si>
+    <t>(de) Longueval</t>
+  </si>
+  <si>
+    <t>Gabrielle</t>
+  </si>
+  <si>
+    <t>marechale_d_estree</t>
+  </si>
+  <si>
+    <t>Me la Mareschale de la Ferte</t>
+  </si>
+  <si>
+    <t>Madeleine d'Angennes</t>
+  </si>
+  <si>
+    <t>(d') Angennes</t>
+  </si>
+  <si>
+    <t>marechale_de_la_ferte</t>
+  </si>
+  <si>
+    <t>Me de la Fayette</t>
+  </si>
+  <si>
+    <t>Marie-Madeleine Pioche de La Vergne</t>
+  </si>
+  <si>
+    <t>Pioche de la Vergne</t>
+  </si>
+  <si>
+    <t>Marie-Madeleine</t>
+  </si>
+  <si>
+    <t>madame_de_la_fayette</t>
+  </si>
+  <si>
+    <t>Me la Comtesse de Fiesque</t>
+  </si>
+  <si>
+    <t>Madame la Comtesse de Fiesque</t>
+  </si>
+  <si>
+    <t>comtesse_de_fiesque</t>
+  </si>
+  <si>
+    <t>Me de Fontenay Hotman</t>
+  </si>
+  <si>
+    <t>Madame de Fontenay Hotman</t>
+  </si>
+  <si>
+    <t>madame_de_fontenay_hotman</t>
+  </si>
+  <si>
+    <t>Me de Fieubet</t>
+  </si>
+  <si>
+    <t>Madame de Fieubet</t>
+  </si>
+  <si>
+    <t>madame_de_fieubet</t>
+  </si>
+  <si>
+    <t>Me la Mareschale de Grancay</t>
+  </si>
+  <si>
+    <t>marechale_de_grancay</t>
+  </si>
+  <si>
+    <t>Madame la Marechale de Grancay</t>
   </si>
 </sst>
 </file>
@@ -6623,7 +6761,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N48" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N61" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14656,8 +14794,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15565,7 +15703,7 @@
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="64" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>827</v>
@@ -15579,7 +15717,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18">
@@ -15595,17 +15733,17 @@
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="65"/>
@@ -15619,21 +15757,21 @@
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
+        <v>831</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>833</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>834</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>835</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>836</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="65"/>
@@ -15647,17 +15785,17 @@
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="64" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="19"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="65"/>
@@ -15671,17 +15809,17 @@
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="64" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="19"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="65"/>
@@ -15695,17 +15833,17 @@
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="64" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="19"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="65"/>
@@ -15719,17 +15857,17 @@
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="64" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="18" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="65"/>
@@ -15743,17 +15881,17 @@
     </row>
     <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="19"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="65"/>
@@ -15767,17 +15905,17 @@
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="64" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="19"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="65"/>
@@ -15791,17 +15929,17 @@
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="19"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="65"/>
@@ -15815,17 +15953,17 @@
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="64" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="19"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="65"/>
@@ -15839,83 +15977,367 @@
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="64" t="s">
-        <v>862</v>
-      </c>
-      <c r="B48" s="18"/>
+        <v>860</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>861</v>
+      </c>
       <c r="C48" s="18"/>
       <c r="D48" s="19"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
+      <c r="G48" s="18" t="s">
+        <v>862</v>
+      </c>
       <c r="H48" s="18"/>
       <c r="I48" s="65"/>
       <c r="J48" s="66"/>
       <c r="K48" s="65"/>
       <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
+      <c r="M48" s="18" t="s">
+        <v>444</v>
+      </c>
       <c r="N48" s="65"/>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N49" s="65"/>
+    </row>
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="64" t="s">
+        <v>864</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N50" s="65"/>
+    </row>
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="64" t="s">
+        <v>865</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N51" s="65"/>
+    </row>
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64" t="s">
+        <v>868</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N52" s="65"/>
+    </row>
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="64" t="s">
+        <v>871</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N53" s="65"/>
+    </row>
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64" t="s">
+        <v>880</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18" t="s">
+        <v>882</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N54" s="65"/>
+    </row>
+    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="64" t="s">
+        <v>883</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>885</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18" t="s">
+        <v>887</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18">
+        <v>1687</v>
+      </c>
+      <c r="J55" s="66"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N55" s="65"/>
+    </row>
+    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="64" t="s">
+        <v>888</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>584</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N56" s="65"/>
+    </row>
+    <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>895</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="H57" s="18">
+        <v>1634</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1693</v>
+      </c>
+      <c r="J57" s="66"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N57" s="65"/>
+    </row>
+    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="64" t="s">
+        <v>897</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N58" s="65"/>
+    </row>
+    <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="64" t="s">
+        <v>900</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N59" s="65"/>
+    </row>
+    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="64" t="s">
+        <v>903</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N60" s="65"/>
+    </row>
+    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N61" s="65"/>
+    </row>
+    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="D62"/>
     </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="D63"/>
     </row>
-    <row r="64" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="D64"/>
     </row>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12085261-53CF-49DB-913D-9639000BD723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05A8B16-7E2E-4D84-BFDE-975997CE2C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="952">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -2890,7 +2890,136 @@
     <t>marechale_de_grancay</t>
   </si>
   <si>
-    <t>Madame la Marechale de Grancay</t>
+    <t>Me des Hameaux</t>
+  </si>
+  <si>
+    <t>Madame des Hameaux</t>
+  </si>
+  <si>
+    <t>madame_des_hameaux</t>
+  </si>
+  <si>
+    <t>Me la Mareschale de l'Hospital</t>
+  </si>
+  <si>
+    <t>Madame la Maréchale de l'Hôpital</t>
+  </si>
+  <si>
+    <t>Madame la Maréchale de Grancay</t>
+  </si>
+  <si>
+    <t>marechale_de_l_hopital</t>
+  </si>
+  <si>
+    <t>Me la Lieutenante Civile</t>
+  </si>
+  <si>
+    <t>Madame la Lieutenante Civile</t>
+  </si>
+  <si>
+    <t>lieutenante_civile</t>
+  </si>
+  <si>
+    <t>Me la Comtesse de Louvigny</t>
+  </si>
+  <si>
+    <t>Madame la Comtesse de Louvigny</t>
+  </si>
+  <si>
+    <t>comtesse_de_louvigny</t>
+  </si>
+  <si>
+    <t>Mlle de Manicham</t>
+  </si>
+  <si>
+    <t>Mademoiselle de Manicham</t>
+  </si>
+  <si>
+    <t>mademoiselle_de_manicham</t>
+  </si>
+  <si>
+    <t>Me de Mekelbourg</t>
+  </si>
+  <si>
+    <t>Madame de Mekelbourg</t>
+  </si>
+  <si>
+    <t>madame_de_mekelbourg</t>
+  </si>
+  <si>
+    <t>Me la Grande Maréchale</t>
+  </si>
+  <si>
+    <t>Madame la Grande Maréchale</t>
+  </si>
+  <si>
+    <t>grande_marechale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me de Marré </t>
+  </si>
+  <si>
+    <t>Me la Duchesse de Richemont</t>
+  </si>
+  <si>
+    <t>Me de Richelieu</t>
+  </si>
+  <si>
+    <t>Mlle de Tresme</t>
+  </si>
+  <si>
+    <t>Me Tambonneau</t>
+  </si>
+  <si>
+    <t>Me de la Trousse</t>
+  </si>
+  <si>
+    <t>Me la Presidente Tubeuf</t>
+  </si>
+  <si>
+    <t>Madame de Marré</t>
+  </si>
+  <si>
+    <t>Madame la Duchesse de Richemont</t>
+  </si>
+  <si>
+    <t>Madame de Richelieu</t>
+  </si>
+  <si>
+    <t>Madame de Tresme</t>
+  </si>
+  <si>
+    <t>Madame Tambonneau</t>
+  </si>
+  <si>
+    <t>Madame de la Trousse</t>
+  </si>
+  <si>
+    <t>Madame la Presidente Tubeuf</t>
+  </si>
+  <si>
+    <t>Poussard de Fors du Vigean</t>
+  </si>
+  <si>
+    <t>madame_de_marre</t>
+  </si>
+  <si>
+    <t>duchesse_de_richemont</t>
+  </si>
+  <si>
+    <t>anne_de_richelieu</t>
+  </si>
+  <si>
+    <t>mlle_de_tresme</t>
+  </si>
+  <si>
+    <t>madame_tambonneau</t>
+  </si>
+  <si>
+    <t>madame_de_la_trousse</t>
+  </si>
+  <si>
+    <t>presidente_tubeuf</t>
   </si>
 </sst>
 </file>
@@ -6761,7 +6890,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N61" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N75" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14794,8 +14923,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16310,7 +16439,7 @@
         <v>906</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="19"/>
@@ -16329,79 +16458,367 @@
       </c>
       <c r="N61" s="65"/>
     </row>
-    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N62" s="65"/>
+    </row>
+    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="64" t="s">
+        <v>911</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="H63" s="18"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N63" s="65"/>
+    </row>
+    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64" t="s">
+        <v>915</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="H64" s="18"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N64" s="65"/>
+    </row>
+    <row r="65" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="64" t="s">
+        <v>918</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N65" s="65"/>
+    </row>
+    <row r="66" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+      <c r="M66" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N66" s="65"/>
+    </row>
+    <row r="67" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="64" t="s">
+        <v>924</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="H67" s="18"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N67" s="65"/>
+    </row>
+    <row r="68" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="64" t="s">
+        <v>927</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N68" s="65"/>
+    </row>
+    <row r="69" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="H69" s="18"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N69" s="65"/>
+    </row>
+    <row r="70" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="64" t="s">
+        <v>931</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>938</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N70" s="65"/>
+    </row>
+    <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>939</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18" t="s">
+        <v>947</v>
+      </c>
+      <c r="H71" s="18">
+        <v>1622</v>
+      </c>
+      <c r="I71" s="18">
+        <v>1684</v>
+      </c>
+      <c r="J71" s="66"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N71" s="65"/>
+    </row>
+    <row r="72" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="64" t="s">
+        <v>933</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18" t="s">
+        <v>948</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N72" s="65"/>
+    </row>
+    <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="64" t="s">
+        <v>934</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18" t="s">
+        <v>949</v>
+      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N73" s="65"/>
+    </row>
+    <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18" t="s">
+        <v>950</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N74" s="65"/>
+    </row>
+    <row r="75" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N75" s="65"/>
+    </row>
+    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="D76"/>
     </row>
-    <row r="77" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="D77"/>
     </row>
-    <row r="78" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="D79"/>
     </row>
-    <row r="80" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="D80"/>
     </row>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05A8B16-7E2E-4D84-BFDE-975997CE2C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE211A-9888-4B6E-BC00-F5EA3674FC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="964">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -3020,6 +3020,42 @@
   </si>
   <si>
     <t>presidente_tubeuf</t>
+  </si>
+  <si>
+    <t>Me la Duchesse de la Valierre</t>
+  </si>
+  <si>
+    <t>Madame la Duchesse de la Valierre</t>
+  </si>
+  <si>
+    <t>duchesse_de_la_valierre</t>
+  </si>
+  <si>
+    <t>Me de Vilacerf</t>
+  </si>
+  <si>
+    <t>Madame de Vilacerf</t>
+  </si>
+  <si>
+    <t>madame_de_vilacerf</t>
+  </si>
+  <si>
+    <t>Me la Duchesse de Virtemberg</t>
+  </si>
+  <si>
+    <t>Madame la Duchesse de Virtemberg</t>
+  </si>
+  <si>
+    <t>duchesse_de_virtemberg</t>
+  </si>
+  <si>
+    <t>Me de Valavoire</t>
+  </si>
+  <si>
+    <t>Madame de Valavoire</t>
+  </si>
+  <si>
+    <t>madame_de_valavoire</t>
   </si>
 </sst>
 </file>
@@ -6890,7 +6926,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N75" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N79" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14923,8 +14959,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16802,21 +16838,101 @@
       </c>
       <c r="N75" s="65"/>
     </row>
-    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="D79"/>
+    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="64" t="s">
+        <v>952</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N76" s="65"/>
+    </row>
+    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="64" t="s">
+        <v>955</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+      <c r="M77" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N77" s="65"/>
+    </row>
+    <row r="78" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18" t="s">
+        <v>960</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+      <c r="M78" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N78" s="65"/>
+    </row>
+    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="64" t="s">
+        <v>961</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N79" s="65"/>
     </row>
     <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80"/>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE211A-9888-4B6E-BC00-F5EA3674FC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B0C433-4F4B-4D65-A677-1AF2D1EC30BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="970">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -3056,6 +3056,24 @@
   </si>
   <si>
     <t>madame_de_valavoire</t>
+  </si>
+  <si>
+    <t>Mademoiselle</t>
+  </si>
+  <si>
+    <t>mademoiselle</t>
+  </si>
+  <si>
+    <t>Le Sieur Joly</t>
+  </si>
+  <si>
+    <t>sieur_joly</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Jolly</t>
   </si>
 </sst>
 </file>
@@ -6926,7 +6944,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N79" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N81" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14959,8 +14977,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16934,71 +16952,115 @@
       </c>
       <c r="N79" s="65"/>
     </row>
-    <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="64" t="s">
+        <v>964</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N80" s="65"/>
+    </row>
+    <row r="81" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="64" t="s">
+        <v>966</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>968</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N81" s="65"/>
+    </row>
+    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="D82"/>
     </row>
-    <row r="83" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="D83"/>
     </row>
-    <row r="84" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="D84"/>
     </row>
-    <row r="85" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="D85"/>
     </row>
-    <row r="86" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="D86"/>
     </row>
-    <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="D87"/>
     </row>
-    <row r="88" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="D88"/>
     </row>
-    <row r="89" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="D89"/>
     </row>
-    <row r="90" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="D90"/>
     </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="D91"/>
     </row>
-    <row r="92" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="D93"/>
     </row>
-    <row r="94" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="D94"/>
     </row>
-    <row r="95" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="D95"/>
     </row>
-    <row r="96" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="D96"/>
     </row>

--- a/index/Nominum.xlsx
+++ b/index/Nominum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B0C433-4F4B-4D65-A677-1AF2D1EC30BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D5D08A-3B7D-4599-9A23-4763F132B326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="976">
   <si>
     <t>Nom normalisé</t>
   </si>
@@ -3074,6 +3074,24 @@
   </si>
   <si>
     <t>Jolly</t>
+  </si>
+  <si>
+    <t>Mlles ses deux filles (Me la Mareschale de Grancay)</t>
+  </si>
+  <si>
+    <t>mlles_de_grancay</t>
+  </si>
+  <si>
+    <t>Mesdemoiselles de Grancay</t>
+  </si>
+  <si>
+    <t>Me sa fille</t>
+  </si>
+  <si>
+    <t>Madame la fille de la Duchesse de Virtemberg</t>
+  </si>
+  <si>
+    <t>fille_virtemberg</t>
   </si>
 </sst>
 </file>
@@ -6944,7 +6962,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N81" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{10242FCF-950E-4EFF-8934-0B018FD655A7}" name="Tableau1260708090100247" displayName="Tableau1260708090100247" ref="A6:N83" totalsRowShown="0" dataDxfId="191" headerRowBorderDxfId="192">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{73E4E521-331A-42F8-A8A0-06F482136EF6}" name="Nom de la personne (dans le texte)" dataDxfId="190"/>
     <tableColumn id="2" xr3:uid="{CE0C7063-BC3B-4ABE-BFC2-04B9D9893C8F}" name="Nom usuel (entrée indexée)" dataDxfId="189"/>
@@ -14977,8 +14995,8 @@
   </sheetPr>
   <dimension ref="A1:N231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17004,13 +17022,53 @@
       </c>
       <c r="N81" s="65"/>
     </row>
-    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="D83"/>
+    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="64" t="s">
+        <v>970</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N82" s="65"/>
+    </row>
+    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="64" t="s">
+        <v>973</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="N83" s="65"/>
     </row>
     <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84"/>
